--- a/pokemon.xlsx
+++ b/pokemon.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\pokemon\gen 1\engine_gen 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\pokemon\gen 1\clearing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE688F82-6C27-40DB-98FB-47881771254A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD0DB39-CA10-4B2C-B3A7-7FF09F690970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{114183A6-97A9-437D-A5ED-3C5EC237E29D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{114183A6-97A9-437D-A5ED-3C5EC237E29D}"/>
   </bookViews>
   <sheets>
     <sheet name="Pokemon" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="536">
   <si>
     <t>Name</t>
   </si>
@@ -181,9 +181,6 @@
     <t>Magikarp</t>
   </si>
   <si>
-    <t>Splash, Tackle, Flail</t>
-  </si>
-  <si>
     <t>Bug</t>
   </si>
   <si>
@@ -649,9 +646,6 @@
     <t>Flash</t>
   </si>
   <si>
-    <t>Harden, Harden</t>
-  </si>
-  <si>
     <t>Barrage</t>
   </si>
   <si>
@@ -727,786 +721,348 @@
     <t>Caterpie</t>
   </si>
   <si>
-    <t>String Shot, Tackle, Bug Bite</t>
-  </si>
-  <si>
     <t>Metapod</t>
   </si>
   <si>
-    <t>Harden, Vise Grip, Focus Energy, Bind, Seismic Toss, Bug Bite, Storm Throw, Double Hit, Vital Throw, X-Scissor, Strength, Swords Dance, Submission, Guillotine, Superpower, Bug Bite, Close Combat, Feint, Flail, Fury Attack, Quick Attack, Superpower, Thrash, Focus Punch, Bulk Up, Sunny Day, Hyper Beam, Protect, Rain Dance, Earthquake, Dig, Brick Break, Double Team, Rock Tomb, Facade, Rest, Attract, Thief, Focus Blast, False Swipe, Fling, Endure, Giga Impact, Stone Edge, Swords Dance, Stealth Rock, Rock Slide, X-Scissor, Sleep Talk, Bulldoze, Swagger, Substitute, Cut, Strength, Rock Smash, Rock Climb</t>
-  </si>
-  <si>
     <t>Scyther</t>
   </si>
   <si>
-    <t>Leer, Quick Attack, Fury Cutter, False Swipe, Wing Attack, Double Team, Double Hit, Slash, Focus Energy, Agility, Air Slash, X-Scissor, Swords Dance, Counter, Defog, Feint, Night Slash, Quick Guard, Take Down, Agility, Scary Face, Protect, Acrobatics, Struggle Bug, Thief, Trailblaze, Pounce, Facade, Aerial Ace, Swift, Air Cutter, Endure, Sunny Day, Rain Dance, False Swipe, Brick Break, U-turn, Air Slash, Sleep Talk, Light Screen, Rest, Swords Dance, Substitute, X-Scissor, Tailwind, Helping Hand, Baton Pass, Reversal, Giga Impact, Bug Buzz, Hyper Beam, Close Combat, Tera Blast</t>
-  </si>
-  <si>
     <t>Butterfree</t>
   </si>
   <si>
-    <t>Bug Bite, Gust, Harden, String Shot, Tackle, Supersonic, Confusion, Poison Powder, Sleep Powder, Stun Spore, Psybeam, Whirlwind, Air Slash, Safeguard, Bug Buzz, Tailwind, Rage Powder, Quiver Dance, Gust, Sunny Day, Hyper Beam, Protect, Rain Dance, Giga Drain, Safeguard, Solar Beam, Psychic, Shadow Ball, Double Team, Aerial Ace, Facade, Rest, Attract, Thief, Skill Swap, Roost, Energy Ball, Endure, Bug Buzz, Giga Impact, Flash, Psych Up, Sleep Talk, Dream Eater, Swagger, U-turn, Substitute, Defog</t>
-  </si>
-  <si>
     <t>Parasect</t>
   </si>
   <si>
     <t>Bug, Grass</t>
   </si>
   <si>
-    <t>Absorb, Cross Poison, Poison Powder, Scratch, Stun Spore, Poison Powder, Stun Spore, Absorb, Fury Cutter, Spore, Slash, Growth, Giga Drain, Aromatherapy, Rage Powder, X-Scissor, Agility, Bug Bite, Counter, Cross Poison, Fell Stinger, Flail, Grassy Terrain, Leech Seed, Metal Claw, Psybeam, Screech, Sweet Scent, Wide Guard, Bullet Seed, Sunny Day, Hyper Beam, Light Screen, Protect, Giga Drain, Solar Beam, Dig, Brick Break, Double Team, Sludge Bomb, Aerial Ace, Facade, Rest, Attract, Thief, Energy Ball, False Swipe, Endure, Giga Impact, Flash, Swords Dance, X-Scissor, Sleep Talk, Grass Knot, Swagger, Substitute, Cut, Rock Smash</t>
-  </si>
-  <si>
     <t>Paras</t>
   </si>
   <si>
-    <t>Scratch, Poison Powder, Stun Spore, Absorb, Fury Cutter, Spore, Slash, Growth, Giga Drain, Aromatherapy, Rage Powder, X-Scissor, Agility, Bug Bite, Counter, Cross Poison, Fell Stinger, Flail, Grassy Terrain, Leech Seed, Metal Claw, Psybeam, Screech, Sweet Scent, Wide Guard, Bullet Seed, Sunny Day, Light Screen, Protect, Giga Drain, Solar Beam, Dig, Brick Break, Double Team, Sludge Bomb, Aerial Ace, Facade, Rest, Attract, Thief, False Swipe, Endure, Flash, Swords Dance, X-Scissor, Sleep Talk, Grass Knot, Swagger, Substitute, Cut, Rock Smash</t>
-  </si>
-  <si>
     <t>Kakuna</t>
   </si>
   <si>
     <t>Venonat</t>
   </si>
   <si>
-    <t>Disable, Tackle, Supersonic, Confusion, Poison Powder, Psybeam, Stun Spore, Bug Buzz, Sleep Powder, Leech Life, Zen Headbutt, Poison Fang, Psychic, Agility, Baton Pass, Bug Bite, Morning Sun, Rage Powder, Screech, Toxic Spikes, Venoshock, Take Down, Agility, Protect, Acid Spray, Struggle Bug, Psybeam, Confuse Ray, Thief, Pounce, Facade, Swift, Night Shade, Venoshock, Endure, Sunny Day, Zen Headbutt, Sleep Talk, Rest, Toxic Spikes, Leech Life, Skill Swap, Substitute, Giga Drain, Energy Ball, Psychic, Baton Pass, Sludge Bomb, Bug Buzz, Solar Beam, Tera Blast</t>
-  </si>
-  <si>
     <t>Weedle</t>
   </si>
   <si>
-    <t>Poison Sting, String Shot, Bug Bite</t>
-  </si>
-  <si>
     <t>Beedrill</t>
   </si>
   <si>
-    <t>Bug Bite, Fury Attack, Harden, Poison Sting, String Shot, Fury Cutter, Laser Focus, Poison Sting, Focus Energy, Venoshock, Assurance, Toxic Spikes, Pin Missile, Poison Jab, Agility, Endeavor, Fell Stinger, Fury Attack, Sunny Day, Hyper Beam, Protect, Giga Drain, Solar Beam, Brick Break, Double Team, Sludge Bomb, Aerial Ace, Facade, Rest, Attract, Thief, Roost, False Swipe, Endure, Payback, Giga Impact, Flash, Swords Dance, X-Scissor, Sleep Talk, Poison Jab, Swagger, U-turn, Substitute, Cut, Defog, Rock Smash</t>
-  </si>
-  <si>
     <t>Venomoth</t>
   </si>
   <si>
-    <t>Disable, Quiver Dance, Supersonic, Tackle, Confusion, Poison Powder, Psybeam, Stun Spore, Bug Buzz, Sleep Powder, Leech Life, Zen Headbutt, Poison Fang, Psychic, Air Slash, Agility, Baton Pass, Bug Bite, Morning Sun, Rage Powder, Screech, Toxic Spikes, Venoshock, Take Down, Agility, Protect, Acid Spray, Acrobatics, Struggle Bug, Psybeam, Confuse Ray, Thief, Pounce, Facade, Swift, Air Cutter, Night Shade, Venoshock, Endure, Sunny Day, Zen Headbutt, U-turn, Air Slash, Sleep Talk, Rest, Toxic Spikes, Leech Life, Skill Swap, Substitute, Giga Drain, Energy Ball, Psychic, Baton Pass, Sludge Bomb, Giga Impact, Bug Buzz, Hyper Beam, Solar Beam, Tera Blast</t>
-  </si>
-  <si>
     <t>Dratini</t>
   </si>
   <si>
-    <t>Leer, Wrap, Twister, Thunder Wave, Dragon Tail, Agility, Slam, Aqua Tail, Dragon Rush, Safeguard, Rain Dance, Dragon Dance, Outrage, Hyper Beam, Aqua Jet, Dragon Breath, Extreme Speed, Mist, Supersonic, Water Pulse, Take Down, Agility, Protect, Water Pulse, Chilling Water, Fire Spin, Facade, Swift, Icy Wind, Dragon Tail, Endure, Sunny Day, Rain Dance, Body Slam, Sleep Talk, Light Screen, Waterfall, Thunder Wave, Rest, Iron Head, Dragon Dance, Substitute, Dragon Pulse, Surf, Flamethrower, Thunderbolt, Helping Hand, Ice Beam, Fire Blast, Hydro Pump, Blizzard, Giga Impact, Outrage, Hyper Beam, Thunder, Draco Meteor, Tera Blast</t>
-  </si>
-  <si>
     <t>Dragonair</t>
   </si>
   <si>
-    <t>Leer, Thunder Wave, Twister, Wrap, Dragon Tail, Agility, Slam, Aqua Tail, Dragon Rush, Safeguard, Rain Dance, Dragon Dance, Outrage, Hyper Beam, Aqua Jet, Dragon Breath, Extreme Speed, Mist, Supersonic, Water Pulse, Take Down, Agility, Protect, Water Pulse, Chilling Water, Fire Spin, Facade, Swift, Icy Wind, Dragon Tail, Endure, Sunny Day, Rain Dance, Body Slam, Sleep Talk, Light Screen, Waterfall, Thunder Wave, Rest, Iron Head, Dragon Dance, Substitute, Dragon Pulse, Surf, Flamethrower, Thunderbolt, Helping Hand, Ice Beam, Fire Blast, Hydro Pump, Blizzard, Giga Impact, Outrage, Hyper Beam, Thunder, Draco Meteor, Tera Blast</t>
-  </si>
-  <si>
     <t>Dragonite</t>
   </si>
   <si>
-    <t>Extreme Speed, Fire Punch, Leer, Roost, Thunder Punch, Thunder Wave, Twister, Wing Attack, Wrap, Dragon Tail, Agility, Slam, Aqua Tail, Dragon Rush, Outrage, Safeguard, Rain Dance, Dragon Dance, Hyper Beam, Hurricane, Aqua Jet, Dragon Breath, Extreme Speed, Mist, Supersonic, Water Pulse, Take Down, Agility, Scary Face, Protect, Water Pulse, Low Kick, Chilling Water, Fire Spin, Facade, Aerial Ace, Bulldoze, Swift, Icy Wind, Rock Tomb, Air Cutter, Fling, Dragon Tail, Endure, Sunny Day, Rain Dance, Sandstorm, Snowscape, Brick Break, Air Slash, Body Slam, Fire Punch, Thunder Punch, Ice Punch, Sleep Talk, Light Screen, Waterfall, Dragon Claw, Metronome, Thunder Wave, Stomping Tantrum, Rest, Rock Slide, Body Press, Fly, Iron Head, Dragon Dance, Substitute, Tailwind, Dragon Pulse, Heat Wave, Encore, Surf, Ice Spinner, Flamethrower, Thunderbolt, Helping Hand, Ice Beam, Fire Blast, Hydro Pump, Blizzard, Earthquake, Stone Edge, Giga Impact, Outrage, Focus Blast, Hurricane, Hyper Beam, Thunder, Draco Meteor, Tera Blast</t>
-  </si>
-  <si>
-    <t>Charm, Growl, Nasty Plot, Nuzzle, Play Nice, Quick Attack, Sweet Kiss, Tail Whip, Thunder Shock, Thunder Wave, Double Team, Electro Ball, Feint, Spark, Agility, Iron Tail, Discharge, Thunderbolt, Light Screen, Thunder, Charge, Disarming Voice, Fake Out, Flail, Present, Tickle, Wish, Take Down, Charm, Fake Tears, Agility, Protect, Thief, Disarming Voice, Trailblaze, Charge Beam, Facade, Swift, Draining Kiss, Fling, Endure, Volt Switch, Rain Dance, Dig, Brick Break, Body Slam, Thunder Punch, Sleep Talk, Electro Ball, Reflect, Light Screen, Grass Knot, Thunder Wave, Rest, Eerie Impulse, Substitute, Encore, Surf, Thunderbolt, Play Rough, Helping Hand, Reversal, Electric Terrain, Nasty Plot, Wild Charge, Thunder, Tera Blast</t>
-  </si>
-  <si>
     <t>Jolteon</t>
   </si>
   <si>
-    <t>Baton Pass, Bite, Charm, Copycat, Covet, Double-Edge, Growl, Helping Hand, Swift, Tackle, Tail Whip, Take Down, Sand Attack, Quick Attack, Baby-Doll Eyes, Thunder Wave, Double Kick, Thunder Fang, Pin Missile, Discharge, Agility, Thunder, Last Resort, Thunder Shock, Curse, Detect, Double Kick, Flail, Mud-Slap, Tickle, Wish, Yawn, Take Down, Charm, Fake Tears, Agility, Mud-Slap, Protect, Thunder Fang, Trailblaze, Facade, Swift, Stored Power, Endure, Volt Switch, Sunny Day, Rain Dance, Dig, False Swipe, Body Slam, Sleep Talk, Electro Ball, Light Screen, Thunder Wave, Rest, Eerie Impulse, Substitute, Shadow Ball, Hyper Voice, Thunderbolt, Calm Mind, Helping Hand, Baton Pass, Electric Terrain, Wild Charge, Giga Impact, Hyper Beam, Thunder, Tera Blast</t>
-  </si>
-  <si>
-    <t>Agility, Charm, Discharge, Double Team, Electro Ball, Feint, Growl, Iron Tail, Light Screen, Nasty Plot, Nuzzle, Play Nice, Quick Attack, Spark, Sweet Kiss, Tail Whip, Thunder, Thunder Shock, Thunder Wave, Thunderbolt, Thunder Punch, Psychic, Charge, Disarming Voice, Fake Out, Flail, Present, Tickle, Wish, Take Down, Charm, Agility, Protect, Thief, Disarming Voice, Trailblaze, Charge Beam, Facade, Swift, Draining Kiss, Fling, Endure, Volt Switch, Rain Dance, Dig, Brick Break, Body Slam, Thunder Punch, Sleep Talk, Electro Ball, Reflect, Light Screen, Grass Knot, Thunder Wave, Rest, Eerie Impulse, Substitute, Encore, Surf, Thunderbolt, Play Rough, Helping Hand, Reversal, Electric Terrain, Nasty Plot, Wild Charge, Giga Impact, Focus Blast, Hyper Beam, Thunder, Tera Blast, Take Down, Charm, Agility, Protect, Thief, Trailblaze, Charge Beam, Facade, Swift, Draining Kiss, Stored Power, Fling, Endure, Volt Switch, Rain Dance, Psyshock, Dig, Brick Break, Body Slam, Thunder Punch, Sleep Talk, Electro Ball, Reflect, Light Screen, Grass Knot, Thunder Wave, Rest, Eerie Impulse, Skill Swap, Substitute, Psychic, Encore, Surf, Thunderbolt, Play Rough, Calm Mind, Helping Hand, Reversal, Electric Terrain, Psychic Terrain, Nasty Plot, Wild Charge, Giga Impact, Focus Blast, Hyper Beam, Thunder, Tera Blast</t>
-  </si>
-  <si>
-    <t>Charge, Tackle, Thunder Shock, Eerie Impulse, Spark, Rollout, Screech, Charge Beam, Swift, Electro Ball, Self-Destruct, Light Screen, Magnet Rise, Discharge, Explosion, Gyro Ball, Mirror Coat, Charge, Tackle, Thunder Shock, Stun Spore, Bullet Seed, Rollout, Screech, Charge Beam, Swift, Electro Ball, Self-Destruct, Energy Ball, Discharge, Seed Bomb, Explosion, Gyro Ball, Grassy Terrain, Metal Sound, Recycle, Leech Seed, Recycle, Worry Seed, Take Down, Agility, Protect, Thief, Charge Beam, Facade, Swift, Endure, Volt Switch, Rain Dance, Foul Play, Sleep Talk, Electro Ball, Light Screen, Thunder Wave, Rest, Taunt, Eerie Impulse, Substitute, Thunderbolt, Helping Hand, Electric Terrain, Wild Charge, Thunder, Tera Blast, Take Down, Agility, Protect, Thief, Charge Beam, Facade, Swift, Endure, Volt Switch, Rain Dance, Bullet Seed, Foul Play, Sleep Talk, Seed Bomb, Electro Ball, Reflect, Grass Knot, Thunder Wave, Rest, Taunt, Substitute, Giga Drain, Energy Ball, Thunderbolt, Electric Terrain, Grassy Terrain, Wild Charge, Leaf Storm, Thunder, Solar Beam, Tera Blast</t>
-  </si>
-  <si>
     <t>Electabuzz</t>
   </si>
   <si>
-    <t>Charge, Leer, Quick Attack, Thunder Shock, Swift, Shock Wave, Thunder Wave, Screech, Thunder Punch, Discharge, Low Kick, Thunderbolt, Light Screen, Thunder, Giga Impact, Take Down, Protect, Low Kick, Thief, Trailblaze, Charge Beam, Facade, Swift, Low Sweep, Fling, Endure, Volt Switch, Rain Dance, Brick Break, Bulk Up, Body Slam, Fire Punch, Thunder Punch, Ice Punch, Sleep Talk, Electro Ball, Light Screen, Metronome, Thunder Wave, Rest, Taunt, Eerie Impulse, Substitute, Psychic, Thunderbolt, Helping Hand, Electric Terrain, Wild Charge, Giga Impact, Focus Blast, Hyper Beam, Thunder, Tera Blast, Charge, Knock Off, Uproar, Focus Punch, Double-Edge, Supercell Slam, Electroweb, Metal Sound</t>
-  </si>
-  <si>
-    <t>Charge, Eerie Impulse, Magnetic Flux, Tackle, Thunder Shock, Spark, Rollout, Screech, Charge Beam, Swift, Electro Ball, Self-Destruct, Light Screen, Magnet Rise, Discharge, Explosion, Gyro Ball, Mirror Coat, Charge, Tackle, Thunder Shock, Stun Spore, Bullet Seed, Rollout, Screech, Charge Beam, Swift, Electro Ball, Self-Destruct, Energy Ball, Discharge, Seed Bomb, Explosion, Gyro Ball, Grassy Terrain, Chloroblast, Metal Sound, Recycle, Leech Seed, Recycle, Worry Seed, Take Down, Agility, Scary Face, Protect, Thief, Charge Beam, Facade, Swift, Endure, Volt Switch, Rain Dance, Foul Play, Sleep Talk, Electro Ball, Light Screen, Thunder Wave, Rest, Taunt, Eerie Impulse, Substitute, Thunderbolt, Helping Hand, Electric Terrain, Wild Charge, Giga Impact, Hyper Beam, Thunder, Tera Blast, Take Down, Agility, Scary Face, Protect, Thief, Charge Beam, Facade, Swift, Endure, Volt Switch, Rain Dance, Bullet Seed, Foul Play, Sleep Talk, Seed Bomb, Electro Ball, Reflect, Grass Knot, Thunder Wave, Rest, Taunt, Substitute, Giga Drain, Energy Ball, Thunderbolt, Electric Terrain, Grassy Terrain, Wild Charge, Giga Impact, Leaf Storm, Hyper Beam, Thunder, Solar Beam, Tera Blast</t>
-  </si>
-  <si>
     <t>Zapdos</t>
   </si>
   <si>
     <t>Electric, Flying</t>
   </si>
   <si>
-    <t>Peck, Thunder Wave, Thunder Shock, Light Screen, Pluck, Agility, Ancient Power, Charge, Drill Peck, Roost, Discharge, Rain Dance, Thunder, Detect, Magnetic Flux, Zap Cannon, Focus Energy, Peck, Rock Smash, Light Screen, Pluck, Agility, Ancient Power, Brick Break, Drill Peck, Quick Guard, Thunderous Kick, Bulk Up, Counter, Detect, Close Combat, Reversal, Take Down, Agility, Protect, Acrobatics, Facade, Aerial Ace, Swift, Air Cutter, Endure, Volt Switch, Sunny Day, Rain Dance, Sandstorm, U-turn, Sleep Talk, Electro Ball, Light Screen, Thunder Wave, Rest, Eerie Impulse, Fly, Substitute, Tailwind, Heat Wave, Thunderbolt, Helping Hand, Baton Pass, Electric Terrain, Wild Charge, Giga Impact, Hurricane, Hyper Beam, Brave Bird, Thunder, Tera Blast, Take Down, Agility, Scary Face, Protect, Low Kick, Acrobatics, Trailblaze, Facade, Aerial Ace, Swift, Low Sweep, Endure, Sunny Day, Rain Dance, Sandstorm, Brick Break, U-turn, Bulk Up, Sleep Talk, Light Screen, Stomping Tantrum, Rest, Taunt, Fly, Substitute, Tailwind, Helping Hand, Reversal, Giga Impact, Hurricane, Hyper Beam, Brave Bird, Close Combat, Tera Blast</t>
-  </si>
-  <si>
-    <t>Electric Terrain, Supersonic, Tackle, Thunder Shock, Thunder Wave, Electro Ball, Gyro Ball, Spark, Screech, Magnet Rise, Flash Cannon, Discharge, Metal Sound, Light Screen, Lock-On, Zap Cannon, Tri Attack, Electroweb, Explosion, Take Down, Protect, Confuse Ray, Charge Beam, Facade, Swift, Endure, Volt Switch, Sunny Day, Rain Dance, Sandstorm, Sleep Talk, Electro Ball, Reflect, Light Screen, Thunder Wave, Rest, Flash Cannon, Eerie Impulse, Iron Head, Substitute, Iron Defense, Heavy Slam, Thunderbolt, Helping Hand, Electric Terrain, Wild Charge, Hyper Beam, Thunder, Steel Beam, Tera Blast</t>
-  </si>
-  <si>
-    <t>Tackle, Thunder Shock, Supersonic, Thunder Wave, Electro Ball, Gyro Ball, Spark, Screech, Magnet Rise, Flash Cannon, Discharge, Metal Sound, Light Screen, Lock-On, Zap Cannon, Electroweb, Explosion, Take Down, Protect, Confuse Ray, Charge Beam, Facade, Swift, Endure, Volt Switch, Sunny Day, Rain Dance, Sandstorm, Sleep Talk, Electro Ball, Reflect, Light Screen, Thunder Wave, Rest, Flash Cannon, Eerie Impulse, Iron Head, Substitute, Iron Defense, Heavy Slam, Thunderbolt, Helping Hand, Electric Terrain, Wild Charge, Thunder, Steel Beam, Tera Blast</t>
-  </si>
-  <si>
     <t>Clefable</t>
   </si>
   <si>
-    <t>Life Dew, Meteor Mash, Metronome, Moonblast, After You, Charm, Copycat, Cosmic Power, Defense Curl, Disarming Voice, Encore, Follow Me, Gravity, Growl, Healing Wish, Moonlight, Pound, Sing, Splash, Stored Power, Sweet Kiss, Take Down, Charm, Fake Tears, Protect, Water Pulse, Psybeam, Thief, Disarming Voice, Chilling Water, Charge Beam, Facade, Swift, Magical Leaf, Icy Wind, Draining Kiss, Stored Power, Night Shade, Fling, Endure, Sunny Day, Rain Dance, Psyshock, Dig, Brick Break, Zen Headbutt, Body Slam, Fire Punch, Thunder Punch, Ice Punch, Sleep Talk, Drain Punch, Reflect, Light Screen, Dazzling Gleam, Metronome, Grass Knot, Thunder Wave, Rest, Imprison, Skill Swap, Substitute, Trick, Shadow Ball, Stealth Rock, Hyper Voice, Psychic, Encore, Flamethrower, Thunderbolt, Play Rough, Amnesia, Calm Mind, Helping Hand, Baton Pass, Ice Beam, Misty Terrain, Fire Blast, Blizzard, Giga Impact, Focus Blast, Hyper Beam, Thunder, Solar Beam, Tera Blast, Gravity, Knock Off, Uproar, Focus Punch, Dual Wingbeat, Misty Explosion</t>
-  </si>
-  <si>
     <t>Clefairy</t>
   </si>
   <si>
-    <t>Charm, Copycat, Defense Curl, Disarming Voice, Growl, Pound, Sing, Splash, Sweet Kiss, Stored Power, Encore, After You, Life Dew, Metronome, Moonlight, Gravity, Meteor Mash, Follow Me, Cosmic Power, Moonblast, Healing Wish, Take Down, Charm, Fake Tears, Protect, Water Pulse, Psybeam, Thief, Disarming Voice, Chilling Water, Charge Beam, Facade, Swift, Magical Leaf, Icy Wind, Draining Kiss, Stored Power, Night Shade, Fling, Endure, Sunny Day, Rain Dance, Psyshock, Dig, Brick Break, Zen Headbutt, Body Slam, Fire Punch, Thunder Punch, Ice Punch, Sleep Talk, Drain Punch, Reflect, Light Screen, Dazzling Gleam, Metronome, Grass Knot, Thunder Wave, Rest, Imprison, Skill Swap, Substitute, Trick, Shadow Ball, Stealth Rock, Hyper Voice, Psychic, Encore, Flamethrower, Thunderbolt, Play Rough, Amnesia, Calm Mind, Helping Hand, Baton Pass, Ice Beam, Misty Terrain, Fire Blast, Blizzard, Thunder, Solar Beam, Tera Blast, Gravity, Knock Off, Uproar, Focus Punch, Dual Wingbeat, Misty Explosion</t>
-  </si>
-  <si>
     <t>Hitmonchan</t>
   </si>
   <si>
-    <t>Fake Out, Feint, Focus Energy, Helping Hand, Tackle, Mach Punch, Vacuum Wave, Detect, Bullet Punch, Quick Guard, Fire Punch, Ice Punch, Thunder Punch, Agility, Mega Punch, Close Combat, Counter, Focus Punch, Drain Punch, Mega Punch, Take Down, Agility, Mud-Slap, Scary Face, Protect, Low Kick, Thief, Trailblaze, Facade, Bulldoze, Swift, Rock Tomb, Low Sweep, Fling, Endure, Sunny Day, Rain Dance, Brick Break, Bulk Up, Body Slam, Fire Punch, Thunder Punch, Ice Punch, Sleep Talk, Drain Punch, Metronome, Poison Jab, Rest, Rock Slide, Taunt, Swords Dance, Substitute, Aura Sphere, Encore, Helping Hand, Baton Pass, Reversal, Earthquake, Stone Edge, Giga Impact, Focus Blast, Close Combat, Tera Blast, Knock Off, Vacuum Wave, Uproar, Focus Punch, Double-Edge, Endeavor, Coaching, Throat Chop, Upper Hand</t>
-  </si>
-  <si>
-    <t>Focus Energy, Leer, Low Kick, Revenge, Low Sweep, Knock Off, Scary Face, Vital Throw, Strength, Dual Chop, Bulk Up, Seismic Toss, Dynamic Punch, Cross Chop, Double-Edge, Bullet Punch, Close Combat, Counter, Encore, Fire Punch, Heavy Slam, Ice Punch, Knock Off, Power Trick, Quick Guard, Submission, Thunder Punch, Tickle, Focus Punch, Bulk Up, Work Up, Sunny Day, Light Screen, Protect, Rain Dance, Earthquake, Low Sweep, Dig, Brick Break, Double Team, Flamethrower, Fire Blast, Rock Tomb, Facade, Rest, Attract, Thief, Focus Blast, Fling, Endure, Payback, Rock Slide, Sleep Talk, Bulldoze, Poison Jab, Swagger, Substitute, Strength, Rock Smash, Rock Climb</t>
-  </si>
-  <si>
     <t>Mankey</t>
   </si>
   <si>
-    <t>Covet, Focus Energy, Leer, Scratch, Fury Swipes, Low Kick, Seismic Toss, Swagger, Cross Chop, Assurance, Thrash, Close Combat, Screech, Stomping Tantrum, Outrage, Final Gambit, Beat Up, Counter, Curse, Encore, Night Slash, Spite, Take Down, Scary Face, Protect, Low Kick, Acrobatics, Thief, Facade, Bulldoze, Swift, Rock Tomb, Low Sweep, Fling, Endure, Sunny Day, Rain Dance, Dig, Brick Break, U-turn, Shadow Claw, Bulk Up, Body Slam, Fire Punch, Thunder Punch, Ice Punch, Sleep Talk, Seed Bomb, Drain Punch, Metronome, Poison Jab, Stomping Tantrum, Rest, Rock Slide, Taunt, Gunk Shot, Substitute, Encore, Thunderbolt, Helping Hand, Reversal, Earthquake, Stone Edge, Outrage, Overheat, Focus Blast, Close Combat, Tera Blast</t>
-  </si>
-  <si>
-    <t>Leer, Low Kick, Focus Energy, Revenge, Low Sweep, Knock Off, Scary Face, Vital Throw, Strength, Dual Chop, Bulk Up, Seismic Toss, Dynamic Punch, Cross Chop, Double-Edge, Bullet Punch, Close Combat, Counter, Encore, Fire Punch, Heavy Slam, Ice Punch, Knock Off, Power Trick, Quick Guard, Submission, Thunder Punch, Tickle, Focus Punch, Bulk Up, Work Up, Sunny Day, Light Screen, Protect, Rain Dance, Earthquake, Low Sweep, Dig, Brick Break, Double Team, Flamethrower, Fire Blast, Rock Tomb, Facade, Rest, Attract, Thief, Focus Blast, Fling, Endure, Payback, Rock Slide, Sleep Talk, Bulldoze, Poison Jab, Swagger, Substitute, Strength, Rock Smash, Rock Climb</t>
-  </si>
-  <si>
     <t>Primeape</t>
   </si>
   <si>
-    <t>Fling, Focus Energy, Leer, Scratch, Fury Swipes, Low Kick, Seismic Toss, Swagger, Cross Chop, Assurance, Thrash, Rage Fist, Close Combat, Screech, Stomping Tantrum, Outrage, Final Gambit, Beat Up, Counter, Curse, Encore, Night Slash, Spite, Take Down, Scary Face, Protect, Low Kick, Acrobatics, Thief, Facade, Bulldoze, Swift, Rock Tomb, Low Sweep, Fling, Endure, Sunny Day, Rain Dance, Dig, Brick Break, U-turn, Shadow Claw, Bulk Up, Body Slam, Fire Punch, Thunder Punch, Ice Punch, Sleep Talk, Seed Bomb, Drain Punch, Metronome, Poison Jab, Stomping Tantrum, Rest, Rock Slide, Taunt, Gunk Shot, Substitute, Stealth Rock, Encore, Thunderbolt, Helping Hand, Reversal, Earthquake, Stone Edge, Giga Impact, Outrage, Overheat, Focus Blast, Hyper Beam, Thunder, Close Combat, Tera Blast</t>
-  </si>
-  <si>
-    <t>Focus Energy, Leer, Low Kick, Revenge, Wide Guard, Low Sweep, Knock Off, Scary Face, Vital Throw, Strength, Dual Chop, Bulk Up, Seismic Toss, Dynamic Punch, Cross Chop, Double-Edge, Bullet Punch, Close Combat, Counter, Encore, Fire Punch, Heavy Slam, Ice Punch, Knock Off, Power Trick, Quick Guard, Submission, Thunder Punch, Tickle, Focus Punch, Bulk Up, Work Up, Sunny Day, Hyper Beam, Light Screen, Protect, Rain Dance, Earthquake, Low Sweep, Dig, Brick Break, Double Team, Flamethrower, Fire Blast, Rock Tomb, Facade, Rest, Attract, Thief, Focus Blast, Fling, Endure, Payback, Giga Impact, Stone Edge, Rock Slide, Sleep Talk, Bulldoze, Poison Jab, Swagger, Substitute, Strength, Rock Smash, Rock Climb</t>
-  </si>
-  <si>
     <t>Hitmonlee</t>
   </si>
   <si>
-    <t>Fake Out, Focus Energy, Helping Hand, Low Sweep, Tackle, Double Kick, Low Kick, Endure, Sucker Punch, Wide Guard, Blaze Kick, Feint, Mega Kick, Close Combat, Reversal, High Jump Kick, Axe Kick, Brick Break, Take Down, Mud-Slap, Scary Face, Protect, Low Kick, Thief, Facade, Bulldoze, Swift, Rock Tomb, Low Sweep, Fling, Endure, Sunny Day, Rain Dance, Brick Break, Bulk Up, Body Slam, Sleep Talk, Metronome, Poison Jab, Stomping Tantrum, Rest, Rock Slide, Taunt, Swords Dance, Substitute, Aura Sphere, Helping Hand, Baton Pass, Reversal, Earthquake, Stone Edge, Giga Impact, Focus Blast, Close Combat, Tera Blast, Knock Off, Vacuum Wave, Lunge, Uproar, Double-Edge, Endeavor, Coaching, Throat Chop, Upper Hand</t>
-  </si>
-  <si>
     <t>Ponyta</t>
   </si>
   <si>
-    <t>Growl, Tackle, Tail Whip, Ember, Flame Charge, Agility, Flame Wheel, Stomp, Fire Spin, Take Down, Inferno, Fire Blast, Flare Blitz, Ally Switch, Charm, Double-Edge, Double Kick, Flame Wheel, High Horsepower, Horn Drill, Hypnosis, Low Kick, Morning Sun, Thrash, Sunny Day, Protect, Solar Beam, Iron Tail, Double Team, Flamethrower, Fire Blast, Facade, Rest, Attract, Overheat, Endure, Will-O-Wisp, Sleep Talk, Swagger, Substitute, Strength</t>
-  </si>
-  <si>
     <t>Charmander</t>
   </si>
   <si>
-    <t>Growl, Scratch, Ember, Smokescreen, Dragon Breath, Fire Fang, Slash, Flamethrower, Scary Face, Fire Spin, Inferno, Flare Blitz, Ancient Power, Belly Drum, Bite, Counter, Dragon Rush, Dragon Tail, Iron Tail, Metal Claw, Take Down, Scary Face, Protect, Fire Fang, Fire Spin, Facade, Metal Claw, Swift, Rock Tomb, Flame Charge, Fling, Dragon Tail, Endure, Sunny Day, Dig, False Swipe, Brick Break, Shadow Claw, Body Slam, Fire Punch, Thunder Punch, Sleep Talk, Dragon Claw, Rest, Rock Slide, Swords Dance, Dragon Dance, Substitute, Will-O-Wisp, Crunch, Dragon Pulse, Heat Wave, Flamethrower, Helping Hand, Fire Blast, Fire Pledge, Outrage, Overheat, Focus Blast, Flare Blitz, Tera Blast</t>
-  </si>
-  <si>
-    <t>Flamethrower, Quick Attack, Tail Whip, Blizzard, Icy Wind, Imprison, Tail Whip, Dazzling Gleam, Confuse Ray, Disable, Ember, Extrasensory, Fire Blast, Fire Spin, Imprison, Incinerate, Inferno, Nasty Plot, Safeguard, Spite, Will-O-Wisp, Aurora Beam, Aurora Veil, Confuse Ray, Disable, Extrasensory, Freeze-Dry, Ice Beam, Ice Shard, Mist, Nasty Plot, Powder Snow, Spite, Take Down, Charm, Fake Tears, Agility, Protect, Confuse Ray, Fire Spin, Facade, Hex, Snarl, Swift, Flame Charge, Stored Power, Night Shade, Endure, Sunny Day, Psyshock, Dig, Zen Headbutt, Foul Play, Body Slam, Sleep Talk, Rest, Imprison, Dark Pulse, Substitute, Will-O-Wisp, Shadow Ball, Heat Wave, Energy Ball, Encore, Flamethrower, Calm Mind, Helping Hand, Baton Pass, Nasty Plot, Fire Blast, Giga Impact, Overheat, Hyper Beam, Flare Blitz, Solar Beam, Tera Blast, Roar, Spite, Weather Ball, Burning Jealousy, Take Down, Charm, Fake Tears, Agility, Protect, Confuse Ray, Disarming Voice, Chilling Water, Facade, Hex, Swift, Icy Wind, Draining Kiss, Stored Power, Avalanche, Endure, Rain Dance, Snowscape, Psyshock, Dig, Zen Headbutt, Foul Play, Body Slam, Sleep Talk, Dazzling Gleam, Rest, Imprison, Dark Pulse, Substitute, Encore, Play Rough, Calm Mind, Helping Hand, Baton Pass, Ice Beam, Misty Terrain, Nasty Plot, Blizzard, Giga Impact, Hyper Beam, Tera Blast, Roar, Spite, Icicle Spear, Weather Ball</t>
-  </si>
-  <si>
     <t>Arcanine</t>
   </si>
   <si>
-    <t>Agility, Bite, Crunch, Ember, Fire Fang, Flame Wheel, Flare Blitz, Helping Hand, Howl, Leer, Play Rough, Retaliate, Reversal, Roar, Take Down, Flamethrower, Agility, Bite, Crunch, Ember, Fire Fang, Flame Wheel, Flare Blitz, Helping Hand, Howl, Leer, Retaliate, Reversal, Roar, Rock Slide, Rock Throw, Take Down, Flamethrower, Raging Fury, Extreme Speed, Covet, Double-Edge, Double Kick, Morning Sun, Raging Fury, Thrash, Covet, Double-Edge, Double Kick, Head Smash, Morning Sun, Thrash, Take Down, Charm, Agility, Scary Face, Protect, Fire Fang, Thunder Fang, Thief, Fire Spin, Facade, Aerial Ace, Bulldoze, Snarl, Swift, Flame Charge, Endure, Sunny Day, Dig, Psychic Fangs, Body Slam, Sleep Talk, Rest, Iron Head, Substitute, Will-O-Wisp, Crunch, Dragon Pulse, Hyper Voice, Heat Wave, Flamethrower, Play Rough, Helping Hand, Reversal, Fire Blast, Wild Charge, Giga Impact, Outrage, Overheat, Hyper Beam, Flare Blitz, Close Combat, Solar Beam, Tera Blast, Take Down, Agility, Scary Face, Protect, Fire Fang, Thunder Fang, Thief, Fire Spin, Facade, Aerial Ace, Bulldoze, Snarl, Rock Tomb, Flame Charge, Endure, Sunny Day, Sandstorm, Smart Strike, Dig, Psychic Fangs, Body Slam, Sleep Talk, Rock Blast, Rest, Rock Slide, Iron Head, Power Gem, Substitute, Will-O-Wisp, Crunch, Dragon Pulse, Stealth Rock, Hyper Voice, Heat Wave, Flamethrower, Helping Hand, Reversal, Fire Blast, Wild Charge, Stone Edge, Giga Impact, Outrage, Overheat, Hyper Beam, Flare Blitz, Close Combat, Solar Beam, Tera Blast</t>
-  </si>
-  <si>
     <t>Charmeleon</t>
   </si>
   <si>
-    <t>Ember, Growl, Scratch, Smokescreen, Dragon Breath, Fire Fang, Slash, Flamethrower, Scary Face, Inferno, Flare Blitz, Ancient Power, Belly Drum, Bite, Counter, Dragon Rush, Dragon Tail, Iron Tail, Metal Claw, Take Down, Scary Face, Protect, Fire Fang, Fire Spin, Facade, Swift, Rock Tomb, Flame Charge, Fling, Dragon Tail, Endure, Sunny Day, Dig, False Swipe, Brick Break, Shadow Claw, Body Slam, Fire Punch, Thunder Punch, Sleep Talk, Dragon Claw, Rest, Rock Slide, Swords Dance, Dragon Dance, Substitute, Will-O-Wisp, Crunch, Dragon Pulse, Heat Wave, Flamethrower, Helping Hand, Fire Blast, Fire Pledge, Outrage, Overheat, Flare Blitz, Tera Blast</t>
-  </si>
-  <si>
     <t>Growlithe</t>
   </si>
   <si>
-    <t>Ember, Leer, Howl, Bite, Flame Wheel, Helping Hand, Agility, Fire Fang, Retaliate, Crunch, Take Down, Flamethrower, Roar, Play Rough, Reversal, Flare Blitz, Ember, Leer, Howl, Bite, Flame Wheel, Helping Hand, Fire Fang, Retaliate, Crunch, Take Down, Flamethrower, Roar, Rock Slide, Reversal, Flare Blitz, Covet, Double-Edge, Double Kick, Morning Sun, Raging Fury, Thrash, Covet, Double-Edge, Double Kick, Head Smash, Morning Sun, Thrash, Take Down, Charm, Agility, Scary Face, Protect, Fire Fang, Thunder Fang, Thief, Fire Spin, Facade, Snarl, Swift, Flame Charge, Endure, Sunny Day, Dig, Psychic Fangs, Body Slam, Sleep Talk, Rest, Substitute, Will-O-Wisp, Crunch, Heat Wave, Flamethrower, Play Rough, Helping Hand, Reversal, Fire Blast, Wild Charge, Outrage, Overheat, Flare Blitz, Close Combat, Tera Blast, Take Down, Agility, Scary Face, Protect, Fire Fang, Thunder Fang, Fire Spin, Facade, Rock Tomb, Flame Charge, Endure, Sunny Day, Sandstorm, Smart Strike, Dig, Psychic Fangs, Body Slam, Sleep Talk, Rock Blast, Rest, Rock Slide, Power Gem, Substitute, Will-O-Wisp, Crunch, Stealth Rock, Heat Wave, Flamethrower, Helping Hand, Reversal, Fire Blast, Stone Edge, Outrage, Overheat, Flare Blitz, Close Combat, Tera Blast</t>
-  </si>
-  <si>
     <t>Magmar</t>
   </si>
   <si>
-    <t>Ember, Leer, Smog, Smokescreen, Clear Smog, Flame Wheel, Confuse Ray, Scary Face, Fire Punch, Lava Plume, Low Kick, Flamethrower, Sunny Day, Fire Blast, Hyper Beam, Take Down, Scary Face, Protect, Low Kick, Acid Spray, Confuse Ray, Thief, Fire Spin, Facade, Flame Charge, Low Sweep, Fling, Endure, Sunny Day, Brick Break, Body Slam, Fire Punch, Thunder Punch, Sleep Talk, Metronome, Poison Jab, Rest, Taunt, Substitute, Will-O-Wisp, Heat Wave, Psychic, Flamethrower, Helping Hand, Fire Blast, Giga Impact, Overheat, Focus Blast, Hyper Beam, Flare Blitz, Tera Blast, Roar, Knock Off, Heat Crash, Uproar, Focus Punch, Burning Jealousy, Double-Edge, Temper Flare, Scorching Sands, Curse</t>
-  </si>
-  <si>
     <t>Flareon</t>
   </si>
   <si>
-    <t>Baton Pass, Charm, Copycat, Covet, Double-Edge, Growl, Helping Hand, Swift, Tackle, Tail Whip, Take Down, Sand Attack, Quick Attack, Baby-Doll Eyes, Smog, Bite, Fire Fang, Fire Spin, Lava Plume, Scary Face, Flare Blitz, Last Resort, Ember, Curse, Detect, Double Kick, Flail, Mud-Slap, Tickle, Wish, Yawn, Take Down, Charm, Fake Tears, Mud-Slap, Scary Face, Protect, Fire Fang, Trailblaze, Fire Spin, Facade, Swift, Stored Power, Endure, Sunny Day, Rain Dance, Dig, Body Slam, Sleep Talk, Rest, Substitute, Will-O-Wisp, Shadow Ball, Hyper Voice, Heat Wave, Flamethrower, Calm Mind, Helping Hand, Baton Pass, Fire Blast, Giga Impact, Overheat, Hyper Beam, Flare Blitz, Tera Blast</t>
-  </si>
-  <si>
     <t>Rapidash</t>
   </si>
   <si>
-    <t>Ember, Growl, Megahorn, Poison Jab, Quick Attack, Smart Strike, Tackle, Tail Whip, Flame Charge, Agility, Flame Wheel, Stomp, Fire Spin, Take Down, Inferno, Fire Blast, Flare Blitz, Smart Strike, Ally Switch, Charm, Double-Edge, Double Kick, Flame Wheel, High Horsepower, Horn Drill, Hypnosis, Low Kick, Morning Sun, Thrash, Sunny Day, Hyper Beam, Protect, Solar Beam, Iron Tail, Double Team, Flamethrower, Fire Blast, Facade, Rest, Attract, Overheat, Endure, Will-O-Wisp, Giga Impact, Swords Dance, Sleep Talk, Poison Jab, Swagger, Substitute, Strength</t>
-  </si>
-  <si>
-    <t>Ember, Tail Whip, Disable, Quick Attack, Spite, Incinerate, Confuse Ray, Will-O-Wisp, Extrasensory, Flamethrower, Imprison, Fire Spin, Safeguard, Inferno, Fire Blast, Powder Snow, Tail Whip, Disable, Ice Shard, Spite, Icy Wind, Confuse Ray, Aurora Beam, Extrasensory, Ice Beam, Imprison, Mist, Aurora Veil, Freeze-Dry, Blizzard, Baby-Doll Eyes, Flail, Flame Charge, Healing Wish, Howl, Hypnosis, Memento, Roar, Baby-Doll Eyes, Flail, Howl, Hypnosis, Moonblast, Roar, Take Down, Charm, Agility, Protect, Confuse Ray, Fire Spin, Facade, Hex, Snarl, Swift, Flame Charge, Endure, Sunny Day, Dig, Zen Headbutt, Foul Play, Body Slam, Sleep Talk, Rest, Imprison, Dark Pulse, Substitute, Will-O-Wisp, Heat Wave, Energy Ball, Encore, Flamethrower, Helping Hand, Baton Pass, Nasty Plot, Fire Blast, Overheat, Flare Blitz, Tera Blast, Roar, Spite, Weather Ball, Burning Jealousy, Take Down, Charm, Fake Tears, Agility, Protect, Confuse Ray, Disarming Voice, Chilling Water, Facade, Hex, Swift, Icy Wind, Draining Kiss, Stored Power, Endure, Rain Dance, Snowscape, Dig, Zen Headbutt, Foul Play, Body Slam, Sleep Talk, Dazzling Gleam, Rest, Imprison, Dark Pulse, Substitute, Encore, Play Rough, Helping Hand, Baton Pass, Ice Beam, Misty Terrain, Nasty Plot, Blizzard, Tera Blast, Roar, Spite, Icicle Spear, Weather Ball</t>
-  </si>
-  <si>
     <t>Charizard</t>
   </si>
   <si>
     <t>Fire, Flying</t>
   </si>
   <si>
-    <t>Dragon Claw, Ember, Growl, Heat Wave, Scratch, Smokescreen, Dragon Breath, Fire Fang, Slash, Flamethrower, Scary Face, Fire Spin, Inferno, Flare Blitz, Air Slash, Ancient Power, Belly Drum, Bite, Counter, Dragon Rush, Dragon Tail, Iron Tail, Metal Claw, Take Down, Scary Face, Protect, Fire Fang, Acrobatics, Fire Spin, Facade, Aerial Ace, Bulldoze, Swift, Rock Tomb, Flame Charge, Air Cutter, Fling, Dragon Tail, Endure, Sunny Day, Sandstorm, Dig, Brick Break, Shadow Claw, Air Slash, Body Slam, Fire Punch, Thunder Punch, Sleep Talk, Dragon Claw, Rest, Rock Slide, Swords Dance, Fly, Dragon Dance, Substitute, Will-O-Wisp, Crunch, Dragon Pulse, Heat Wave, Flamethrower, Helping Hand, Fire Blast, Fire Pledge, Earthquake, Giga Impact, Blast Burn, Outrage, Overheat, Focus Blast, Hurricane, Hyper Beam, Flare Blitz, Solar Beam, Tera Blast</t>
-  </si>
-  <si>
     <t>Moltres</t>
   </si>
   <si>
-    <t>Gust, Leer, Ember, Safeguard, Wing Attack, Agility, Ancient Power, Incinerate, Air Slash, Roost, Heat Wave, Sunny Day, Hurricane, Endure, Overheat, Sky Attack, Gust, Leer, Payback, Safeguard, Wing Attack, Agility, Ancient Power, Sucker Punch, Air Slash, After You, Fiery Wrath, Nasty Plot, Hurricane, Endure, Memento, Sky Attack, Take Down, Agility, Protect, Acrobatics, Fire Spin, Facade, Aerial Ace, Swift, Flame Charge, Air Cutter, Endure, Sunny Day, Rain Dance, Sandstorm, U-turn, Air Slash, Sleep Talk, Rest, Fly, Substitute, Will-O-Wisp, Tailwind, Heat Wave, Flamethrower, Helping Hand, Fire Blast, Giga Impact, Overheat, Hurricane, Hyper Beam, Brave Bird, Flare Blitz, Solar Beam, Tera Blast, Take Down, Agility, Scary Face, Protect, Acrobatics, Thief, Facade, Aerial Ace, Hex, Snarl, Swift, Endure, Sunny Day, Rain Dance, Sandstorm, U-turn, Foul Play, Air Slash, Sleep Talk, Rest, Taunt, Imprison, Dark Pulse, Fly, Substitute, Tailwind, Shadow Ball, Hyper Voice, Helping Hand, Nasty Plot, Giga Impact, Hurricane, Hyper Beam, Brave Bird, Tera Blast</t>
-  </si>
-  <si>
     <t>Haunter</t>
   </si>
   <si>
     <t>Ghost, Poison</t>
   </si>
   <si>
-    <t>Confuse Ray, Hypnosis, Lick, Mean Look, Payback, Spite, Curse, Hex, Night Shade, Sucker Punch, Dark Pulse, Shadow Ball, Destiny Bond, Dream Eater, Shadow Punch, Astonish, Clear Smog, Disable, Haze, Perish Song, Reflect Type, Smog, Toxic, Scary Face, Protect, Acid Spray, Confuse Ray, Thief, Facade, Hex, Icy Wind, Night Shade, Fling, Venoshock, Endure, Sunny Day, Rain Dance, Shadow Claw, Foul Play, Fire Punch, Thunder Punch, Ice Punch, Sleep Talk, Dazzling Gleam, Metronome, Poison Jab, Rest, Taunt, Toxic Spikes, Imprison, Dark Pulse, Skill Swap, Gunk Shot, Substitute, Will-O-Wisp, Trick, Giga Drain, Shadow Ball, Energy Ball, Psychic, Encore, Thunderbolt, Nasty Plot, Sludge Bomb, Phantom Force, Focus Blast, Trick Room, Thunder, Tera Blast</t>
-  </si>
-  <si>
     <t>Gengar</t>
   </si>
   <si>
-    <t>Confuse Ray, Hypnosis, Lick, Mean Look, Perish Song, Reflect Type, Shadow Punch, Payback, Spite, Curse, Hex, Night Shade, Sucker Punch, Dark Pulse, Shadow Ball, Destiny Bond, Dream Eater, Astonish, Clear Smog, Disable, Haze, Perish Song, Reflect Type, Smog, Toxic, Scary Face, Protect, Acid Spray, Confuse Ray, Thief, Facade, Hex, Icy Wind, Night Shade, Fling, Venoshock, Endure, Sunny Day, Rain Dance, Brick Break, Shadow Claw, Foul Play, Body Slam, Fire Punch, Thunder Punch, Ice Punch, Sleep Talk, Drain Punch, Dazzling Gleam, Metronome, Thunder Wave, Poison Jab, Rest, Taunt, Toxic Spikes, Imprison, Dark Pulse, Skill Swap, Gunk Shot, Substitute, Will-O-Wisp, Trick, Giga Drain, Shadow Ball, Energy Ball, Psychic, Encore, Thunderbolt, Nasty Plot, Sludge Bomb, Phantom Force, Giga Impact, Focus Blast, Trick Room, Hyper Beam, Thunder, Tera Blast</t>
-  </si>
-  <si>
     <t>Gastly</t>
   </si>
   <si>
-    <t>Confuse Ray, Lick, Hypnosis, Mean Look, Payback, Spite, Curse, Hex, Night Shade, Sucker Punch, Dark Pulse, Shadow Ball, Destiny Bond, Dream Eater, Astonish, Clear Smog, Disable, Haze, Perish Song, Reflect Type, Smog, Toxic, Scary Face, Protect, Acid Spray, Confuse Ray, Thief, Facade, Hex, Icy Wind, Night Shade, Venoshock, Endure, Sunny Day, Rain Dance, Foul Play, Fire Punch, Thunder Punch, Ice Punch, Sleep Talk, Dazzling Gleam, Poison Jab, Rest, Taunt, Imprison, Dark Pulse, Skill Swap, Gunk Shot, Substitute, Will-O-Wisp, Trick, Giga Drain, Shadow Ball, Energy Ball, Psychic, Thunderbolt, Nasty Plot, Sludge Bomb, Trick Room, Thunder, Tera Blast</t>
-  </si>
-  <si>
     <t>Tangela</t>
   </si>
   <si>
-    <t>Absorb, Bind, Stun Spore, Growth, Mega Drain, Vine Whip, Poison Powder, Ancient Power, Knock Off, Giga Drain, Sleep Powder, Slam, Tickle, Power Whip, Ingrain, Grassy Terrain, Amnesia, Confusion, Endeavor, Flail, Leaf Storm, Leech Seed, Mega Drain, Nature Power, Power Swap, Rage Powder, Bullet Seed, Sunny Day, Hyper Beam, Protect, Giga Drain, Solar Beam, Double Team, Reflect, Shock Wave, Sludge Bomb, Facade, Rest, Attract, Thief, Energy Ball, Endure, Giga Impact, Flash, Swords Dance, Psych Up, Sleep Talk, Grass Knot, Swagger, Substitute, Cut, Rock Smash</t>
-  </si>
-  <si>
     <t>Venusaur</t>
   </si>
   <si>
-    <t>Growl, Growth, Petal Dance, Tackle, Vine Whip, Leech Seed, Razor Leaf, Poison Powder, Sleep Powder, Seed Bomb, Take Down, Sweet Scent, Synthesis, Worry Seed, Power Whip, Solar Beam, Petal Blizzard, Take Down, Charm, Scary Face, Protect, Acid Spray, Trailblaze, Facade, Bulldoze, Magical Leaf, Venoshock, Endure, Sunny Day, Bullet Seed, False Swipe, Body Slam, Sleep Talk, Seed Bomb, Grass Knot, Poison Jab, Stomping Tantrum, Rest, Swords Dance, Substitute, Giga Drain, Energy Ball, Amnesia, Helping Hand, Earth Power, Grassy Terrain, Grass Pledge, Sludge Bomb, Earthquake, Giga Impact, Frenzy Plant, Leaf Storm, Hyper Beam, Solar Beam, Tera Blast, Roar, Toxic, Knock Off, Weather Ball, Grassy Glide, Double-Edge, Petal Blizzard, Curse</t>
-  </si>
-  <si>
     <t>Weepinbell</t>
   </si>
   <si>
-    <t>Growth, Vine Whip, Wrap, Sleep Powder, Poison Powder, Stun Spore, Acid, Knock Off, Sweet Scent, Gastro Acid, Razor Leaf, Poison Jab, Slam, Power Whip, Protect, Acid Spray, Thief, Trailblaze, Pounce, Facade, Swift, Magical Leaf, Venoshock, Endure, Sunny Day, Bullet Seed, Body Slam, Sleep Talk, Seed Bomb, Reflect, Grass Knot, Poison Jab, Rest, Swords Dance, Leech Life, Substitute, Giga Drain, Energy Ball, Encore, Grassy Terrain, Sludge Bomb, Leaf Storm, Solar Beam, Tera Blast, Toxic, Knock Off, Bug Bite, Lunge, Weather Ball, Grassy Glide</t>
-  </si>
-  <si>
-    <t>Absorb, Acid, Growth, Sweet Scent, Mega Drain, Poison Powder, Stun Spore, Sleep Powder, Giga Drain, Toxic, Moonblast, Grassy Terrain, Moonlight, Petal Dance, Charm, Protect, Acid Spray, Trailblaze, Facade, Magical Leaf, Venoshock, Endure, Sunny Day, Bullet Seed, Sleep Talk, Seed Bomb, Grass Knot, Rest, Swords Dance, Substitute, Giga Drain, Energy Ball, Helping Hand, Pollen Puff, Grassy Terrain, Sludge Bomb, Leaf Storm, Solar Beam, Tera Blast, Toxic, Grassy Glide, Petal Blizzard</t>
-  </si>
-  <si>
     <t>Ivysaur</t>
   </si>
   <si>
-    <t>Growl, Growth, Tackle, Vine Whip, Leech Seed, Razor Leaf, Poison Powder, Sleep Powder, Seed Bomb, Take Down, Sweet Scent, Synthesis, Worry Seed, Power Whip, Solar Beam, Take Down, Charm, Protect, Acid Spray, Trailblaze, Facade, Magical Leaf, Venoshock, Endure, Sunny Day, Bullet Seed, False Swipe, Body Slam, Sleep Talk, Seed Bomb, Grass Knot, Rest, Swords Dance, Substitute, Giga Drain, Energy Ball, Helping Hand, Grassy Terrain, Grass Pledge, Sludge Bomb, Leaf Storm, Solar Beam, Tera Blast, Roar, Toxic, Knock Off, Weather Ball, Grassy Glide, Double-Edge, Curse</t>
-  </si>
-  <si>
-    <t>Absorb, Acid, Giga Drain, Grassy Terrain, Growth, Mega Drain, Moonblast, Moonlight, Petal Dance, Poison Powder, Sleep Powder, Stun Spore, Sweet Scent, Toxic, Petal Blizzard, Charm, Protect, Acid Spray, Trailblaze, Facade, Magical Leaf, Fling, Venoshock, Endure, Sunny Day, Bullet Seed, Body Slam, Sleep Talk, Seed Bomb, Dazzling Gleam, Grass Knot, Rest, Swords Dance, Substitute, Giga Drain, Energy Ball, Helping Hand, Pollen Puff, Grassy Terrain, Sludge Bomb, Giga Impact, Leaf Storm, Hyper Beam, Solar Beam, Tera Blast, Toxic, Solar Blade, Weather Ball, Grassy Glide, Petal Blizzard, Sludge Wave</t>
-  </si>
-  <si>
     <t>Bellsprout</t>
   </si>
   <si>
-    <t>Vine Whip, Growth, Wrap, Sleep Powder, Poison Powder, Stun Spore, Acid, Knock Off, Sweet Scent, Gastro Acid, Razor Leaf, Poison Jab, Slam, Power Whip, Clear Smog, Ingrain, Strength Sap, Sucker Punch, Synthesis, Tickle, Worry Seed, Protect, Acid Spray, Thief, Trailblaze, Pounce, Facade, Magical Leaf, Venoshock, Endure, Sunny Day, Bullet Seed, Sleep Talk, Seed Bomb, Reflect, Grass Knot, Poison Jab, Rest, Swords Dance, Leech Life, Substitute, Giga Drain, Energy Ball, Encore, Grassy Terrain, Sludge Bomb, Leaf Storm, Solar Beam, Tera Blast, Toxic, Knock Off, Lunge, Weather Ball, Grassy Glide</t>
-  </si>
-  <si>
     <t>Victreebel</t>
   </si>
   <si>
-    <t>Razor Leaf, Sleep Powder, Sweet Scent, Vine Whip, Leaf Blade, Leaf Storm, Gastro Acid, Power Whip, Spit Up, Stockpile, Swallow, Scary Face, Protect, Acid Spray, Thief, Trailblaze, Pounce, Facade, Swift, Magical Leaf, Venoshock, Endure, Sunny Day, Bullet Seed, Body Slam, Sleep Talk, Seed Bomb, Reflect, Grass Knot, Poison Jab, Rest, Swords Dance, Leech Life, Substitute, Giga Drain, Energy Ball, Encore, Grassy Terrain, Sludge Bomb, Giga Impact, Leaf Storm, Hyper Beam, Solar Beam, Tera Blast, Toxic, Knock Off, Bug Bite, Lunge, Weather Ball, Grassy Glide</t>
-  </si>
-  <si>
     <t>Bulbasaur</t>
   </si>
   <si>
-    <t>Growl, Tackle, Vine Whip, Growth, Leech Seed, Razor Leaf, Poison Powder, Sleep Powder, Seed Bomb, Take Down, Sweet Scent, Synthesis, Worry Seed, Power Whip, Solar Beam, Curse, Ingrain, Petal Dance, Toxic, Take Down, Charm, Protect, Acid Spray, Trailblaze, Facade, Magical Leaf, Venoshock, Endure, Sunny Day, Bullet Seed, False Swipe, Body Slam, Sleep Talk, Seed Bomb, Grass Knot, Rest, Swords Dance, Substitute, Giga Drain, Energy Ball, Helping Hand, Grassy Terrain, Grass Pledge, Sludge Bomb, Leaf Storm, Solar Beam, Tera Blast, Toxic, Knock Off, Weather Ball, Grassy Glide, Double-Edge, Curse</t>
-  </si>
-  <si>
-    <t>Absorb, Growth, Acid, Sweet Scent, Mega Drain, Poison Powder, Stun Spore, Sleep Powder, Giga Drain, Toxic, Moonblast, Grassy Terrain, Moonlight, Petal Dance, After You, Flail, Ingrain, Leech Seed, Razor Leaf, Strength Sap, Synthesis, Teeter Dance, Tickle, Charm, Protect, Acid Spray, Trailblaze, Facade, Magical Leaf, Venoshock, Endure, Sunny Day, Bullet Seed, Sleep Talk, Seed Bomb, Grass Knot, Rest, Swords Dance, Substitute, Giga Drain, Energy Ball, Helping Hand, Grassy Terrain, Sludge Bomb, Leaf Storm, Solar Beam, Tera Blast, Toxic, Grassy Glide</t>
-  </si>
-  <si>
     <t>Exeggcute</t>
   </si>
   <si>
     <t>Grass, Psychic</t>
   </si>
   <si>
-    <t>Absorb, Hypnosis, Reflect, Leech Seed, Mega Drain, Confusion, Synthesis, Bullet Seed, Giga Drain, Extrasensory, Uproar, Worry Seed, Solar Beam, Ancient Power, Block, Curse, Ingrain, Moonlight, Poison Powder, Sleep Powder, Stun Spore, Protect, Psybeam, Thief, Facade, Stored Power, Endure, Sunny Day, Psyshock, Bullet Seed, Zen Headbutt, Sleep Talk, Seed Bomb, Reflect, Light Screen, Grass Knot, Rest, Swords Dance, Imprison, Skill Swap, Substitute, Trick, Giga Drain, Energy Ball, Psychic, Helping Hand, Grassy Terrain, Sludge Bomb, Leaf Storm, Solar Beam, Tera Blast, Uproar, Grassy Glide, Psych Up, Curse, Psychic Noise</t>
-  </si>
-  <si>
     <t>Exeggutor</t>
   </si>
   <si>
-    <t>Absorb, Bullet Seed, Confusion, Extrasensory, Giga Drain, Hypnosis, Leaf Storm, Leech Seed, Mega Drain, Psyshock, Reflect, Seed Bomb, Solar Beam, Synthesis, Uproar, Wood Hammer, Worry Seed, Stomp, Dragon Hammer, Growth, Take Down, Protect, Low Kick, Psybeam, Thief, Facade, Bulldoze, Magical Leaf, Stored Power, Endure, Sunny Day, Psyshock, Bullet Seed, Zen Headbutt, Body Slam, Sleep Talk, Seed Bomb, Reflect, Light Screen, Grass Knot, Stomping Tantrum, Rest, Swords Dance, Imprison, Skill Swap, Substitute, Trick, Giga Drain, Energy Ball, Psychic, Calm Mind, Helping Hand, Grassy Terrain, Psychic Terrain, Sludge Bomb, Earthquake, Giga Impact, Leaf Storm, Trick Room, Hyper Beam, Solar Beam, Tera Blast, Gravity, Uproar, Grassy Glide, Psych Up, Double-Edge, Future Sight, Expanding Force, Curse, Psychic Noise, Take Down, Protect, Low Kick, Psybeam, Thief, Trailblaze, Facade, Bulldoze, Magical Leaf, Stored Power, Dragon Tail, Endure, Sunny Day, Psyshock, Bullet Seed, Brick Break, Zen Headbutt, Body Slam, Sleep Talk, Seed Bomb, Reflect, Light Screen, Grass Knot, Stomping Tantrum, Rest, Swords Dance, Imprison, Skill Swap, Iron Head, Substitute, Trick, Giga Drain, Dragon Pulse, Energy Ball, Psychic, Flamethrower, Calm Mind, Helping Hand, Grassy Terrain, Psychic Terrain, Sludge Bomb, Earthquake, Giga Impact, Outrage, Leaf Storm, Trick Room, Hyper Beam, Solar Beam, Draco Meteor, Tera Blast, Gravity, Knock Off, Uproar, Grassy Glide, Psych Up, Double-Edge, Breaking Swipe, Curse, Dragon Cheer, Psychic Noise</t>
-  </si>
-  <si>
     <t>Dugtrio</t>
   </si>
   <si>
-    <t>Astonish, Growl, Night Slash, Sand Attack, Scratch, Tri Attack, Mud-Slap, Bulldoze, Sucker Punch, Slash, Sandstorm, Dig, Earth Power, Earthquake, Fissure, Astonish, Growl, Metal Claw, Night Slash, Sand Attack, Tri Attack, Mud-Slap, Bulldoze, Sucker Punch, Iron Head, Sandstorm, Dig, Earth Power, Earthquake, Fissure, Sand Tomb, Ancient Power, Final Gambit, Headbutt, Hone Claws, Memento, Ancient Power, Final Gambit, Headbutt, Hone Claws, Memento, Metal Sound, Thrash, Take Down, Charm, Agility, Mud-Slap, Protect, Thief, Facade, Bulldoze, Mud Shot, Rock Tomb, Endure, Sunny Day, Sandstorm, Dig, Shadow Claw, Foul Play, Body Slam, Sleep Talk, Rock Blast, Stomping Tantrum, Rest, Rock Slide, Swords Dance, Substitute, Stealth Rock, Earth Power, Reversal, Sludge Bomb, Earthquake, Stone Edge, Giga Impact, Hyper Beam, Tera Blast, Take Down, Charm, Agility, Mud-Slap, Scary Face, Protect, Thief, Facade, Bulldoze, Metal Claw, Mud Shot, Rock Tomb, Endure, Sunny Day, Sandstorm, Dig, Shadow Claw, Foul Play, Body Slam, Sleep Talk, Rock Blast, Stomping Tantrum, Rest, Rock Slide, Swords Dance, Flash Cannon, Iron Head, Substitute, Iron Defense, Stealth Rock, Helping Hand, Earth Power, Reversal, Sludge Bomb, Earthquake, Stone Edge, Giga Impact, Hyper Beam, Steel Beam, Tera Blast</t>
-  </si>
-  <si>
     <t>Cubone</t>
   </si>
   <si>
-    <t>Growl, Mud-Slap, Tail Whip, False Swipe, Headbutt, Retaliate, Fling, Stomping Tantrum, Bone Rush, Focus Energy, Endeavor, Bonemerang, Thrash, Double-Edge, Ancient Power, Belly Drum, Curse, Detect, Double Kick, Iron Head, Leer, Perish Song, Screech, Skull Bash, Focus Punch, Sunny Day, Ice Beam, Blizzard, Protect, Iron Tail, Earthquake, Dig, Brick Break, Double Team, Flamethrower, Sandstorm, Fire Blast, Rock Tomb, Aerial Ace, Facade, Rest, Attract, Thief, False Swipe, Fling, Endure, Swords Dance, Stealth Rock, Rock Slide, Sleep Talk, Bulldoze, Swagger, Substitute, Strength, Rock Smash, Rock Climb</t>
-  </si>
-  <si>
     <t>Diglett</t>
   </si>
   <si>
-    <t>Sand Attack, Scratch, Growl, Astonish, Mud-Slap, Bulldoze, Sucker Punch, Slash, Sandstorm, Dig, Earth Power, Earthquake, Fissure, Metal Claw, Sand Attack, Growl, Astonish, Mud-Slap, Bulldoze, Sucker Punch, Iron Head, Sandstorm, Dig, Earth Power, Earthquake, Fissure, Ancient Power, Final Gambit, Headbutt, Hone Claws, Memento, Ancient Power, Final Gambit, Headbutt, Hone Claws, Memento, Metal Sound, Thrash, Take Down, Charm, Agility, Mud-Slap, Protect, Thief, Facade, Bulldoze, Mud Shot, Rock Tomb, Endure, Sunny Day, Sandstorm, Dig, Shadow Claw, Foul Play, Body Slam, Sleep Talk, Rock Blast, Stomping Tantrum, Rest, Rock Slide, Swords Dance, Substitute, Stealth Rock, Helping Hand, Earth Power, Reversal, Sludge Bomb, Earthquake, Stone Edge, Tera Blast, Take Down, Charm, Agility, Mud-Slap, Scary Face, Protect, Thief, Facade, Bulldoze, Metal Claw, Mud Shot, Rock Tomb, Endure, Sunny Day, Sandstorm, Dig, Shadow Claw, Foul Play, Body Slam, Sleep Talk, Rock Blast, Stomping Tantrum, Rest, Rock Slide, Swords Dance, Flash Cannon, Iron Head, Substitute, Iron Defense, Stealth Rock, Helping Hand, Earth Power, Reversal, Sludge Bomb, Earthquake, Stone Edge, Steel Beam, Tera Blast</t>
-  </si>
-  <si>
-    <t>Defense Curl, Scratch, Poison Sting, Sand Attack, Rollout, Fury Cutter, Rapid Spin, Bulldoze, Swift, Fury Swipes, Agility, Slash, Dig, Gyro Ball, Swords Dance, Sandstorm, Earthquake, Defense Curl, Scratch, Mist, Powder Snow, Rollout, Fury Cutter, Rapid Spin, Metal Claw, Swift, Fury Swipes, Iron Defense, Slash, Iron Head, Gyro Ball, Swords Dance, Snowscape, Blizzard, Counter, Flail, Hone Claws, Metal Claw, Mud-Slap, Night Slash, Counter, Crush Claw, Curse, Flail, Hone Claws, Ice Shard, Mirror Coat, Night Slash, Take Down, Agility, Mud-Slap, Protect, Low Kick, Thief, Facade, Aerial Ace, Bulldoze, Metal Claw, Swift, Mud Shot, Rock Tomb, Fling, Endure, Sunny Day, Sandstorm, Dig, False Swipe, Brick Break, Shadow Claw, Body Slam, Sleep Talk, Poison Jab, Stomping Tantrum, Rest, Rock Slide, Swords Dance, Spikes, Leech Life, Substitute, X-Scissor, Stealth Rock, Amnesia, Earth Power, Earthquake, Stone Edge, Tera Blast, Sand Tomb, Smack Down, Gyro Ball, Knock Off, Super Fang, High Horsepower, Focus Punch, Take Down, Protect, Low Kick, Thief, Facade, Aerial Ace, Bulldoze, Metal Claw, Swift, Icy Wind, Rock Tomb, Fling, Avalanche, Endure, Snowscape, Dig, Brick Break, Shadow Claw, Body Slam, Ice Punch, Sleep Talk, Poison Jab, Rest, Rock Slide, Swords Dance, Flash Cannon, Leech Life, Iron Head, Substitute, Iron Defense, X-Scissor, Stealth Rock, Ice Spinner, Amnesia, Ice Beam, Blizzard, Earthquake, Steel Beam, Tera Blast, Gyro Ball, Knock Off, Super Fang, Icicle Spear, Focus Punch</t>
-  </si>
-  <si>
-    <t>Crush Claw, Defense Curl, Poison Sting, Sand Attack, Scratch, Rollout, Fury Cutter, Rapid Spin, Bulldoze, Swift, Fury Swipes, Sand Tomb, Slash, Dig, Gyro Ball, Swords Dance, Sandstorm, Earthquake, Icicle Crash, Metal Claw, Slash, Swords Dance, Icicle Spear, Blizzard, Defense Curl, Fury Cutter, Fury Swipes, Gyro Ball, Iron Defense, Iron Head, Metal Burst, Mist, Powder Snow, Rapid Spin, Rollout, Scratch, Snowscape, Swift, Take Down, Agility, Mud-Slap, Protect, Low Kick, Thief, Facade, Aerial Ace, Bulldoze, Metal Claw, Swift, Mud Shot, Rock Tomb, Fling, Endure, Sunny Day, Sandstorm, Dig, False Swipe, Brick Break, Shadow Claw, Body Slam, Sleep Talk, Poison Jab, Stomping Tantrum, Rest, Rock Slide, Swords Dance, Spikes, Leech Life, Gunk Shot, Substitute, X-Scissor, Drill Run, Stealth Rock, Amnesia, Earth Power, Earthquake, Stone Edge, Giga Impact, Focus Blast, Hyper Beam, Tera Blast, Sand Tomb, Smack Down, Gyro Ball, Knock Off, Super Fang, High Horsepower, Focus Punch, Take Down, Agility, Protect, Low Kick, Thief, Facade, Aerial Ace, Bulldoze, Metal Claw, Swift, Icy Wind, Rock Tomb, Fling, Avalanche, Endure, Snowscape, Dig, False Swipe, Brick Break, Shadow Claw, Body Slam, Ice Punch, Sleep Talk, Poison Jab, Rest, Rock Slide, Swords Dance, Spikes, Flash Cannon, Leech Life, Iron Head, Substitute, Iron Defense, X-Scissor, Drill Run, Stealth Rock, Ice Spinner, Amnesia, Ice Beam, Blizzard, Earthquake, Giga Impact, Focus Blast, Hyper Beam, Steel Beam, Tera Blast, Gyro Ball, Knock Off, Super Fang, Icicle Spear, Focus Punch</t>
-  </si>
-  <si>
     <t>Marowak</t>
   </si>
   <si>
-    <t>False Swipe, Growl, Mud-Slap, Tail Whip, Headbutt, Retaliate, Fling, Stomping Tantrum, Bone Rush, Focus Energy, Endeavor, Bonemerang, Thrash, Double-Edge, Ancient Power, Belly Drum, Curse, Detect, Double Kick, Iron Head, Leer, Perish Song, Screech, Skull Bash, Focus Punch, Sunny Day, Ice Beam, Blizzard, Hyper Beam, Protect, Iron Tail, Earthquake, Dig, Brick Break, Double Team, Flamethrower, Sandstorm, Fire Blast, Rock Tomb, Aerial Ace, Facade, Rest, Attract, Thief, Focus Blast, False Swipe, Fling, Endure, Giga Impact, Stone Edge, Swords Dance, Stealth Rock, Rock Slide, Sleep Talk, Bulldoze, Swagger, Substitute, Strength, Rock Smash, Rock Climb</t>
-  </si>
-  <si>
-    <t>Bulldoze, Smack Down, Tackle, Tail Whip, Horn Attack, Scary Face, Stomp, Rock Blast, Drill Run, Take Down, Earthquake, Stone Edge, Megahorn, Horn Drill, Hammer Arm, Take Down, Mud-Slap, Scary Face, Protect, Fire Fang, Thunder Fang, Ice Fang, Thief, Facade, Bulldoze, Icy Wind, Mud Shot, Rock Tomb, Fling, Avalanche, Endure, Sunny Day, Rain Dance, Sandstorm, Smart Strike, Dig, Brick Break, Shadow Claw, Body Slam, Fire Punch, Thunder Punch, Ice Punch, Sleep Talk, Rock Blast, Poison Jab, Stomping Tantrum, Rest, Rock Slide, Swords Dance, Body Press, Substitute, Iron Defense, Drill Run, Crunch, Dragon Pulse, Stealth Rock, Heavy Slam, Surf, Flamethrower, Thunderbolt, Helping Hand, Earth Power, Reversal, Ice Beam, Fire Blast, Hydro Pump, Blizzard, Earthquake, Stone Edge, Giga Impact, Outrage, Focus Blast, Hyper Beam, Thunder, Tera Blast, Roar, Smack Down, High Horsepower, Heat Crash, Uproar, Focus Punch, Double-Edge, Endeavor, Supercell Slam, Scorching Sands, Meteor Beam, Breaking Swipe, Curse</t>
-  </si>
-  <si>
-    <t>Tackle, Tail Whip, Smack Down, Bulldoze, Horn Attack, Scary Face, Stomp, Rock Blast, Drill Run, Take Down, Earthquake, Stone Edge, Megahorn, Horn Drill, Counter, Curse, Dragon Rush, Guard Split, Metal Burst, Rock Polish, Take Down, Mud-Slap, Scary Face, Protect, Fire Fang, Thunder Fang, Ice Fang, Thief, Facade, Bulldoze, Icy Wind, Mud Shot, Rock Tomb, Endure, Sunny Day, Rain Dance, Sandstorm, Smart Strike, Dig, Body Slam, Sleep Talk, Rock Blast, Poison Jab, Stomping Tantrum, Rest, Rock Slide, Swords Dance, Body Press, Substitute, Drill Run, Crunch, Dragon Pulse, Stealth Rock, Heavy Slam, Flamethrower, Thunderbolt, Earth Power, Reversal, Ice Beam, Fire Blast, Blizzard, Earthquake, Stone Edge, Thunder, Tera Blast, Roar, Smack Down, High Horsepower, Uproar, Double-Edge, Endeavor, Supercell Slam, Scorching Sands, Curse</t>
-  </si>
-  <si>
     <t>Articuno</t>
   </si>
   <si>
     <t>Ice, Flying</t>
   </si>
   <si>
-    <t>Gust, Mist, Powder Snow, Reflect, Ice Shard, Agility, Ancient Power, Tailwind, Freeze-Dry, Roost, Ice Beam, Snowscape, Hurricane, Haze, Blizzard, Sheer Cold, Gust, Confusion, Reflect, Hypnosis, Agility, Ancient Power, Tailwind, Psycho Cut, Recover, Freezing Glare, Dream Eater, Hurricane, Double Team, Future Sight, Trick Room, Take Down, Agility, Protect, Water Pulse, Facade, Aerial Ace, Swift, Icy Wind, Air Cutter, Avalanche, Endure, Sunny Day, Rain Dance, Sandstorm, Snowscape, U-turn, Air Slash, Sleep Talk, Reflect, Light Screen, Rest, Fly, Substitute, Tailwind, Ice Spinner, Helping Hand, Ice Beam, Blizzard, Giga Impact, Hurricane, Hyper Beam, Brave Bird, Tera Blast, Take Down, Agility, Scary Face, Protect, Psybeam, Facade, Swift, Air Cutter, Stored Power, Endure, Sunny Day, Rain Dance, Snowscape, Psyshock, U-turn, Air Slash, Sleep Talk, Reflect, Light Screen, Rest, Imprison, Fly, Skill Swap, Substitute, Trick, Tailwind, Shadow Ball, Hyper Voice, Psychic, Calm Mind, Helping Hand, Giga Impact, Hurricane, Trick Room, Hyper Beam, Brave Bird, Tera Blast</t>
-  </si>
-  <si>
     <t>Jynx</t>
   </si>
   <si>
     <t>Ice, Psychic</t>
   </si>
   <si>
-    <t>Copycat, Lick, Pound, Powder Snow, Sweet Kiss, Confusion, Covet, Sing, Fake Tears, Ice Punch, Psychic, Lovely Kiss, Mean Look, Perish Song, Blizzard, Fake Out, Ice Punch, Role Play, Wish, Focus Punch, Water Pulse, Calm Mind, Hail, Taunt, Ice Beam, Blizzard, Hyper Beam, Light Screen, Protect, Rain Dance, Psychic, Shadow Ball, Brick Break, Double Team, Reflect, Torment, Facade, Rest, Attract, Thief, Skill Swap, Focus Blast, Energy Ball, Fling, Endure, Drain Punch, Nasty Plot, Payback, Recycle, Giga Impact, Flash, Avalanche, Psych Up, Sleep Talk, Dream Eater, Grass Knot, Swagger, Substitute, Trick Room</t>
-  </si>
-  <si>
     <t>Lickitung</t>
   </si>
   <si>
-    <t>Defense Curl, Lick, Rollout, Supersonic, Wrap, Disable, Stomp, Knock Off, Screech, Slam, Power Whip, Belly Drum, Amnesia, Belch, Belly Drum, Body Slam, Curse, Hammer Arm, Muddy Water, Snore, Thrash, Zen Headbutt, Focus Punch, Water Pulse, Work Up, Sunny Day, Ice Beam, Blizzard, Hyper Beam, Protect, Rain Dance, Solar Beam, Iron Tail, Thunderbolt, Thunder, Earthquake, Dig, Shadow Ball, Brick Break, Double Team, Shock Wave, Flamethrower, Sandstorm, Fire Blast, Rock Tomb, Facade, Rest, Attract, Thief, Fling, Endure, Giga Impact, Swords Dance, Psych Up, Rock Slide, Sleep Talk, Bulldoze, Dream Eater, Swagger, Substitute, Cut, Surf, Strength, Rock Smash, Rock Climb</t>
-  </si>
-  <si>
     <t>Chansey</t>
   </si>
   <si>
-    <t>Charm, Copycat, Covet, Defense Curl, Disarming Voice, Pound, Sweet Kiss, Tail Whip, Echoed Voice, Life Dew, Sing, Fling, Take Down, Heal Pulse, Helping Hand, Light Screen, Double-Edge, Soft-Boiled, Last Resort, Healing Wish, Gravity, Heal Bell, Present, Seismic Toss, Take Down, Charm, Protect, Water Pulse, Thief, Disarming Voice, Trailblaze, Chilling Water, Facade, Bulldoze, Swift, Icy Wind, Rock Tomb, Stored Power, Fling, Endure, Sunny Day, Rain Dance, Sandstorm, Snowscape, Brick Break, Zen Headbutt, Body Slam, Fire Punch, Thunder Punch, Ice Punch, Sleep Talk, Drain Punch, Light Screen, Dazzling Gleam, Metronome, Grass Knot, Thunder Wave, Stomping Tantrum, Rest, Rock Slide, Skill Swap, Substitute, Shadow Ball, Stealth Rock, Hyper Voice, Psychic, Flamethrower, Thunderbolt, Calm Mind, Helping Hand, Ice Beam, Electric Terrain, Fire Blast, Blizzard, Wild Charge, Earthquake, Giga Impact, Focus Blast, Hyper Beam, Thunder, Solar Beam, Tera Blast</t>
-  </si>
-  <si>
     <t>Porygon</t>
   </si>
   <si>
-    <t>Conversion, Tackle, Recycle, Magnet Rise, Thunder Shock, Psybeam, Conversion 2, Agility, Recover, Discharge, Tri Attack, Double-Edge, Lock-On, Zap Cannon, Take Down, Agility, Protect, Psybeam, Thief, Charge Beam, Facade, Swift, Icy Wind, Endure, Sunny Day, Rain Dance, Psyshock, Zen Headbutt, Foul Play, Sleep Talk, Thunder Wave, Rest, Eerie Impulse, Substitute, Trick, Shadow Ball, Psychic, Thunderbolt, Ice Beam, Blizzard, Giga Impact, Trick Room, Hyper Beam, Thunder, Solar Beam, Tera Blast, Charge, Gravity, Double-Edge, Electroweb</t>
-  </si>
-  <si>
     <t>Eevee</t>
   </si>
   <si>
-    <t>Covet, Growl, Helping Hand, Tackle, Tail Whip, Sand Attack, Quick Attack, Baby-Doll Eyes, Swift, Bite, Copycat, Baton Pass, Take Down, Charm, Double-Edge, Last Resort, Curse, Detect, Double Kick, Flail, Mud-Slap, Tickle, Wish, Yawn, Take Down, Charm, Fake Tears, Mud-Slap, Protect, Trailblaze, Facade, Swift, Stored Power, Endure, Sunny Day, Rain Dance, Dig, Body Slam, Sleep Talk, Rest, Substitute, Shadow Ball, Hyper Voice, Calm Mind, Helping Hand, Baton Pass, Tera Blast</t>
-  </si>
-  <si>
     <t>Snorlax</t>
   </si>
   <si>
-    <t>Block, Covet, Defense Curl, Flail, Fling, Last Resort, Lick, Metronome, Recycle, Screech, Stockpile, Swallow, Tackle, Yawn, Bite, Rest, Sleep Talk, Snore, Crunch, Body Slam, Heavy Slam, Amnesia, High Horsepower, Hammer Arm, Belly Drum, Belch, Giga Impact, Take Down, Charm, Mud-Slap, Protect, Trailblaze, Chilling Water, Facade, Bulldoze, Icy Wind, Rock Tomb, Fling, Endure, Sunny Day, Rain Dance, Sandstorm, Dig, Brick Break, Zen Headbutt, Body Slam, Fire Punch, Thunder Punch, Ice Punch, Sleep Talk, Seed Bomb, Metronome, Stomping Tantrum, Rest, Rock Slide, Body Press, Iron Head, Gunk Shot, Substitute, Crunch, Shadow Ball, Hyper Voice, Heavy Slam, Encore, Surf, Flamethrower, Thunderbolt, Amnesia, Helping Hand, Ice Beam, Fire Blast, Blizzard, Wild Charge, Earthquake, Giga Impact, Outrage, Focus Blast, Hyper Beam, Thunder, Solar Beam, Tera Blast, Smack Down, High Horsepower, Heat Crash, Uproar, Focus Punch</t>
-  </si>
-  <si>
     <t>Raticate</t>
   </si>
   <si>
-    <t>Focus Energy, Quick Attack, Scary Face, Swords Dance, Tackle, Tail Whip, Quick Attack, Focus Energy, Bite, Laser Focus, Take Down, Assurance, Crunch, Sucker Punch, Super Fang, Double-Edge, Endeavor, Scary Face, Bite, Counter, Final Gambit, Flame Wheel, Fury Swipes, Last Resort, Revenge, Reversal, Screech, Uproar, Roar, Work Up, Sunny Day, Taunt, Ice Beam, Blizzard, Hyper Beam, Protect, Rain Dance, Iron Tail, Thunderbolt, Thunder, Dig, Shadow Ball, Double Team, Shock Wave, Sludge Bomb, Facade, Rest, Attract, Thief, Charge Beam, Endure, Giga Impact, Thunder Wave, Swords Dance, Sleep Talk, Grass Knot, Swagger, Pluck, Substitute, Cut, Strength, Rock Smash</t>
-  </si>
-  <si>
     <t>Tauros</t>
   </si>
   <si>
-    <t>Tackle, Tail Whip, Work Up, Payback, Assurance, Horn Attack, Scary Face, Zen Headbutt, Raging Bull, Rest, Swagger, Thrash, Double-Edge, Giga Impact, Curse, Endeavor, Take Down, Scary Face, Protect, Thief, Trailblaze, Facade, Bulldoze, Icy Wind, Rock Tomb, Endure, Sunny Day, Rain Dance, Sandstorm, Smart Strike, Dig, Zen Headbutt, Body Slam, Sleep Talk, Stomping Tantrum, Rest, Rock Slide, Iron Head, Substitute, Shadow Ball, Surf, Flamethrower, Thunderbolt, Helping Hand, Reversal, Ice Beam, Fire Blast, Blizzard, Wild Charge, Earthquake, Stone Edge, Giga Impact, Outrage, Hyper Beam, Thunder, Close Combat, Solar Beam, Tera Blast</t>
-  </si>
-  <si>
     <t>Persian</t>
   </si>
   <si>
-    <t>Fake Out, Feint, Growl, Scratch, Switcheroo, Pay Day, Bite, Taunt, Assurance, Fury Swipes, Screech, Slash, Nasty Plot, Play Rough, Fake Out, Feint, Growl, Quash, Scratch, Switcheroo, Pay Day, Bite, Taunt, Assurance, Fury Swipes, Screech, Night Slash, Nasty Plot, Play Rough, Power Gem, Covet, Flail, Hypnosis, Last Resort, Spite, Tail Whip, Covet, Flail, Flatter, Hypnosis, Parting Shot, Spite, Take Down, Charm, Fake Tears, Agility, Protect, Thief, Trailblaze, Chilling Water, Facade, Aerial Ace, Snarl, Metal Claw, Swift, Icy Wind, Endure, Sunny Day, Rain Dance, Dig, False Swipe, U-turn, Shadow Claw, Foul Play, Body Slam, Sleep Talk, Seed Bomb, Thunder Wave, Rest, Taunt, Dark Pulse, Power Gem, Gunk Shot, Substitute, Shadow Ball, Hyper Voice, Thunderbolt, Play Rough, Amnesia, Helping Hand, Nasty Plot, Giga Impact, Hyper Beam, Thunder, Tera Blast, Take Down, Charm, Fake Tears, Agility, Protect, Confuse Ray, Thief, Trailblaze, Chilling Water, Facade, Aerial Ace, Snarl, Metal Claw, Swift, Icy Wind, Endure, Sunny Day, Rain Dance, Dig, U-turn, Shadow Claw, Foul Play, Body Slam, Sleep Talk, Seed Bomb, Thunder Wave, Rest, Taunt, Dark Pulse, Power Gem, Gunk Shot, Substitute, Shadow Ball, Hyper Voice, Thunderbolt, Play Rough, Amnesia, Helping Hand, Nasty Plot, Giga Impact, Hyper Beam, Thunder, Tera Blast</t>
-  </si>
-  <si>
     <t>Kangaskhan</t>
   </si>
   <si>
-    <t>Pound, Tail Whip, Growl, Fake Out, Bite, Stomp, Focus Energy, Headbutt, Sucker Punch, Double Hit, Crunch, Endure, Reversal, Outrage, Last Resort, Circle Throw, Counter, Crush Claw, Disable, Double-Edge, Endeavor, Focus Energy, Hammer Arm, Stomp, Uproar, Focus Punch, Water Pulse, Roar, Hail, Work Up, Sunny Day, Ice Beam, Blizzard, Hyper Beam, Protect, Rain Dance, Safeguard, Solar Beam, Iron Tail, Thunderbolt, Thunder, Earthquake, Dig, Shadow Ball, Brick Break, Double Team, Shock Wave, Flamethrower, Sandstorm, Fire Blast, Rock Tomb, Aerial Ace, Facade, Rest, Attract, Thief, Focus Blast, Fling, Endure, Drain Punch, Shadow Claw, Giga Impact, Avalanche, Rock Slide, Sleep Talk, Bulldoze, Swagger, Substitute, Cut, Surf, Strength, Rock Smash, Rock Climb</t>
-  </si>
-  <si>
     <t>Meowth</t>
   </si>
   <si>
-    <t>Fake Out, Growl, Feint, Scratch, Pay Day, Bite, Taunt, Assurance, Fury Swipes, Screech, Slash, Nasty Plot, Play Rough, Fake Out, Growl, Feint, Scratch, Pay Day, Bite, Taunt, Assurance, Fury Swipes, Screech, Night Slash, Nasty Plot, Play Rough, Fake Out, Growl, Hone Claws, Scratch, Pay Day, Metal Claw, Taunt, Swagger, Fury Swipes, Screech, Slash, Metal Sound, Thrash, Covet, Flail, Hypnosis, Last Resort, Spite, Tail Whip, Covet, Flail, Flatter, Hypnosis, Parting Shot, Spite, Covet, Curse, Double-Edge, Flail, Night Slash, Spite, Take Down, Charm, Fake Tears, Agility, Protect, Thief, Trailblaze, Chilling Water, Facade, Aerial Ace, Snarl, Metal Claw, Swift, Icy Wind, Endure, Sunny Day, Rain Dance, Dig, False Swipe, U-turn, Shadow Claw, Foul Play, Body Slam, Sleep Talk, Seed Bomb, Thunder Wave, Rest, Taunt, Dark Pulse, Power Gem, Gunk Shot, Substitute, Shadow Ball, Hyper Voice, Thunderbolt, Play Rough, Amnesia, Helping Hand, Nasty Plot, Thunder, Tera Blast, Take Down, Charm, Fake Tears, Agility, Protect, Confuse Ray, Thief, Trailblaze, Chilling Water, Facade, Aerial Ace, Snarl, Metal Claw, Swift, Icy Wind, Endure, Sunny Day, Rain Dance, Dig, U-turn, Shadow Claw, Foul Play, Body Slam, Sleep Talk, Seed Bomb, Thunder Wave, Rest, Taunt, Dark Pulse, Power Gem, Gunk Shot, Substitute, Shadow Ball, Hyper Voice, Thunderbolt, Play Rough, Amnesia, Helping Hand, Nasty Plot, Thunder, Tera Blast, Take Down, Charm, Fake Tears, Protect, Thief, Trailblaze, Facade, Aerial Ace, Metal Claw, Fling, Endure, Sunny Day, Rain Dance, Dig, False Swipe, Brick Break, U-turn, Shadow Claw, Foul Play, Body Slam, Sleep Talk, Seed Bomb, Metronome, Rest, Taunt, Swords Dance, Flash Cannon, Dark Pulse, Iron Head, Gunk Shot, Substitute, Iron Defense, X-Scissor, Crunch, Shadow Ball, Stealth Rock, Hyper Voice, Thunderbolt, Play Rough, Amnesia, Helping Hand, Nasty Plot, Thunder, Steel Beam, Tera Blast</t>
-  </si>
-  <si>
     <t>Rattata</t>
   </si>
   <si>
-    <t>Tackle, Tail Whip, Quick Attack, Focus Energy, Bite, Laser Focus, Take Down, Assurance, Crunch, Sucker Punch, Super Fang, Double-Edge, Endeavor, Bite, Counter, Final Gambit, Flame Wheel, Fury Swipes, Last Resort, Revenge, Reversal, Screech, Uproar, Work Up, Sunny Day, Taunt, Ice Beam, Blizzard, Protect, Rain Dance, Iron Tail, Thunderbolt, Thunder, Dig, Shadow Ball, Double Team, Shock Wave, Sludge Bomb, Facade, Rest, Attract, Thief, Charge Beam, Endure, Thunder Wave, Sleep Talk, Grass Knot, Swagger, Pluck, Substitute, Cut, Rock Smash</t>
-  </si>
-  <si>
-    <t>Body Slam, Charm, Copycat, Covet, Defense Curl, Disable, Disarming Voice, Double-Edge, Echoed Voice, Gyro Ball, Hyper Voice, Mimic, Pound, Rest, Round, Sing, Spit Up, Stockpile, Swallow, Sweet Kiss, Play Rough, Covet, Gravity, Heal Pulse, Last Resort, Perish Song, Present, Rollout, Wish, Take Down, Charm, Fake Tears, Protect, Water Pulse, Thief, Disarming Voice, Trailblaze, Chilling Water, Facade, Swift, Magical Leaf, Icy Wind, Draining Kiss, Stored Power, Fling, Endure, Sunny Day, Rain Dance, Sandstorm, Psyshock, Dig, Brick Break, Zen Headbutt, Body Slam, Fire Punch, Thunder Punch, Ice Punch, Sleep Talk, Drain Punch, Reflect, Light Screen, Dazzling Gleam, Metronome, Grass Knot, Thunder Wave, Rest, Taunt, Body Press, Dark Pulse, Skill Swap, Substitute, Shadow Ball, Stealth Rock, Hyper Voice, Energy Ball, Psychic, Encore, Ice Spinner, Flamethrower, Thunderbolt, Play Rough, Amnesia, Calm Mind, Helping Hand, Baton Pass, Ice Beam, Misty Terrain, Nasty Plot, Fire Blast, Blizzard, Wild Charge, Giga Impact, Focus Blast, Hyper Beam, Thunder, Solar Beam, Tera Blast</t>
-  </si>
-  <si>
-    <t>Charm, Copycat, Defense Curl, Disable, Disarming Voice, Pound, Sing, Sweet Kiss, Echoed Voice, Covet, Spit Up, Stockpile, Swallow, Round, Rest, Body Slam, Mimic, Gyro Ball, Hyper Voice, Double-Edge, Covet, Gravity, Heal Pulse, Last Resort, Perish Song, Present, Rollout, Wish, Take Down, Charm, Fake Tears, Protect, Water Pulse, Thief, Disarming Voice, Trailblaze, Chilling Water, Facade, Swift, Magical Leaf, Icy Wind, Draining Kiss, Stored Power, Fling, Endure, Sunny Day, Rain Dance, Sandstorm, Psyshock, Dig, Brick Break, Zen Headbutt, Body Slam, Fire Punch, Thunder Punch, Ice Punch, Sleep Talk, Drain Punch, Reflect, Light Screen, Dazzling Gleam, Metronome, Grass Knot, Thunder Wave, Rest, Taunt, Body Press, Dark Pulse, Skill Swap, Substitute, Shadow Ball, Stealth Rock, Hyper Voice, Energy Ball, Psychic, Encore, Ice Spinner, Flamethrower, Thunderbolt, Play Rough, Amnesia, Calm Mind, Helping Hand, Baton Pass, Ice Beam, Misty Terrain, Nasty Plot, Fire Blast, Blizzard, Wild Charge, Thunder, Solar Beam, Tera Blast</t>
-  </si>
-  <si>
     <t>Pidgeotto</t>
   </si>
   <si>
-    <t>Gust, Sand Attack, Tackle, Sand Attack, Gust, Quick Attack, Whirlwind, Twister, Feather Dance, Agility, Wing Attack, Roost, Tailwind, Aerial Ace, Air Slash, Hurricane, Air Cutter, Air Slash, Brave Bird, Uproar, Work Up, Sunny Day, Protect, Rain Dance, Double Team, Aerial Ace, Facade, Rest, Attract, Thief, Steel Wing, Roost, Endure, Sleep Talk, Swagger, Pluck, U-turn, Substitute, Fly, Defog</t>
-  </si>
-  <si>
     <t>Pidgeot</t>
   </si>
   <si>
-    <t>Gust, Hurricane, Quick Attack, Sand Attack, Tackle, Sand Attack, Gust, Quick Attack, Whirlwind, Twister, Feather Dance, Agility, Wing Attack, Roost, Tailwind, Aerial Ace, Air Slash, Hurricane, Air Cutter, Air Slash, Brave Bird, Uproar, Work Up, Sunny Day, Hyper Beam, Protect, Rain Dance, Double Team, Aerial Ace, Facade, Rest, Attract, Thief, Steel Wing, Roost, Endure, Giga Impact, Sleep Talk, Swagger, Pluck, U-turn, Substitute, Fly, Defog</t>
-  </si>
-  <si>
     <t>Fearow</t>
   </si>
   <si>
-    <t>Drill Run, Growl, Leer, Peck, Pluck, Leer, Assurance, Fury Attack, Aerial Ace, Wing Attack, Take Down, Agility, Focus Energy, Roost, Drill Peck, Drill Run, Astonish, Feather Dance, Quick Attack, Scary Face, Sky Attack, Tri Attack, Uproar, Whirlwind, Work Up, Sunny Day, Hyper Beam, Protect, Rain Dance, Double Team, Aerial Ace, Facade, Rest, Attract, Thief, Steel Wing, Roost, False Swipe, Endure, Giga Impact, Sleep Talk, Swagger, Pluck, U-turn, Substitute, Fly, Defog</t>
-  </si>
-  <si>
     <t>Spearow</t>
   </si>
   <si>
-    <t>Growl, Peck, Leer, Assurance, Fury Attack, Aerial Ace, Wing Attack, Take Down, Agility, Focus Energy, Roost, Drill Peck, Astonish, Feather Dance, Quick Attack, Scary Face, Sky Attack, Tri Attack, Uproar, Whirlwind, Work Up, Sunny Day, Protect, Rain Dance, Double Team, Aerial Ace, Facade, Rest, Attract, Thief, Steel Wing, Roost, False Swipe, Endure, Sleep Talk, Swagger, Pluck, U-turn, Substitute, Fly, Defog</t>
-  </si>
-  <si>
     <t>Pidgey</t>
   </si>
   <si>
-    <t>Tackle, Sand Attack, Gust, Quick Attack, Whirlwind, Twister, Feather Dance, Agility, Wing Attack, Roost, Tailwind, Aerial Ace, Air Slash, Hurricane, Air Cutter, Air Slash, Brave Bird, Uproar, Work Up, Sunny Day, Protect, Rain Dance, Double Team, Aerial Ace, Facade, Rest, Attract, Thief, Steel Wing, Roost, Endure, Sleep Talk, Swagger, Pluck, U-turn, Substitute, Fly, Defog</t>
-  </si>
-  <si>
-    <t>Growl, Peck, Quick Attack, Fury Attack, Pluck, Double Hit, Agility, Uproar, Acupressure, Swords Dance, Drill Peck, Endeavor, Thrash, Tri Attack, Take Down, Agility, Mud-Slap, Scary Face, Protect, Low Kick, Acrobatics, Thief, Trailblaze, Pounce, Facade, Aerial Ace, Swift, Endure, Sunny Day, Rain Dance, Body Slam, Sleep Talk, Stomping Tantrum, Rest, Taunt, Swords Dance, Fly, Substitute, Drill Run, Tailwind, Helping Hand, Baton Pass, Giga Impact, Hyper Beam, Brave Bird, Tera Blast, Knock Off, Lunge, Uproar, Double-Edge, Endeavor, Feather Dance, Throat Chop</t>
-  </si>
-  <si>
     <t>Farfetch'd</t>
   </si>
   <si>
-    <t>Peck, Sand Attack, Leer, Fury Cutter, Cut, Aerial Ace, Air Cutter, Knock Off, False Swipe, Slash, Swords Dance, Air Slash, Leaf Blade, Agility, Brave Bird, Covet, Curse, Feather Dance, Feint, Final Gambit, Flail, Gust, Leaf Blade, Mud-Slap, Night Slash, Quick Attack, Revenge, Simple Beam, Sky Attack, Work Up, Sunny Day, Protect, Iron Tail, Double Team, Aerial Ace, Facade, Rest, Attract, Thief, Steel Wing, Roost, False Swipe, Endure, Swords Dance, Psych Up, Sleep Talk, Poison Jab, Swagger, Pluck, U-turn, Substitute, Cut, Fly, Defog</t>
-  </si>
-  <si>
-    <t>Growl, Peck, Quick Attack, Fury Attack, Pluck, Double Hit, Agility, Uproar, Acupressure, Swords Dance, Drill Peck, Endeavor, Thrash, Assurance, Flail, Sky Attack, Whirlwind, Take Down, Agility, Mud-Slap, Protect, Low Kick, Acrobatics, Thief, Facade, Aerial Ace, Swift, Endure, Sunny Day, Rain Dance, Body Slam, Sleep Talk, Rest, Swords Dance, Substitute, Tailwind, Helping Hand, Baton Pass, Brave Bird, Tera Blast, Knock Off, Lunge, Uproar, Double-Edge, Endeavor, Feather Dance, Throat Chop</t>
-  </si>
-  <si>
-    <t>Poison Gas, Tackle, Smog, Smokescreen, Clear Smog, Assurance, Sludge, Haze, Self-Destruct, Sludge Bomb, Toxic, Belch, Explosion, Memento, Destiny Bond, Curse, Pain Split, Spit Up, Spite, Stockpile, Swallow, Take Down, Scary Face, Protect, Acid Spray, Psybeam, Thief, Facade, Venoshock, Endure, Sunny Day, Rain Dance, Body Slam, Sleep Talk, Rest, Taunt, Toxic Spikes, Dark Pulse, Gunk Shot, Substitute, Will-O-Wisp, Shadow Ball, Flamethrower, Thunderbolt, Fire Blast, Sludge Bomb, Thunder, Tera Blast, Haze, Toxic, Spite, Gyro Ball</t>
-  </si>
-  <si>
-    <t>Poison Gas, Pound, Harden, Mud-Slap, Disable, Sludge, Mud Shot, Minimize, Toxic, Sludge Bomb, Sludge Wave, Screech, Gunk Shot, Acid Armor, Belch, Memento, Poison Gas, Pound, Harden, Bite, Disable, Acid Spray, Poison Fang, Minimize, Toxic, Knock Off, Crunch, Screech, Gunk Shot, Acid Armor, Belch, Memento, Acid Spray, Curse, Haze, Mean Look, Shadow Punch, Shadow Sneak, Spit Up, Stockpile, Swallow, Take Down, Mud-Slap, Scary Face, Protect, Acid Spray, Confuse Ray, Thief, Facade, Hex, Mud Shot, Rock Tomb, Fling, Venoshock, Endure, Sunny Day, Rain Dance, Sandstorm, Dig, Zen Headbutt, Body Slam, Fire Punch, Thunder Punch, Ice Punch, Sleep Talk, Drain Punch, Metronome, Poison Jab, Rest, Rock Slide, Taunt, Imprison, Gunk Shot, Substitute, Giga Drain, Shadow Ball, Flamethrower, Thunderbolt, Helping Hand, Fire Blast, Sludge Bomb, Thunder, Tera Blast, Take Down, Mud-Slap, Scary Face, Protect, Acid Spray, Thief, Facade, Hex, Snarl, Swift, Mud Shot, Rock Tomb, Fling, Venoshock, Endure, Sunny Day, Rain Dance, Sandstorm, Dig, Brick Break, Zen Headbutt, Body Slam, Fire Punch, Thunder Punch, Ice Punch, Sleep Talk, Drain Punch, Metronome, Poison Jab, Rest, Rock Slide, Taunt, Imprison, Dark Pulse, Gunk Shot, Substitute, Crunch, Giga Drain, Shadow Ball, Flamethrower, Thunderbolt, Helping Hand, Fire Blast, Sludge Bomb, Stone Edge, Giga Impact, Hyper Beam, Thunder, Tera Blast</t>
-  </si>
-  <si>
     <t>Nidorino</t>
   </si>
   <si>
-    <t>Focus Energy, Leer, Peck, Poison Sting, Fury Attack, Toxic Spikes, Double Kick, Horn Attack, Helping Hand, Toxic, Flatter, Poison Jab, Earth Power, Amnesia, Beat Up, Confusion, Counter, Disable, Head Smash, Horn Drill, Poison Tail, Sucker Punch, Supersonic, Take Down, Thrash, Venom Drench, Water Pulse, Toxic, Sunny Day, Ice Beam, Blizzard, Protect, Rain Dance, Iron Tail, Thunderbolt, Thunder, Dig, Double Team, Shock Wave, Sludge Bomb, Facade, Rest, Attract, Thief, Endure, Shadow Claw, Sleep Talk, Poison Jab, Swagger, Substitute, Cut, Strength, Rock Smash</t>
-  </si>
-  <si>
     <t>Ekans</t>
   </si>
   <si>
-    <t>Leer, Wrap, Poison Sting, Bite, Glare, Screech, Acid, Spit Up, Stockpile, Swallow, Acid Spray, Sludge Bomb, Gastro Acid, Belch, Haze, Coil, Gunk Shot, Poison Fang, Poison Tail, Scary Face, Spite, Sucker Punch, Switcheroo, Take Down, Mud-Slap, Scary Face, Protect, Fire Fang, Acid Spray, Thief, Trailblaze, Facade, Poison Tail, Snarl, Mud Shot, Rock Tomb, Venoshock, Endure, Sunny Day, Rain Dance, Dig, Psychic Fangs, Sleep Talk, Seed Bomb, Poison Jab, Rest, Rock Slide, Toxic Spikes, Dark Pulse, Leech Life, Gunk Shot, Substitute, Crunch, Giga Drain, Sludge Bomb, Earthquake, Tera Blast, Haze, Toxic, Spite, Knock Off, Lash Out, Scale Shot</t>
-  </si>
-  <si>
     <t>Nidorina</t>
   </si>
   <si>
-    <t>Growl, Poison Sting, Scratch, Tail Whip, Fury Swipes, Toxic Spikes, Double Kick, Bite, Helping Hand, Toxic, Flatter, Crunch, Earth Power, Beat Up, Charm, Counter, Disable, Focus Energy, Poison Fang, Poison Tail, Skull Bash, Supersonic, Take Down, Venom Drench, Water Pulse, Toxic, Sunny Day, Ice Beam, Blizzard, Protect, Rain Dance, Iron Tail, Thunderbolt, Thunder, Dig, Double Team, Shock Wave, Sludge Bomb, Aerial Ace, Facade, Rest, Attract, Thief, Endure, Shadow Claw, Sleep Talk, Poison Jab, Swagger, Substitute, Cut, Strength, Rock Smash</t>
-  </si>
-  <si>
-    <t>Heat Wave, Poison Gas, Smog, Smokescreen, Tackle, Clear Smog, Assurance, Sludge, Haze, Self-Destruct, Sludge Bomb, Toxic, Belch, Explosion, Memento, Destiny Bond, Aromatic Mist, Defog, Haze, Heat Wave, Poison Gas, Smog, Smokescreen, Strange Steam, Tackle, Clear Smog, Assurance, Sludge, Fairy Wind, Self-Destruct, Sludge Bomb, Toxic, Belch, Explosion, Memento, Destiny Bond, Misty Terrain, Double Hit, Take Down, Scary Face, Protect, Acid Spray, Psybeam, Thief, Facade, Venoshock, Endure, Sunny Day, Rain Dance, Body Slam, Sleep Talk, Rest, Taunt, Toxic Spikes, Dark Pulse, Gunk Shot, Substitute, Will-O-Wisp, Shadow Ball, Heat Wave, Flamethrower, Thunderbolt, Fire Blast, Sludge Bomb, Giga Impact, Hyper Beam, Thunder, Tera Blast, Haze, Toxic, Spite, Gyro Ball, Take Down, Scary Face, Protect, Acid Spray, Psybeam, Thief, Facade, Venoshock, Endure, Sunny Day, Rain Dance, Body Slam, Sleep Talk, Dazzling Gleam, Rest, Taunt, Toxic Spikes, Dark Pulse, Gunk Shot, Substitute, Will-O-Wisp, Shadow Ball, Heat Wave, Flamethrower, Thunderbolt, Play Rough, Misty Terrain, Fire Blast, Sludge Bomb, Giga Impact, Overheat, Hyper Beam, Thunder, Tera Blast, Haze, Toxic, Spite, Gyro Ball, Misty Explosion</t>
-  </si>
-  <si>
-    <t>Harden, Mud-Slap, Poison Gas, Pound, Disable, Sludge, Mud Shot, Minimize, Toxic, Sludge Bomb, Sludge Wave, Screech, Gunk Shot, Acid Armor, Belch, Memento, Bite, Harden, Poison Gas, Pound, Disable, Acid Spray, Poison Fang, Minimize, Toxic, Knock Off, Crunch, Screech, Gunk Shot, Acid Armor, Belch, Memento, Acid Spray, Curse, Haze, Mean Look, Shadow Punch, Shadow Sneak, Spit Up, Stockpile, Swallow, Take Down, Mud-Slap, Scary Face, Protect, Acid Spray, Confuse Ray, Thief, Facade, Hex, Swift, Mud Shot, Rock Tomb, Fling, Venoshock, Endure, Sunny Day, Rain Dance, Sandstorm, Dig, Brick Break, Zen Headbutt, Body Slam, Fire Punch, Thunder Punch, Ice Punch, Sleep Talk, Drain Punch, Metronome, Poison Jab, Rest, Rock Slide, Taunt, Toxic Spikes, Imprison, Dark Pulse, Gunk Shot, Substitute, Giga Drain, Shadow Ball, Flamethrower, Thunderbolt, Helping Hand, Fire Blast, Sludge Bomb, Giga Impact, Focus Blast, Hyper Beam, Thunder, Tera Blast, Take Down, Mud-Slap, Scary Face, Protect, Acid Spray, Thief, Facade, Hex, Snarl, Swift, Mud Shot, Rock Tomb, Fling, Venoshock, Endure, Sunny Day, Rain Dance, Sandstorm, Dig, Brick Break, Zen Headbutt, Body Slam, Fire Punch, Thunder Punch, Ice Punch, Sleep Talk, Drain Punch, Metronome, Poison Jab, Rest, Rock Slide, Taunt, Imprison, Dark Pulse, Gunk Shot, Substitute, Crunch, Giga Drain, Shadow Ball, Flamethrower, Thunderbolt, Helping Hand, Fire Blast, Sludge Bomb, Stone Edge, Giga Impact, Focus Blast, Hyper Beam, Thunder, Tera Blast</t>
-  </si>
-  <si>
     <t>Nidoran♂</t>
   </si>
   <si>
-    <t>Leer, Poison Sting, Peck, Focus Energy, Fury Attack, Toxic Spikes, Double Kick, Horn Attack, Helping Hand, Toxic, Flatter, Poison Jab, Earth Power, Amnesia, Beat Up, Confusion, Counter, Disable, Head Smash, Horn Drill, Poison Tail, Sucker Punch, Supersonic, Take Down, Thrash, Venom Drench, Water Pulse, Toxic, Sunny Day, Ice Beam, Blizzard, Protect, Rain Dance, Iron Tail, Thunderbolt, Thunder, Dig, Double Team, Shock Wave, Sludge Bomb, Facade, Rest, Attract, Thief, Endure, Shadow Claw, Sleep Talk, Poison Jab, Swagger, Substitute, Cut, Strength, Rock Smash</t>
-  </si>
-  <si>
     <t>Nidoran♀</t>
   </si>
   <si>
     <t>Arbok</t>
   </si>
   <si>
-    <t>Bite, Fire Fang, Ice Fang, Leer, Poison Sting, Thunder Fang, Wrap, Glare, Screech, Acid, Spit Up, Stockpile, Swallow, Acid Spray, Sludge Bomb, Gastro Acid, Belch, Haze, Coil, Gunk Shot, Crunch, Take Down, Mud-Slap, Scary Face, Protect, Fire Fang, Thunder Fang, Ice Fang, Acid Spray, Thief, Trailblaze, Facade, Poison Tail, Bulldoze, Snarl, Mud Shot, Rock Tomb, Dragon Tail, Venoshock, Endure, Sunny Day, Rain Dance, Dig, Psychic Fangs, Body Slam, Sleep Talk, Seed Bomb, Poison Jab, Stomping Tantrum, Rest, Rock Slide, Toxic Spikes, Dark Pulse, Leech Life, Gunk Shot, Substitute, Crunch, Giga Drain, Sludge Bomb, Earthquake, Giga Impact, Hyper Beam, Tera Blast, Haze, Toxic, Spite, Knock Off, Lash Out, Scale Shot</t>
-  </si>
-  <si>
-    <t>Absorb, Supersonic, Astonish, Mean Look, Poison Fang, Quick Guard, Air Cutter, Bite, Haze, Venoshock, Confuse Ray, Air Slash, Leech Life, Brave Bird, Curse, Gust, Hypnosis, Quick Attack, Venom Drench, Whirlwind, Wing Attack, Zen Headbutt, Sunny Day, Taunt, Protect, Rain Dance, Giga Drain, Shadow Ball, Double Team, Sludge Bomb, Aerial Ace, Torment, Facade, Rest, Attract, Thief, Steel Wing, Roost, Endure, Nasty Plot, Payback, Sleep Talk, Swagger, Pluck, U-turn, Substitute, Fly, Defog</t>
-  </si>
-  <si>
-    <t>Absorb, Astonish, Mean Look, Screech, Supersonic, Poison Fang, Quick Guard, Air Cutter, Bite, Haze, Venoshock, Confuse Ray, Air Slash, Leech Life, Brave Bird, Curse, Gust, Hypnosis, Quick Attack, Venom Drench, Whirlwind, Wing Attack, Zen Headbutt, Sunny Day, Taunt, Hyper Beam, Protect, Rain Dance, Giga Drain, Shadow Ball, Double Team, Sludge Bomb, Aerial Ace, Torment, Facade, Rest, Attract, Thief, Steel Wing, Roost, Endure, Nasty Plot, Payback, Giga Impact, Sleep Talk, Swagger, Pluck, U-turn, Substitute, Fly, Defog</t>
-  </si>
-  <si>
     <t>Nidoqueen</t>
   </si>
   <si>
     <t>Poison, Ground</t>
   </si>
   <si>
-    <t>Bite, Crunch, Double Kick, Earth Power, Flatter, Fury Swipes, Growl, Helping Hand, Poison Sting, Scratch, Sludge Wave, Superpower, Tail Whip, Toxic, Toxic Spikes, Superpower, Beat Up, Charm, Counter, Disable, Focus Energy, Poison Fang, Poison Tail, Skull Bash, Supersonic, Take Down, Venom Drench, Focus Punch, Water Pulse, Roar, Toxic, Sunny Day, Taunt, Ice Beam, Blizzard, Hyper Beam, Protect, Rain Dance, Iron Tail, Thunderbolt, Thunder, Earthquake, Dig, Shadow Ball, Brick Break, Double Team, Shock Wave, Flamethrower, Sludge Bomb, Sandstorm, Fire Blast, Rock Tomb, Aerial Ace, Torment, Facade, Rest, Attract, Thief, Focus Blast, Fling, Endure, Dragon Pulse, Shadow Claw, Giga Impact, Stone Edge, Avalanche, Stealth Rock, Rock Slide, Sleep Talk, Bulldoze, Poison Jab, Swagger, Substitute, Cut, Surf, Strength, Rock Smash, Rock Climb</t>
-  </si>
-  <si>
     <t>Nidoking</t>
   </si>
   <si>
-    <t>Double Kick, Earth Power, Flatter, Focus Energy, Fury Attack, Helping Hand, Horn Attack, Leer, Megahorn, Peck, Poison Jab, Poison Sting, Sludge Wave, Toxic, Toxic Spikes, Megahorn, Amnesia, Beat Up, Confusion, Counter, Disable, Head Smash, Horn Drill, Poison Tail, Sucker Punch, Supersonic, Take Down, Thrash, Venom Drench, Focus Punch, Water Pulse, Roar, Toxic, Sunny Day, Taunt, Ice Beam, Blizzard, Hyper Beam, Protect, Rain Dance, Iron Tail, Thunderbolt, Thunder, Earthquake, Dig, Shadow Ball, Brick Break, Double Team, Shock Wave, Flamethrower, Sludge Bomb, Sandstorm, Fire Blast, Rock Tomb, Torment, Facade, Rest, Attract, Thief, Focus Blast, Fling, Endure, Dragon Pulse, Shadow Claw, Giga Impact, Stone Edge, Avalanche, Stealth Rock, Rock Slide, Sleep Talk, Bulldoze, Poison Jab, Swagger, Substitute, Cut, Surf, Strength, Rock Smash, Rock Climb</t>
-  </si>
-  <si>
     <t>Mewtwo</t>
   </si>
   <si>
-    <t>Confusion, Disable, Life Dew, Swift, Ancient Power, Psycho Cut, Safeguard, Amnesia, Aura Sphere, Psychic, Guard Swap, Power Swap, Mist, Psystrike, Recover, Future Sight, Take Down, Agility, Scary Face, Protect, Low Kick, Psybeam, Confuse Ray, Trailblaze, Chilling Water, Facade, Bulldoze, Hex, Swift, Icy Wind, Rock Tomb, Low Sweep, Stored Power, Night Shade, Fling, Avalanche, Endure, Sunny Day, Rain Dance, Sandstorm, Psyshock, Brick Break, Zen Headbutt, Foul Play, Bulk Up, Body Slam, Fire Punch, Thunder Punch, Ice Punch, Sleep Talk, Electro Ball, Drain Punch, Reflect, Light Screen, Metronome, Grass Knot, Thunder Wave, Poison Jab, Stomping Tantrum, Rest, Rock Slide, Taunt, Imprison, Dark Pulse, Skill Swap, Power Gem, Substitute, Will-O-Wisp, Trick, Aura Sphere, Shadow Ball, Energy Ball, Psychic, Flamethrower, Thunderbolt, Amnesia, Calm Mind, Helping Hand, Earth Power, Reversal, Ice Beam, Psychic Terrain, Nasty Plot, Fire Blast, Blizzard, Earthquake, Stone Edge, Giga Impact, Focus Blast, Hurricane, Trick Room, Hyper Beam, Thunder, Solar Beam, Tera Blast</t>
-  </si>
-  <si>
     <t>Mew</t>
   </si>
   <si>
-    <t>Pound, Reflect Type, Amnesia, Baton Pass, Ancient Power, Life Dew, Nasty Plot, Metronome, Imprison, Transform, Aura Sphere, Psychic, Take Down, Charm, Fake Tears, Agility, Mud-Slap, Scary Face, Protect, Fire Fang, Thunder Fang, Ice Fang, Water Pulse, Low Kick, Acid Spray, Acrobatics, Struggle Bug, Psybeam, Confuse Ray, Thief, Disarming Voice, Trailblaze, Pounce, Chilling Water, Charge Beam, Fire Spin, Facade, Poison Tail, Aerial Ace, Bulldoze, Hex, Snarl, Metal Claw, Swift, Magical Leaf, Icy Wind, Mud Shot, Rock Tomb, Draining Kiss, Flame Charge, Low Sweep, Air Cutter, Stored Power, Night Shade, Fling, Dragon Tail, Venoshock, Avalanche, Endure, Volt Switch, Sunny Day, Rain Dance, Sandstorm, Snowscape, Smart Strike, Psyshock, Dig, Bullet Seed, False Swipe, Brick Break, Zen Headbutt, U-turn, Shadow Claw, Foul Play, Psychic Fangs, Bulk Up, Air Slash, Body Slam, Fire Punch, Thunder Punch, Ice Punch, Sleep Talk, Seed Bomb, Electro Ball, Drain Punch, Reflect, Light Screen, Rock Blast, Waterfall, Dragon Claw, Dazzling Gleam, Metronome, Grass Knot, Thunder Wave, Poison Jab, Stomping Tantrum, Rest, Rock Slide, Taunt, Swords Dance, Body Press, Spikes, Toxic Spikes, Imprison, Flash Cannon, Dark Pulse, Leech Life, Eerie Impulse, Fly, Skill Swap, Iron Head, Dragon Dance, Power Gem, Gunk Shot, Substitute, Iron Defense, X-Scissor, Drill Run, Will-O-Wisp, Crunch, Trick, Liquidation, Giga Drain, Aura Sphere, Tailwind, Shadow Ball, Dragon Pulse, Stealth Rock, Hyper Voice, Heat Wave, Energy Ball, Psychic, Heavy Slam, Encore, Surf, Ice Spinner, Flamethrower, Thunderbolt, Play Rough, Amnesia, Calm Mind, Helping Hand, Pollen Puff, Baton Pass, Earth Power, Reversal, Ice Beam, Electric Terrain, Grassy Terrain, Psychic Terrain, Misty Terrain, Nasty Plot, Fire Blast, Hydro Pump, Blizzard, Fire Pledge, Water Pledge, Grass Pledge, Wild Charge, Sludge Bomb, Earthquake, Stone Edge, Phantom Force, Giga Impact, Blast Burn, Hydro Cannon, Frenzy Plant, Outrage, Overheat, Focus Blast, Leaf Storm, Hurricane, Trick Room, Bug Buzz, Hyper Beam, Brave Bird, Flare Blitz, Thunder, Close Combat, Solar Beam, Draco Meteor, Steel Beam, Tera Blast</t>
-  </si>
-  <si>
-    <t>Teleport, Ally Switch, Confusion, Encore, Fire Punch, Guard Split, Guard Swap, Ice Punch, Knock Off, Magic Coat, Power Trick, Psycho Shift, Thunder Punch, Focus Punch, Calm Mind, Sunny Day, Taunt, Light Screen, Protect, Rain Dance, Safeguard, Dazzling Gleam, Iron Tail, Psychic, Shadow Ball, Double Team, Reflect, Shock Wave, Torment, Facade, Rest, Attract, Thief, Skill Swap, Energy Ball, Fling, Charge Beam, Endure, Drain Punch, Recycle, Flash, Thunder Wave, Psych Up, Sleep Talk, Dream Eater, Grass Knot, Swagger, Substitute, Trick Room</t>
-  </si>
-  <si>
-    <t>Confusion, Disable, Kinesis, Teleport, Psybeam, Reflect, Ally Switch, Psycho Cut, Recover, Psyshock, Psychic, Role Play, Future Sight, Calm Mind, Ally Switch, Confusion, Encore, Fire Punch, Guard Split, Guard Swap, Ice Punch, Knock Off, Magic Coat, Power Trick, Psycho Shift, Thunder Punch, Focus Punch, Calm Mind, Sunny Day, Taunt, Hyper Beam, Light Screen, Protect, Rain Dance, Safeguard, Dazzling Gleam, Iron Tail, Psychic, Shadow Ball, Double Team, Reflect, Shock Wave, Torment, Facade, Rest, Attract, Thief, Skill Swap, Focus Blast, Energy Ball, Fling, Charge Beam, Endure, Drain Punch, Nasty Plot, Recycle, Giga Impact, Flash, Thunder Wave, Psych Up, Sleep Talk, Dream Eater, Grass Knot, Swagger, Substitute, Trick Room</t>
-  </si>
-  <si>
     <t>Hypno</t>
   </si>
   <si>
-    <t>Confusion, Disable, Hypnosis, Pound, Switcheroo, Headbutt, Poison Gas, Psybeam, Psych Up, Zen Headbutt, Swagger, Psychic, Nasty Plot, Psyshock, Future Sight, Fire Punch, Flatter, Guard Swap, Ice Punch, Power Split, Psycho Cut, Role Play, Thunder Punch, Take Down, Scary Face, Protect, Low Kick, Psybeam, Confuse Ray, Thief, Trailblaze, Facade, Hex, Swift, Draining Kiss, Low Sweep, Stored Power, Night Shade, Fling, Endure, Sunny Day, Rain Dance, Psyshock, Brick Break, Zen Headbutt, Foul Play, Body Slam, Fire Punch, Thunder Punch, Ice Punch, Sleep Talk, Drain Punch, Reflect, Light Screen, Dazzling Gleam, Metronome, Grass Knot, Thunder Wave, Rest, Taunt, Body Press, Imprison, Skill Swap, Substitute, Trick, Shadow Ball, Psychic, Encore, Calm Mind, Helping Hand, Baton Pass, Psychic Terrain, Nasty Plot, Giga Impact, Focus Blast, Trick Room, Hyper Beam, Tera Blast</t>
-  </si>
-  <si>
     <t>Drowzee</t>
   </si>
   <si>
-    <t>Hypnosis, Pound, Disable, Confusion, Headbutt, Poison Gas, Psybeam, Psych Up, Zen Headbutt, Swagger, Psychic, Nasty Plot, Psyshock, Future Sight, Fire Punch, Flatter, Guard Swap, Ice Punch, Power Split, Psycho Cut, Role Play, Thunder Punch, Take Down, Protect, Low Kick, Psybeam, Thief, Trailblaze, Facade, Swift, Draining Kiss, Low Sweep, Stored Power, Night Shade, Fling, Endure, Sunny Day, Rain Dance, Psyshock, Brick Break, Zen Headbutt, Foul Play, Body Slam, Fire Punch, Thunder Punch, Ice Punch, Sleep Talk, Drain Punch, Reflect, Light Screen, Dazzling Gleam, Metronome, Grass Knot, Thunder Wave, Rest, Taunt, Imprison, Skill Swap, Substitute, Trick, Shadow Ball, Psychic, Encore, Calm Mind, Helping Hand, Psychic Terrain, Nasty Plot, Focus Blast, Trick Room, Tera Blast</t>
-  </si>
-  <si>
-    <t>Confusion, Disable, Kinesis, Teleport, Psybeam, Reflect, Ally Switch, Psycho Cut, Recover, Psyshock, Psychic, Role Play, Future Sight, Calm Mind, Confusion, Ally Switch, Confusion, Encore, Fire Punch, Guard Split, Guard Swap, Ice Punch, Knock Off, Magic Coat, Power Trick, Psycho Shift, Thunder Punch, Focus Punch, Calm Mind, Sunny Day, Taunt, Light Screen, Protect, Rain Dance, Safeguard, Dazzling Gleam, Iron Tail, Psychic, Shadow Ball, Double Team, Reflect, Shock Wave, Torment, Facade, Rest, Attract, Thief, Skill Swap, Energy Ball, Fling, Charge Beam, Endure, Drain Punch, Recycle, Flash, Thunder Wave, Psych Up, Sleep Talk, Dream Eater, Grass Knot, Swagger, Substitute, Trick Room</t>
-  </si>
-  <si>
     <t>Mr. Mime</t>
   </si>
   <si>
-    <t>Baton Pass, Copycat, Encore, Guard Swap, Pound, Power Swap, Quick Guard, Wide Guard, Confusion, Role Play, Protect, Recycle, Psybeam, Mimic, Light Screen, Reflect, Safeguard, Sucker Punch, Dazzling Gleam, Psychic, Teeter Dance, Confuse Ray, Fake Out, Future Sight, Hypnosis, Icy Wind, Magic Room, Mimic, Power Split, Teeter Dance, Tickle, Trick, Focus Punch, Calm Mind, Sunny Day, Taunt, Hyper Beam, Light Screen, Protect, Rain Dance, Safeguard, Dazzling Gleam, Solar Beam, Thunderbolt, Thunder, Psychic, Shadow Ball, Brick Break, Double Team, Reflect, Shock Wave, Aerial Ace, Torment, Facade, Rest, Attract, Thief, Skill Swap, Focus Blast, Energy Ball, Fling, Charge Beam, Endure, Drain Punch, Nasty Plot, Payback, Recycle, Giga Impact, Flash, Thunder Wave, Psych Up, Sleep Talk, Dream Eater, Grass Knot, Swagger, Substitute, Trick Room</t>
-  </si>
-  <si>
     <t>Aerodactyl</t>
   </si>
   <si>
     <t>Rock, Flying</t>
   </si>
   <si>
-    <t>Ancient Power, Bite, Supersonic, Wing Attack, Scary Face, Rock Slide, Roar, Crunch, Iron Head, Take Down, Stone Edge, Agility, Hyper Beam, Giga Impact, Assurance, Curse, Dragon Breath, Tailwind, Whirlwind, Wide Guard, Dragon Claw, Roar, Sunny Day, Taunt, Hyper Beam, Protect, Rain Dance, Iron Tail, Earthquake, Double Team, Flamethrower, Sandstorm, Fire Blast, Rock Tomb, Aerial Ace, Torment, Facade, Rest, Attract, Thief, Steel Wing, Roost, Endure, Dragon Pulse, Payback, Giga Impact, Rock Polish, Stone Edge, Stealth Rock, Rock Slide, Sleep Talk, Bulldoze, Swagger, Substitute, Fly, Strength, Defog, Rock Smash</t>
-  </si>
-  <si>
     <t>Onix</t>
   </si>
   <si>
-    <t>Bind, Harden, Rock Throw, Tackle, Smack Down, Rock Polish, Dragon Breath, Curse, Rock Slide, Screech, Sand Tomb, Stealth Rock, Slam, Sandstorm, Dig, Iron Tail, Stone Edge, Double-Edge, Block, Defense Curl, Dragon Tail, Flail, Head Smash, Heavy Slam, Rock Blast, Rollout, Wide Guard, Roar, Sunny Day, Taunt, Protect, Iron Tail, Earthquake, Dig, Double Team, Sandstorm, Rock Tomb, Torment, Facade, Rest, Attract, Endure, Dragon Pulse, Explosion, Payback, Rock Polish, Stone Edge, Gyro Ball, Stealth Rock, Psych Up, Rock Slide, Sleep Talk, Bulldoze, Swagger, Substitute, Flash Cannon, Strength, Rock Smash, Rock Climb</t>
-  </si>
-  <si>
-    <t>Defense Curl, Rock Polish, Tackle, Rollout, Bulldoze, Rock Throw, Smack Down, Self-Destruct, Stealth Rock, Rock Blast, Earthquake, Explosion, Double-Edge, Stone Edge, Charge, Defense Curl, Rock Polish, Tackle, Rollout, Spark, Rock Throw, Smack Down, Thunder Punch, Self-Destruct, Stealth Rock, Rock Blast, Discharge, Explosion, Double-Edge, Stone Edge, Take Down, Mud-Slap, Scary Face, Protect, Facade, Bulldoze, Mud Shot, Rock Tomb, Fling, Endure, Sunny Day, Sandstorm, Dig, Brick Break, Body Slam, Fire Punch, Thunder Punch, Sleep Talk, Rock Blast, Metronome, Stomping Tantrum, Rest, Rock Slide, Body Press, Iron Head, Substitute, Iron Defense, Stealth Rock, Heavy Slam, Flamethrower, Earth Power, Fire Blast, Earthquake, Stone Edge, Focus Blast, Tera Blast, Smack Down, High Horsepower, Focus Punch, Take Down, Mud-Slap, Scary Face, Protect, Charge Beam, Facade, Bulldoze, Mud Shot, Rock Tomb, Fling, Endure, Volt Switch, Sunny Day, Sandstorm, Dig, Brick Break, Body Slam, Fire Punch, Thunder Punch, Sleep Talk, Rock Blast, Metronome, Thunder Wave, Stomping Tantrum, Rest, Rock Slide, Substitute, Iron Defense, Stealth Rock, Flamethrower, Thunderbolt, Earth Power, Electric Terrain, Fire Blast, Wild Charge, Earthquake, Stone Edge, Focus Blast, Thunder, Tera Blast, Charge, Smack Down, Gyro Ball, High Horsepower, Focus Punch</t>
-  </si>
-  <si>
-    <t>Defense Curl, Tackle, Rock Polish, Rollout, Bulldoze, Rock Throw, Smack Down, Self-Destruct, Stealth Rock, Rock Blast, Earthquake, Explosion, Double-Edge, Stone Edge, Defense Curl, Tackle, Charge, Rock Polish, Rollout, Spark, Rock Throw, Smack Down, Thunder Punch, Self-Destruct, Stealth Rock, Rock Blast, Discharge, Explosion, Double-Edge, Stone Edge, Block, Curse, Dynamic Punch, Flail, Hammer Arm, Mega Punch, Wide Guard, Block, Counter, Curse, Endure, Flail, Screech, Wide Guard, Zap Cannon, Mega Punch, Take Down, Mud-Slap, Scary Face, Protect, Facade, Bulldoze, Mud Shot, Rock Tomb, Fling, Endure, Sunny Day, Sandstorm, Dig, Brick Break, Body Slam, Fire Punch, Thunder Punch, Sleep Talk, Rock Blast, Metronome, Stomping Tantrum, Rest, Rock Slide, Substitute, Iron Defense, Stealth Rock, Flamethrower, Earth Power, Fire Blast, Earthquake, Stone Edge, Tera Blast, Smack Down, Gyro Ball, High Horsepower, Focus Punch, Take Down, Mud-Slap, Protect, Charge Beam, Facade, Bulldoze, Mud Shot, Rock Tomb, Fling, Endure, Volt Switch, Sunny Day, Sandstorm, Dig, Brick Break, Body Slam, Fire Punch, Thunder Punch, Sleep Talk, Rock Blast, Thunder Wave, Rest, Rock Slide, Substitute, Iron Defense, Stealth Rock, Flamethrower, Thunderbolt, Earth Power, Fire Blast, Wild Charge, Earthquake, Stone Edge, Thunder, Tera Blast, Charge, Smack Down, Gyro Ball, High Horsepower, Focus Punch</t>
-  </si>
-  <si>
-    <t>Defense Curl, Heavy Slam, Rock Polish, Tackle, Rock Throw, Smack Down, Bulldoze, Self-Destruct, Stealth Rock, Rock Blast, Earthquake, Explosion, Double-Edge, Stone Edge, Charge, Defense Curl, Heavy Slam, Rock Polish, Tackle, Spark, Rock Throw, Smack Down, Thunder Punch, Self-Destruct, Stealth Rock, Rock Blast, Discharge, Explosion, Double-Edge, Stone Edge, Take Down, Mud-Slap, Scary Face, Protect, Facade, Bulldoze, Mud Shot, Rock Tomb, Fling, Endure, Sunny Day, Sandstorm, Dig, Brick Break, Body Slam, Fire Punch, Thunder Punch, Sleep Talk, Rock Blast, Metronome, Stomping Tantrum, Rest, Rock Slide, Body Press, Iron Head, Substitute, Iron Defense, Stealth Rock, Heavy Slam, Flamethrower, Earth Power, Fire Blast, Earthquake, Stone Edge, Giga Impact, Focus Blast, Hyper Beam, Tera Blast, Roar, Smack Down, Gyro Ball, High Horsepower, Focus Punch, Take Down, Mud-Slap, Scary Face, Protect, Charge Beam, Facade, Bulldoze, Mud Shot, Rock Tomb, Fling, Endure, Volt Switch, Sunny Day, Sandstorm, Dig, Brick Break, Body Slam, Fire Punch, Thunder Punch, Sleep Talk, Rock Blast, Metronome, Thunder Wave, Stomping Tantrum, Rest, Rock Slide, Body Press, Iron Head, Substitute, Iron Defense, Stealth Rock, Heavy Slam, Flamethrower, Thunderbolt, Earth Power, Electric Terrain, Fire Blast, Wild Charge, Earthquake, Stone Edge, Giga Impact, Focus Blast, Hyper Beam, Thunder, Tera Blast, Roar, Charge, Smack Down, Gyro Ball, Focus Punch</t>
-  </si>
-  <si>
     <t>Omanyte</t>
   </si>
   <si>
     <t>Rock, Water</t>
   </si>
   <si>
-    <t>Bind, Withdraw, Rollout, Sand Attack, Water Gun, Leer, Mud Shot, Ancient Power, Brine, Protect, Rock Blast, Surf, Shell Smash, Hydro Pump, Aurora Beam, Bite, Bubble Beam, Haze, Knock Off, Muddy Water, Reflect Type, Slam, Spikes, Supersonic, Tickle, Toxic Spikes, Whirlpool, Water Pulse, Hail, Ice Beam, Blizzard, Protect, Rain Dance, Double Team, Sandstorm, Rock Tomb, Facade, Rest, Attract, Thief, Scald, Brine, Endure, Rock Polish, Gyro Ball, Stealth Rock, Rock Slide, Sleep Talk, Swagger, Substitute, Surf, Rock Smash, Waterfall</t>
-  </si>
-  <si>
     <t>Omastar</t>
   </si>
   <si>
-    <t>Bind, Crunch, Rollout, Sand Attack, Withdraw, Water Gun, Leer, Mud Shot, Ancient Power, Brine, Protect, Rock Blast, Surf, Shell Smash, Hydro Pump, Crunch, Aurora Beam, Bite, Bubble Beam, Haze, Knock Off, Muddy Water, Reflect Type, Slam, Spikes, Supersonic, Tickle, Toxic Spikes, Whirlpool, Water Pulse, Hail, Ice Beam, Blizzard, Hyper Beam, Protect, Rain Dance, Double Team, Sandstorm, Rock Tomb, Facade, Rest, Attract, Thief, Scald, Brine, Endure, Giga Impact, Rock Polish, Stone Edge, Gyro Ball, Stealth Rock, Rock Slide, Sleep Talk, Swagger, Substitute, Surf, Rock Smash, Waterfall, Rock Climb</t>
-  </si>
-  <si>
     <t>Kabutops</t>
   </si>
   <si>
-    <t>Absorb, Feint, Harden, Night Slash, Sand Attack, Scratch, Slash, Aqua Jet, Leer, Mud Shot, Ancient Power, Brine, Protect, Leech Life, Liquidation, Metal Sound, Stone Edge, Slash, Aurora Beam, Bubble Beam, Confuse Ray, Flail, Icy Wind, Knock Off, Mega Drain, Mud Shot, Rapid Spin, Screech, Take Down, Water Pulse, Hail, Ice Beam, Blizzard, Hyper Beam, Protect, Rain Dance, Giga Drain, Dig, Brick Break, Double Team, Sandstorm, Rock Tomb, Aerial Ace, Facade, Rest, Attract, Thief, Scald, Brine, Endure, Giga Impact, Rock Polish, Stone Edge, Swords Dance, Stealth Rock, Rock Slide, X-Scissor, Sleep Talk, Swagger, Substitute, Cut, Surf, Rock Smash, Waterfall, Rock Climb</t>
-  </si>
-  <si>
     <t>Kabuto</t>
   </si>
   <si>
-    <t>Absorb, Harden, Scratch, Sand Attack, Aqua Jet, Leer, Mud Shot, Ancient Power, Brine, Protect, Leech Life, Liquidation, Metal Sound, Stone Edge, Aurora Beam, Bubble Beam, Confuse Ray, Flail, Icy Wind, Knock Off, Mega Drain, Mud Shot, Rapid Spin, Screech, Take Down, Water Pulse, Hail, Ice Beam, Blizzard, Protect, Rain Dance, Giga Drain, Dig, Double Team, Sandstorm, Rock Tomb, Aerial Ace, Facade, Rest, Attract, Thief, Scald, Brine, Endure, Rock Polish, Stone Edge, Stealth Rock, Rock Slide, Sleep Talk, Swagger, Substitute, Surf, Rock Smash, Waterfall</t>
-  </si>
-  <si>
     <t>Seel</t>
   </si>
   <si>
-    <t>Headbutt, Growl, Charm, Icy Wind, Encore, Ice Shard, Rest, Aqua Ring, Aurora Beam, Aqua Jet, Brine, Take Down, Dive, Aqua Tail, Ice Beam, Safeguard, Snowscape, Belch, Disable, Entrainment, Fake Out, Horn Drill, Lick, Perish Song, Spit Up, Stockpile, Swallow, Take Down, Charm, Protect, Water Pulse, Thief, Chilling Water, Facade, Icy Wind, Fling, Avalanche, Endure, Rain Dance, Snowscape, Smart Strike, Body Slam, Sleep Talk, Waterfall, Rest, Substitute, Drill Run, Encore, Surf, Ice Spinner, Helping Hand, Ice Beam, Hydro Pump, Blizzard, Tera Blast, Haze, Icicle Spear, Uproar, Weather Ball, Flip Turn, Double-Edge, Whirlpool, Muddy Water, Triple Axel, Curse</t>
-  </si>
-  <si>
     <t>Squirtle</t>
   </si>
   <si>
-    <t>Tackle, Tail Whip, Water Gun, Withdraw, Rapid Spin, Bite, Water Pulse, Protect, Rain Dance, Aqua Tail, Shell Smash, Iron Defense, Hydro Pump, Wave Crash, Aqua Jet, Aqua Ring, Fake Out, Flail, Life Dew, Mirror Coat, Mist, Water Spout, Yawn, Take Down, Protect, Water Pulse, Chilling Water, Facade, Icy Wind, Mud Shot, Fling, Endure, Rain Dance, Dig, Brick Break, Zen Headbutt, Body Slam, Ice Punch, Sleep Talk, Rest, Substitute, Iron Defense, Liquidation, Surf, Ice Spinner, Helping Hand, Ice Beam, Hydro Pump, Blizzard, Water Pledge, Tera Blast, Haze, Gyro Ball, Focus Punch, Weather Ball, Flip Turn, Double-Edge, Whirlpool, Muddy Water</t>
-  </si>
-  <si>
     <t>Poliwag</t>
   </si>
   <si>
-    <t>Hypnosis, Water Gun, Pound, Mud Shot, Bubble Beam, Rain Dance, Body Slam, Earth Power, Hydro Pump, Belly Drum, Double-Edge, Endeavor, Mist, Muddy Water, Splash, Water Pulse, Take Down, Mud-Slap, Protect, Water Pulse, Low Kick, Thief, Chilling Water, Facade, Bulldoze, Swift, Icy Wind, Mud Shot, Endure, Rain Dance, Dig, Body Slam, Sleep Talk, Waterfall, Rest, Substitute, Liquidation, Psychic, Encore, Surf, Amnesia, Helping Hand, Earth Power, Ice Beam, Hydro Pump, Blizzard, Tera Blast, Haze, Focus Punch, Weather Ball</t>
-  </si>
-  <si>
-    <t>Scratch, Tail Whip, Water Gun, Confusion, Fury Swipes, Water Pulse, Disable, Zen Headbutt, Screech, Aqua Tail, Soak, Psych Up, Amnesia, Wonder Room, Clear Smog, Confuse Ray, Cross Chop, Hypnosis, Psybeam, Simple Beam, Yawn, Take Down, Protect, Water Pulse, Low Kick, Psybeam, Confuse Ray, Thief, Trailblaze, Chilling Water, Facade, Swift, Icy Wind, Mud Shot, Low Sweep, Fling, Endure, Rain Dance, Psyshock, Dig, Brick Break, Zen Headbutt, Shadow Claw, Body Slam, Ice Punch, Sleep Talk, Light Screen, Waterfall, Metronome, Rest, Taunt, Skill Swap, Substitute, Liquidation, Psychic, Encore, Surf, Amnesia, Calm Mind, Helping Hand, Ice Beam, Nasty Plot, Hydro Pump, Blizzard, Tera Blast</t>
-  </si>
-  <si>
-    <t>Harden, Tackle, Water Gun, Confuse Ray, Rapid Spin, Minimize, Swift, Psybeam, Brine, Light Screen, Power Gem, Psychic, Surf, Recover, Cosmic Power, Hydro Pump, Water Pulse, Hail, Ice Beam, Blizzard, Light Screen, Protect, Rain Dance, Dazzling Gleam, Thunderbolt, Thunder, Psychic, Double Team, Reflect, Facade, Rest, Scald, Brine, Endure, Recycle, Flash, Thunder Wave, Gyro Ball, Psych Up, Sleep Talk, Swagger, Substitute, Flash Cannon, Surf, Waterfall</t>
-  </si>
-  <si>
     <t>Poliwhirl</t>
   </si>
   <si>
-    <t>Hypnosis, Mud Shot, Pound, Water Gun, Bubble Beam, Rain Dance, Body Slam, Earth Power, Hydro Pump, Belly Drum, Double-Edge, Take Down, Mud-Slap, Protect, Water Pulse, Low Kick, Thief, Chilling Water, Facade, Bulldoze, Swift, Icy Wind, Mud Shot, Low Sweep, Fling, Endure, Rain Dance, Dig, Brick Break, Body Slam, Ice Punch, Sleep Talk, Waterfall, Metronome, Rest, Substitute, Liquidation, Psychic, Encore, Surf, Amnesia, Helping Hand, Earth Power, Ice Beam, Hydro Pump, Blizzard, Earthquake, Tera Blast, Haze, Focus Punch, Weather Ball</t>
-  </si>
-  <si>
     <t>Blastoise</t>
   </si>
   <si>
-    <t>Tackle, Tail Whip, Water Gun, Withdraw, Rapid Spin, Bite, Water Pulse, Protect, Rain Dance, Aqua Tail, Shell Smash, Iron Defense, Hydro Pump, Wave Crash, Flash Cannon, Take Down, Scary Face, Protect, Water Pulse, Chilling Water, Facade, Icy Wind, Mud Shot, Rock Tomb, Fling, Avalanche, Endure, Rain Dance, Dig, Brick Break, Zen Headbutt, Body Slam, Ice Punch, Sleep Talk, Rest, Rock Slide, Body Press, Flash Cannon, Dark Pulse, Substitute, Iron Defense, Crunch, Liquidation, Aura Sphere, Dragon Pulse, Surf, Ice Spinner, Helping Hand, Ice Beam, Hydro Pump, Blizzard, Water Pledge, Earthquake, Giga Impact, Hydro Cannon, Focus Blast, Hyper Beam, Tera Blast, Roar, Haze, Smack Down, Gyro Ball, Focus Punch, Weather Ball, Flip Turn, Double-Edge, Whirlpool, Muddy Water</t>
-  </si>
-  <si>
-    <t>Leer, Smokescreen, Twister, Water Gun, Focus Energy, Dragon Breath, Bubble Beam, Agility, Water Pulse, Dragon Pulse, Hydro Pump, Dragon Dance, Rain Dance, Agility, Scary Face, Protect, Water Pulse, Chilling Water, Facade, Swift, Icy Wind, Endure, Rain Dance, Snowscape, Sleep Talk, Waterfall, Rest, Flash Cannon, Dragon Dance, Substitute, Liquidation, Dragon Pulse, Surf, Ice Beam, Hydro Pump, Blizzard, Giga Impact, Outrage, Hyper Beam, Tera Blast, Weather Ball, Flip Turn, Scale Shot, Whirlpool, Muddy Water</t>
-  </si>
-  <si>
     <t>Vaporeon</t>
   </si>
   <si>
-    <t>Baton Pass, Bite, Charm, Copycat, Covet, Double-Edge, Growl, Helping Hand, Swift, Tackle, Tail Whip, Take Down, Sand Attack, Quick Attack, Baby-Doll Eyes, Haze, Water Pulse, Aurora Beam, Aqua Ring, Muddy Water, Acid Armor, Hydro Pump, Last Resort, Water Gun, Curse, Detect, Double Kick, Flail, Mud-Slap, Tickle, Wish, Yawn, Take Down, Charm, Fake Tears, Mud-Slap, Protect, Water Pulse, Trailblaze, Chilling Water, Facade, Swift, Icy Wind, Stored Power, Endure, Sunny Day, Rain Dance, Dig, Body Slam, Sleep Talk, Waterfall, Rest, Substitute, Liquidation, Shadow Ball, Hyper Voice, Surf, Calm Mind, Helping Hand, Baton Pass, Ice Beam, Hydro Pump, Blizzard, Giga Impact, Hyper Beam, Tera Blast</t>
-  </si>
-  <si>
     <t>Wartortle</t>
   </si>
   <si>
-    <t>Tackle, Tail Whip, Water Gun, Withdraw, Rapid Spin, Bite, Water Pulse, Protect, Rain Dance, Aqua Tail, Shell Smash, Iron Defense, Hydro Pump, Wave Crash, Take Down, Protect, Water Pulse, Chilling Water, Facade, Icy Wind, Mud Shot, Fling, Endure, Rain Dance, Dig, Brick Break, Zen Headbutt, Body Slam, Ice Punch, Sleep Talk, Rest, Substitute, Iron Defense, Liquidation, Surf, Ice Spinner, Helping Hand, Ice Beam, Hydro Pump, Blizzard, Water Pledge, Tera Blast, Haze, Gyro Ball, Focus Punch, Weather Ball, Flip Turn, Double-Edge, Whirlpool, Muddy Water</t>
-  </si>
-  <si>
-    <t>Aqua Jet, Confusion, Scratch, Tail Whip, Water Gun, Fury Swipes, Water Pulse, Disable, Zen Headbutt, Screech, Aqua Tail, Soak, Psych Up, Amnesia, Hydro Pump, Wonder Room, Clear Smog, Confuse Ray, Cross Chop, Hypnosis, Psybeam, Simple Beam, Yawn, Take Down, Protect, Water Pulse, Low Kick, Psybeam, Confuse Ray, Thief, Trailblaze, Chilling Water, Facade, Swift, Icy Wind, Mud Shot, Low Sweep, Fling, Endure, Rain Dance, Psyshock, Dig, Brick Break, Zen Headbutt, Shadow Claw, Body Slam, Ice Punch, Sleep Talk, Light Screen, Waterfall, Metronome, Grass Knot, Rest, Taunt, Skill Swap, Power Gem, Substitute, Liquidation, Psychic, Encore, Surf, Amnesia, Calm Mind, Helping Hand, Ice Beam, Nasty Plot, Hydro Pump, Blizzard, Giga Impact, Focus Blast, Hyper Beam, Tera Blast</t>
-  </si>
-  <si>
     <t>Krabby</t>
   </si>
   <si>
-    <t>Leer, Water Gun, Harden, Metal Claw, Mud Shot, Protect, Bubble Beam, Stomp, Flail, Razor Shell, Slam, Swords Dance, Crabhammer, Guillotine, Agility, Ally Switch, Amnesia, Ancient Power, Flail, Hammer Arm, Haze, Knock Off, Night Slash, Slam, Slash, Tickle, Water Pulse, Hail, Ice Beam, Blizzard, Protect, Rain Dance, Dig, Brick Break, Double Team, Rock Tomb, Facade, Rest, Attract, Thief, Scald, False Swipe, Brine, Fling, Endure, Swords Dance, Rock Slide, X-Scissor, Sleep Talk, Swagger, Substitute, Cut, Surf, Strength, Rock Smash</t>
-  </si>
-  <si>
-    <t>Leer, Water Gun, Smokescreen, Twister, Focus Energy, Dragon Breath, Bubble Beam, Agility, Water Pulse, Dragon Pulse, Hydro Pump, Dragon Dance, Rain Dance, Aurora Beam, Clear Smog, Disable, Flail, Splash, Agility, Protect, Water Pulse, Chilling Water, Facade, Swift, Icy Wind, Endure, Rain Dance, Sleep Talk, Waterfall, Rest, Flash Cannon, Dragon Dance, Substitute, Liquidation, Dragon Pulse, Surf, Ice Beam, Hydro Pump, Blizzard, Outrage, Tera Blast, Weather Ball, Flip Turn, Scale Shot, Whirlpool, Muddy Water</t>
-  </si>
-  <si>
     <t>Shellder</t>
   </si>
   <si>
-    <t>Tackle, Water Gun, Withdraw, Ice Shard, Leer, Whirlpool, Supersonic, Aurora Beam, Protect, Razor Shell, Iron Defense, Ice Beam, Shell Smash, Hydro Pump, Aqua Ring, Bubble Beam, Life Dew, Water Pulse, Take Down, Protect, Water Pulse, Chilling Water, Facade, Swift, Icy Wind, Mud Shot, Avalanche, Endure, Rain Dance, Snowscape, Sleep Talk, Rock Blast, Waterfall, Rest, Spikes, Toxic Spikes, Substitute, Iron Defense, Liquidation, Surf, Ice Spinner, Helping Hand, Ice Beam, Hydro Pump, Blizzard, Tera Blast</t>
-  </si>
-  <si>
     <t>Kingler</t>
   </si>
   <si>
-    <t>Hammer Arm, Harden, Leer, Metal Claw, Water Gun, Wide Guard, Mud Shot, Protect, Bubble Beam, Stomp, Flail, Razor Shell, Slam, Swords Dance, Crabhammer, Guillotine, Agility, Ally Switch, Amnesia, Ancient Power, Flail, Hammer Arm, Haze, Knock Off, Night Slash, Slam, Slash, Tickle, Water Pulse, Hail, Ice Beam, Blizzard, Hyper Beam, Protect, Rain Dance, Dig, Brick Break, Double Team, Rock Tomb, Facade, Rest, Attract, Thief, Scald, False Swipe, Brine, Fling, Endure, Giga Impact, Swords Dance, Rock Slide, X-Scissor, Sleep Talk, Swagger, Substitute, Cut, Surf, Strength, Rock Smash</t>
-  </si>
-  <si>
-    <t>Peck, Tail Whip, Supersonic, Water Pulse, Horn Attack, Agility, Aqua Ring, Flail, Waterfall, Soak, Megahorn, Horn Drill, Acupressure, Aqua Tail, Body Slam, Haze, Hydro Pump, Mud Shot, Mud-Slap, Psybeam, Skull Bash, Water Pulse, Hail, Ice Beam, Blizzard, Protect, Rain Dance, Double Team, Facade, Rest, Attract, Scald, Endure, Swords Dance, Sleep Talk, Poison Jab, Swagger, Substitute, Surf, Waterfall</t>
-  </si>
-  <si>
-    <t>Peck, Supersonic, Tail Whip, Water Pulse, Horn Attack, Agility, Aqua Ring, Flail, Waterfall, Soak, Megahorn, Horn Drill, Acupressure, Aqua Tail, Body Slam, Haze, Hydro Pump, Mud Shot, Mud-Slap, Psybeam, Skull Bash, Water Pulse, Hail, Ice Beam, Blizzard, Hyper Beam, Protect, Rain Dance, Double Team, Facade, Rest, Attract, Scald, Endure, Giga Impact, Swords Dance, Sleep Talk, Poison Jab, Swagger, Substitute, Surf, Waterfall</t>
-  </si>
-  <si>
     <t>Poliwrath</t>
   </si>
   <si>
     <t>Water, Fighting</t>
   </si>
   <si>
-    <t>Body Slam, Bubble Beam, Hypnosis, Dynamic Punch, Belly Drum, Circle Throw, Double-Edge, Earth Power, Hydro Pump, Mud Shot, Pound, Rain Dance, Water Gun, Take Down, Mud-Slap, Scary Face, Protect, Water Pulse, Low Kick, Thief, Chilling Water, Facade, Bulldoze, Swift, Icy Wind, Mud Shot, Rock Tomb, Low Sweep, Fling, Endure, Rain Dance, Dig, Brick Break, Bulk Up, Body Slam, Ice Punch, Sleep Talk, Drain Punch, Waterfall, Metronome, Poison Jab, Rest, Rock Slide, Taunt, Substitute, Liquidation, Psychic, Encore, Surf, Amnesia, Helping Hand, Baton Pass, Earth Power, Reversal, Ice Beam, Hydro Pump, Blizzard, Earthquake, Giga Impact, Focus Blast, Hyper Beam, Close Combat, Tera Blast, Haze, Knock Off, Vacuum Wave, High Horsepower, Focus Punch, Weather Ball</t>
-  </si>
-  <si>
-    <t>Flail, Leer, Splash, Tackle, Twister, Whirlpool, Ice Fang, Brine, Scary Face, Waterfall, Crunch, Rain Dance, Aqua Tail, Dragon Dance, Hydro Pump, Hurricane, Thrash, Hyper Beam, Bite, Take Down, Scary Face, Protect, Ice Fang, Water Pulse, Chilling Water, Facade, Bulldoze, Icy Wind, Dragon Tail, Avalanche, Endure, Sunny Day, Rain Dance, Sandstorm, Body Slam, Sleep Talk, Waterfall, Thunder Wave, Rest, Taunt, Dark Pulse, Iron Head, Dragon Dance, Substitute, Crunch, Dragon Pulse, Surf, Flamethrower, Thunderbolt, Helping Hand, Ice Beam, Fire Blast, Hydro Pump, Blizzard, Earthquake, Stone Edge, Giga Impact, Outrage, Hurricane, Hyper Beam, Thunder, Tera Blast</t>
-  </si>
-  <si>
     <t>Lapras</t>
   </si>
   <si>
     <t>Water, Ice</t>
   </si>
   <si>
-    <t>Growl, Water Gun, Sing, Mist, Life Dew, Ice Shard, Confuse Ray, Water Pulse, Brine, Body Slam, Ice Beam, Rain Dance, Hydro Pump, Perish Song, Sheer Cold, Ancient Power, Curse, Fissure, Freeze-Dry, Horn Drill, Sparkling Aria, Tickle, Take Down, Charm, Protect, Water Pulse, Confuse Ray, Disarming Voice, Chilling Water, Facade, Bulldoze, Icy Wind, Avalanche, Endure, Rain Dance, Snowscape, Smart Strike, Zen Headbutt, Body Slam, Sleep Talk, Reflect, Waterfall, Rest, Body Press, Iron Head, Dragon Dance, Substitute, Drill Run, Liquidation, Dragon Pulse, Hyper Voice, Psychic, Surf, Thunderbolt, Helping Hand, Ice Beam, Hydro Pump, Blizzard, Earthquake, Giga Impact, Outrage, Hyper Beam, Thunder, Tera Blast, Haze, Icicle Spear, Weather Ball, Double-Edge, Whirlpool, Muddy Water, Curse, Dragon Cheer, Alluring Voice, Psychic Noise</t>
-  </si>
-  <si>
     <t>Cloyster</t>
   </si>
   <si>
-    <t>Aurora Beam, Hydro Pump, Ice Beam, Ice Shard, Icicle Crash, Iron Defense, Leer, Protect, Shell Smash, Spikes, Supersonic, Tackle, Toxic Spikes, Water Gun, Whirlpool, Withdraw, Razor Shell, Icicle Spear, Aqua Ring, Bubble Beam, Life Dew, Water Pulse, Take Down, Scary Face, Protect, Water Pulse, Chilling Water, Facade, Swift, Icy Wind, Mud Shot, Avalanche, Endure, Rain Dance, Snowscape, Smart Strike, Body Slam, Sleep Talk, Light Screen, Rock Blast, Waterfall, Poison Jab, Rest, Spikes, Toxic Spikes, Substitute, Iron Defense, Drill Run, Liquidation, Surf, Ice Spinner, Helping Hand, Ice Beam, Hydro Pump, Blizzard, Giga Impact, Hyper Beam, Tera Blast</t>
-  </si>
-  <si>
     <t>Dewgong</t>
   </si>
   <si>
-    <t>Growl, Headbutt, Icy Wind, Encore, Ice Shard, Rest, Aqua Ring, Aurora Beam, Aqua Jet, Brine, Take Down, Dive, Aqua Tail, Ice Beam, Safeguard, Snowscape, Sheer Cold, Take Down, Charm, Protect, Water Pulse, Thief, Chilling Water, Facade, Icy Wind, Fling, Avalanche, Endure, Rain Dance, Snowscape, Smart Strike, Body Slam, Sleep Talk, Waterfall, Rest, Substitute, Drill Run, Liquidation, Encore, Surf, Ice Spinner, Play Rough, Helping Hand, Ice Beam, Hydro Pump, Blizzard, Giga Impact, Hyper Beam, Tera Blast, Haze, Knock Off, Icicle Spear, Uproar, Weather Ball, Flip Turn, Double-Edge, Endeavor, Whirlpool, Muddy Water, Triple Axel, Curse, Alluring Voice</t>
-  </si>
-  <si>
-    <t>Acid, Poison Sting, Reflect Type, Water Gun, Wrap, Supersonic, Water Pulse, Screech, Bubble Beam, Hex, Acid Armor, Poison Jab, Surf, Sludge Wave, Hydro Pump, Scary Face, Protect, Water Pulse, Acid Spray, Confuse Ray, Thief, Pounce, Chilling Water, Facade, Hex, Swift, Icy Wind, Mud Shot, Venoshock, Endure, Rain Dance, Sleep Talk, Dazzling Gleam, Poison Jab, Rest, Swords Dance, Toxic Spikes, Gunk Shot, Substitute, Liquidation, Giga Drain, Surf, Ice Beam, Hydro Pump, Blizzard, Sludge Bomb, Giga Impact, Hyper Beam, Tera Blast, Haze, Toxic, Knock Off, Weather Ball, Flip Turn, Whirlpool, Muddy Water, Sludge Wave, Skitter Smack, Throat Chop</t>
-  </si>
-  <si>
-    <t>Poison Sting, Water Gun, Acid, Wrap, Supersonic, Water Pulse, Screech, Bubble Beam, Hex, Acid Armor, Poison Jab, Surf, Sludge Wave, Hydro Pump, Acupressure, Aqua Ring, Aurora Beam, Confuse Ray, Haze, Knock Off, Mirror Coat, Rapid Spin, Tickle, Protect, Water Pulse, Acid Spray, Confuse Ray, Thief, Pounce, Chilling Water, Facade, Hex, Swift, Icy Wind, Mud Shot, Venoshock, Endure, Rain Dance, Sleep Talk, Dazzling Gleam, Poison Jab, Rest, Swords Dance, Toxic Spikes, Gunk Shot, Substitute, Liquidation, Giga Drain, Surf, Ice Beam, Hydro Pump, Blizzard, Sludge Bomb, Tera Blast, Haze, Toxic, Knock Off, Flip Turn, Whirlpool, Muddy Water, Sludge Wave, Throat Chop</t>
-  </si>
-  <si>
-    <t>Brine, Confuse Ray, Cosmic Power, Harden, Hydro Pump, Light Screen, Minimize, Power Gem, Psybeam, Psychic, Rapid Spin, Recover, Surf, Swift, Tackle, Water Gun, Water Pulse, Hail, Ice Beam, Blizzard, Hyper Beam, Light Screen, Protect, Rain Dance, Dazzling Gleam, Thunderbolt, Thunder, Psychic, Double Team, Reflect, Facade, Rest, Skill Swap, Scald, Brine, Endure, Recycle, Giga Impact, Flash, Avalanche, Thunder Wave, Gyro Ball, Psych Up, Sleep Talk, Dream Eater, Grass Knot, Swagger, Substitute, Flash Cannon, Trick Room, Surf, Waterfall</t>
-  </si>
-  <si>
     <t>Slowpoke</t>
   </si>
   <si>
-    <t>Curse, Tackle, Growl, Water Gun, Yawn, Confusion, Disable, Water Pulse, Headbutt, Zen Headbutt, Amnesia, Surf, Slack Off, Psychic, Psych Up, Rain Dance, Heal Pulse, Curse, Tackle, Growl, Acid, Yawn, Confusion, Disable, Water Pulse, Headbutt, Zen Headbutt, Amnesia, Surf, Slack Off, Psychic, Psych Up, Rain Dance, Heal Pulse, Belch, Belly Drum, Block, Stomp, Take Down, Protect, Water Pulse, Psybeam, Chilling Water, Facade, Bulldoze, Swift, Icy Wind, Mud Shot, Stored Power, Avalanche, Endure, Sunny Day, Rain Dance, Snowscape, Psyshock, Dig, Zen Headbutt, Foul Play, Body Slam, Sleep Talk, Light Screen, Waterfall, Grass Knot, Thunder Wave, Rest, Imprison, Skill Swap, Substitute, Trick, Liquidation, Shadow Ball, Psychic, Surf, Flamethrower, Amnesia, Calm Mind, Helping Hand, Ice Beam, Psychic Terrain, Fire Blast, Hydro Pump, Blizzard, Earthquake, Trick Room, Tera Blast</t>
-  </si>
-  <si>
     <t>Slowbro</t>
   </si>
   <si>
-    <t>Curse, Growl, Tackle, Water Gun, Withdraw, Yawn, Confusion, Disable, Water Pulse, Headbutt, Zen Headbutt, Amnesia, Surf, Slack Off, Psychic, Psych Up, Rain Dance, Heal Pulse, Acid, Curse, Growl, Tackle, Withdraw, Yawn, Confusion, Disable, Water Pulse, Headbutt, Zen Headbutt, Amnesia, Surf, Slack Off, Psychic, Psych Up, Rain Dance, Heal Pulse, Shell Side Arm, Future Sight, Belch, Belly Drum, Block, Stomp, Belch, Belly Drum, Block, Stomp, Take Down, Protect, Water Pulse, Psybeam, Chilling Water, Facade, Bulldoze, Swift, Icy Wind, Mud Shot, Stored Power, Fling, Avalanche, Endure, Sunny Day, Rain Dance, Snowscape, Psyshock, Dig, Brick Break, Zen Headbutt, Foul Play, Body Slam, Ice Punch, Sleep Talk, Drain Punch, Light Screen, Waterfall, Metronome, Grass Knot, Thunder Wave, Rest, Body Press, Imprison, Skill Swap, Substitute, Iron Defense, Trick, Liquidation, Shadow Ball, Psychic, Surf, Flamethrower, Amnesia, Calm Mind, Helping Hand, Ice Beam, Psychic Terrain, Nasty Plot, Fire Blast, Hydro Pump, Blizzard, Earthquake, Giga Impact, Focus Blast, Trick Room, Hyper Beam, Tera Blast, Take Down, Scary Face, Protect, Ice Fang, Water Pulse, Acid Spray, Psybeam, Chilling Water, Facade, Bulldoze, Swift, Icy Wind, Mud Shot, Stored Power, Fling, Venoshock, Avalanche, Endure, Sunny Day, Rain Dance, Sandstorm, Snowscape, Psyshock, Dig, Brick Break, Zen Headbutt, Foul Play, Body Slam, Ice Punch, Sleep Talk, Drain Punch, Light Screen, Rock Blast, Waterfall, Metronome, Grass Knot, Thunder Wave, Poison Jab, Rest, Body Press, Imprison, Skill Swap, Power Gem, Gunk Shot, Substitute, Iron Defense, Trick, Liquidation, Shadow Ball, Psychic, Surf, Flamethrower, Amnesia, Calm Mind, Helping Hand, Ice Beam, Psychic Terrain, Nasty Plot, Fire Blast, Hydro Pump, Blizzard, Sludge Bomb, Earthquake, Giga Impact, Focus Blast, Trick Room, Hyper Beam, Tera Blast</t>
-  </si>
-  <si>
     <t>[{"effect": "damage"}, {"effect": "absorb", "percentage": 0.5}]</t>
   </si>
   <si>
@@ -1600,9 +1156,6 @@
     <t>[{"effect": "damage"}, {"effect": "recharge"}]</t>
   </si>
   <si>
-    <t>[{"effect": "sleep"}]</t>
-  </si>
-  <si>
     <t>[{"effect": "seed"}]</t>
   </si>
   <si>
@@ -1670,6 +1223,426 @@
   </si>
   <si>
     <t>[{"effect": "random_level_damage", "min": 0.5, "max": 1.5}]</t>
+  </si>
+  <si>
+    <t>[{"effect": "sleep", "probability": 1.0}]</t>
+  </si>
+  <si>
+    <t>String Shot, Tackle</t>
+  </si>
+  <si>
+    <t>Cut, Fury Attack, Harden, Seismic Toss, Submission, Quick Attack, Hyper Beam, Earthquake, Bind, Double Team, Rock Slide, Strength, Guillotine, Swords Dance, Vise Grip</t>
+  </si>
+  <si>
+    <t>Agility, Counter, Quick Attack, Hyper Beam, Slash, Double Team, Leer, Take Down, Wing Attack, Swords Dance</t>
+  </si>
+  <si>
+    <t>Gust, Harden, Poison Powder, Hyper Beam, Tackle, Stun Spore, Double Team, Supersonic, Sleep Powder, String Shot, Confusion, Flash, Psybeam, Psychic</t>
+  </si>
+  <si>
+    <t>Cut, Agility, Poison Powder, Flash, Counter, Spore, Leech Seed, Screech, Absorb, Hyper Beam, Slash, Stun Spore, Growth, Double Team, Scratch, Swords Dance, Psybeam</t>
+  </si>
+  <si>
+    <t>Cut, Agility, Poison Powder, Flash, Counter, Spore, Leech Seed, Screech, Absorb, Slash, Stun Spore, Growth, Double Team, Scratch, Swords Dance, Psybeam</t>
+  </si>
+  <si>
+    <t>Confuse Ray, Agility, Poison Powder, Psychic, Screech, Tackle, Stun Spore, Take Down, Supersonic, Sleep Powder, Confusion, Psybeam, Leech Life</t>
+  </si>
+  <si>
+    <t>String Shot, Poison Sting</t>
+  </si>
+  <si>
+    <t>Cut, Fury Attack, Harden, Agility, Poison Sting, Hyper Beam, Double Team, String Shot, Pin Missile, Flash, Swords Dance</t>
+  </si>
+  <si>
+    <t>Confuse Ray, Agility, Poison Powder, Psychic, Screech, Hyper Beam, Tackle, Stun Spore, Take Down, Supersonic, Sleep Powder, Confusion, Psybeam, Leech Life</t>
+  </si>
+  <si>
+    <t>Hyper Beam, Body Slam, Waterfall, Leer, Take Down, Blizzard, Agility, Flamethrower, Slam, Ice Beam, Thunder, Fire Spin, Wrap, Fire Blast, Thunder Wave, Thunderbolt, Supersonic, Surf, Hydro Pump</t>
+  </si>
+  <si>
+    <t>Hyper Beam, Body Slam, Rock Slide, Waterfall, Leer, Take Down, Wing Attack, Blizzard, Agility, Flamethrower, Slam, Ice Beam, Thunder, Ice Punch, Thunder Punch, Fire Spin, Wrap, Fire Punch, Fire Blast, Thunder Wave, Thunderbolt, Supersonic, Surf, Earthquake, Hydro Pump</t>
+  </si>
+  <si>
+    <t>Agility, Thunder, Surf, Thunder Wave, Quick Attack, Thunderbolt, Growl, Double Team, Body Slam, Take Down, Thunder Punch, Tail Whip, Thunder Shock</t>
+  </si>
+  <si>
+    <t>Agility, Sand Attack, Thunder, Double Kick, Quick Attack, Thunder Wave, Hyper Beam, Tackle, Growl, Body Slam, Thunderbolt, Bite, Take Down, Double-Edge, Pin Missile, Tail Whip, Thunder Shock</t>
+  </si>
+  <si>
+    <t>Agility, Psychic, Thunder, Surf, Quick Attack, Thunder Wave, Hyper Beam, Thunderbolt, Double Team, Growl, Body Slam, Take Down, Thunder Punch, Tail Whip, Thunder Shock</t>
+  </si>
+  <si>
+    <t>Self-Destruct, Agility, Explosion, Leech Seed, Screech, Thunder, Thunder Wave, Tackle, Stun Spore, Thunderbolt, Take Down, Thunder Shock</t>
+  </si>
+  <si>
+    <t>Fire Punch, Screech, Thunder, Thunder Wave, Quick Attack, Ice Punch, Thunderbolt, Body Slam, Hyper Beam, Leer, Thunder Punch, Take Down, Double-Edge, Psychic, Thunder Shock</t>
+  </si>
+  <si>
+    <t>Self-Destruct, Agility, Explosion, Leech Seed, Screech, Thunder, Thunder Wave, Hyper Beam, Tackle, Stun Spore, Thunderbolt, Take Down, Thunder Shock</t>
+  </si>
+  <si>
+    <t>Agility, Counter, Peck, Thunder, Thunder Wave, Drill Peck, Hyper Beam, Thunderbolt, Take Down, Thunder Shock</t>
+  </si>
+  <si>
+    <t>Confuse Ray, Explosion, Screech, Thunder, Tri Attack, Thunder Wave, Hyper Beam, Tackle, Thunderbolt, Take Down, Supersonic, Thunder Shock</t>
+  </si>
+  <si>
+    <t>Confuse Ray, Explosion, Screech, Thunder, Thunder Wave, Tackle, Thunderbolt, Take Down, Supersonic, Thunder Shock</t>
+  </si>
+  <si>
+    <t>Sing, Hyper Beam, Body Slam, Take Down, Blizzard, Flamethrower, Ice Beam, Thunder, Pound, Ice Punch, Thunder Punch, Psybeam, Defense Curl, Fire Punch, Fire Blast, Thunder Wave, Thunderbolt, Amnesia, Psychic, Growl</t>
+  </si>
+  <si>
+    <t>Sing, Body Slam, Take Down, Blizzard, Flamethrower, Ice Beam, Thunder, Pound, Ice Punch, Thunder Punch, Psybeam, Defense Curl, Fire Punch, Fire Blast, Thunder Wave, Thunderbolt, Amnesia, Psychic, Growl</t>
+  </si>
+  <si>
+    <t>Fire Punch, Agility, Counter, Mega Punch, Earthquake, Ice Punch, Tackle, Body Slam, Rock Slide, Take Down, Thunder Punch, Double-Edge, Swords Dance</t>
+  </si>
+  <si>
+    <t>Fire Punch, Seismic Toss, Flamethrower, Counter, Submission, Fire Blast, Earthquake, Ice Punch, Double Team, Rock Slide, Leer, Thunder Punch, Strength, Double-Edge</t>
+  </si>
+  <si>
+    <t>Fire Punch, Seismic Toss, Counter, Screech, Earthquake, Ice Punch, Body Slam, Rock Slide, Thunderbolt, Leer, Take Down, Thunder Punch, Fury Swipes, Scratch</t>
+  </si>
+  <si>
+    <t>Fire Punch, Seismic Toss, Counter, Screech, Thunder, Earthquake, Ice Punch, Hyper Beam, Body Slam, Rock Slide, Thunderbolt, Leer, Take Down, Thunder Punch, Fury Swipes, Scratch</t>
+  </si>
+  <si>
+    <t>Fire Punch, Seismic Toss, Flamethrower, Counter, Submission, Fire Blast, Hyper Beam, Ice Punch, Earthquake, Double Team, Rock Slide, Leer, Thunder Punch, Strength, Double-Edge</t>
+  </si>
+  <si>
+    <t>Double-Edge, Double Kick, Mega Kick, Earthquake, Tackle, Body Slam, Rock Slide, Take Down, High Jump Kick, Swords Dance</t>
+  </si>
+  <si>
+    <t>Strength, Agility, Flamethrower, Fire Blast, Horn Drill, Double Kick, Tackle, Growl, Stomp, Double Team, Take Down, Hypnosis, Fire Spin, Ember, Double-Edge, Tail Whip</t>
+  </si>
+  <si>
+    <t>Fire Punch, Flamethrower, Counter, Fire Blast, Ember, Smokescreen, Slash, Growl, Body Slam, Rock Slide, Bite, Take Down, Thunder Punch, Scratch, Swords Dance, Fire Spin</t>
+  </si>
+  <si>
+    <t>Confuse Ray, Agility, Flamethrower, Ice Beam, Fire Blast, Quick Attack, Hyper Beam, Body Slam, Take Down, Fire Spin, Blizzard, Ember, Aurora Beam, Tail Whip</t>
+  </si>
+  <si>
+    <t>Agility, Flamethrower, Fire Blast, Double Kick, Hyper Beam, Body Slam, Rock Slide, Take Down, Bite, Leer, Double-Edge, Rock Throw, Ember, Fire Spin</t>
+  </si>
+  <si>
+    <t>Fire Punch, Flamethrower, Counter, Fire Blast, Smokescreen, Slash, Growl, Scratch, Body Slam, Bite, Take Down, Thunder Punch, Rock Slide, Ember, Swords Dance, Fire Spin</t>
+  </si>
+  <si>
+    <t>Agility, Flamethrower, Fire Blast, Double Kick, Body Slam, Rock Slide, Take Down, Leer, Bite, Double-Edge, Ember, Fire Spin</t>
+  </si>
+  <si>
+    <t>Fire Punch, Confuse Ray, Flamethrower, Fire Blast, Hyper Beam, Smog, Smokescreen, Body Slam, Leer, Take Down, Thunder Punch, Double-Edge, Ember, Fire Spin, Psychic</t>
+  </si>
+  <si>
+    <t>Flamethrower, Fire Spin, Sand Attack, Fire Blast, Double Kick, Quick Attack, Smog, Hyper Beam, Tackle, Growl, Body Slam, Take Down, Bite, Double-Edge, Ember, Tail Whip</t>
+  </si>
+  <si>
+    <t>Hyper Beam, Stomp, Double Team, Take Down, Strength, Hypnosis, Double-Edge, Tail Whip, Agility, Flamethrower, Double Kick, Fire Spin, Fire Blast, Ember, Horn Drill, Quick Attack, Tackle, Growl, Swords Dance</t>
+  </si>
+  <si>
+    <t>Confuse Ray, Agility, Flamethrower, Ice Beam, Fire Blast, Quick Attack, Body Slam, Take Down, Hypnosis, Fire Spin, Blizzard, Ember, Aurora Beam, Tail Whip</t>
+  </si>
+  <si>
+    <t>Fire Punch, Flamethrower, Counter, Fire Blast, Earthquake, Hyper Beam, Smokescreen, Slash, Growl, Scratch, Body Slam, Bite, Take Down, Thunder Punch, Rock Slide, Ember, Swords Dance, Fire Spin</t>
+  </si>
+  <si>
+    <t>Gust, Agility, Flamethrower, Fire Blast, Hyper Beam, Leer, Take Down, Wing Attack, Ember, Fire Spin</t>
+  </si>
+  <si>
+    <t>Fire Punch, Confuse Ray, Toxic, Lick, Thunder, Smog, Ice Punch, Thunderbolt, Thunder Punch, Hypnosis, Haze, Psychic</t>
+  </si>
+  <si>
+    <t>Fire Punch, Confuse Ray, Toxic, Lick, Thunder, Thunder Wave, Smog, Ice Punch, Body Slam, Thunderbolt, Hyper Beam, Thunder Punch, Hypnosis, Haze, Psychic</t>
+  </si>
+  <si>
+    <t>Cut, Poison Powder, Slam, Leech Seed, Absorb, Hyper Beam, Stun Spore, Bind, Growth, Vine Whip, Mega Drain, Sleep Powder, Double Team, Confusion, Amnesia, Swords Dance, Flash</t>
+  </si>
+  <si>
+    <t>Toxic, Poison Powder, Leech Seed, Earthquake, Hyper Beam, Tackle, Growl, Growth, Body Slam, Vine Whip, Take Down, Sleep Powder, Double-Edge, Razor Leaf, Amnesia, Swords Dance</t>
+  </si>
+  <si>
+    <t>Wrap, Toxic, Poison Powder, Slam, Acid, Body Slam, Stun Spore, Growth, Vine Whip, Sleep Powder, Razor Leaf, Swords Dance, Leech Life</t>
+  </si>
+  <si>
+    <t>Swords Dance, Toxic, Poison Powder, Absorb, Stun Spore, Growth, Mega Drain, Acid, Sleep Powder</t>
+  </si>
+  <si>
+    <t>Toxic, Poison Powder, Leech Seed, Tackle, Growl, Growth, Body Slam, Vine Whip, Take Down, Sleep Powder, Double-Edge, Razor Leaf, Swords Dance</t>
+  </si>
+  <si>
+    <t>Swords Dance, Toxic, Poison Powder, Absorb, Hyper Beam, Body Slam, Stun Spore, Growth, Mega Drain, Acid, Sleep Powder</t>
+  </si>
+  <si>
+    <t>Wrap, Toxic, Poison Powder, Slam, Acid, Stun Spore, Growth, Vine Whip, Sleep Powder, Razor Leaf, Swords Dance, Leech Life</t>
+  </si>
+  <si>
+    <t>Toxic, Hyper Beam, Body Slam, Vine Whip, Sleep Powder, Razor Leaf, Swords Dance, Leech Life</t>
+  </si>
+  <si>
+    <t>Swords Dance, Poison Powder, Leech Seed, Tackle, Growl, Growth, Body Slam, Vine Whip, Take Down, Sleep Powder, Double-Edge, Razor Leaf, Toxic</t>
+  </si>
+  <si>
+    <t>Swords Dance, Toxic, Poison Powder, Leech Seed, Absorb, Stun Spore, Growth, Mega Drain, Acid, Razor Leaf, Sleep Powder</t>
+  </si>
+  <si>
+    <t>Swords Dance, Poison Powder, Leech Seed, Absorb, Stun Spore, Mega Drain, Hypnosis, Confusion, Sleep Powder, Psybeam, Psychic</t>
+  </si>
+  <si>
+    <t>Flamethrower, Leech Seed, Absorb, Earthquake, Hyper Beam, Stomp, Body Slam, Growth, Take Down, Mega Drain, Hypnosis, Double-Edge, Confusion, Swords Dance, Psybeam, Psychic</t>
+  </si>
+  <si>
+    <t>Agility, Sand Attack, Tri Attack, Earthquake, Hyper Beam, Slash, Growl, Body Slam, Rock Slide, Fissure, Take Down, Headbutt, Scratch, Swords Dance</t>
+  </si>
+  <si>
+    <t>Flamethrower, Ice Beam, Screech, Fire Blast, Double Kick, Earthquake, Growl, Double Team, Rock Slide, Leer, Bonemerang, Strength, Double-Edge, Blizzard, Headbutt, Swords Dance, Tail Whip</t>
+  </si>
+  <si>
+    <t>Agility, Sand Attack, Earthquake, Slash, Growl, Body Slam, Rock Slide, Fissure, Take Down, Headbutt, Scratch, Swords Dance</t>
+  </si>
+  <si>
+    <t>Counter, Body Slam, Rock Slide, Take Down, Blizzard, Agility, Ice Beam, Poison Sting, Ice Punch, Slash, Scratch, Super Fang, Defense Curl, Sand Attack, Fury Swipes, Amnesia, Leech Life, Earthquake, Swords Dance</t>
+  </si>
+  <si>
+    <t>Hyper Beam, Body Slam, Rock Slide, Take Down, Blizzard, Agility, Ice Beam, Poison Sting, Ice Punch, Slash, Scratch, Super Fang, Defense Curl, Sand Attack, Fury Swipes, Amnesia, Leech Life, Earthquake, Swords Dance</t>
+  </si>
+  <si>
+    <t>Flamethrower, Ice Beam, Screech, Fire Blast, Double Kick, Hyper Beam, Earthquake, Growl, Double Team, Rock Slide, Leer, Bonemerang, Strength, Double-Edge, Blizzard, Headbutt, Swords Dance, Tail Whip</t>
+  </si>
+  <si>
+    <t>Hyper Beam, Stomp, Body Slam, Rock Slide, Take Down, Double-Edge, Blizzard, Tail Whip, Flamethrower, Ice Beam, Thunder, Ice Punch, Thunder Punch, Fire Punch, Fire Blast, Thunderbolt, Surf, Horn Attack, Horn Drill, Earthquake, Tackle, Hydro Pump, Swords Dance</t>
+  </si>
+  <si>
+    <t>Horn Attack, Flamethrower, Ice Beam, Counter, Horn Drill, Fire Blast, Thunder, Earthquake, Tackle, Stomp, Body Slam, Rock Slide, Take Down, Thunderbolt, Double-Edge, Blizzard, Swords Dance, Tail Whip</t>
+  </si>
+  <si>
+    <t>Gust, Agility, Ice Beam, Recover, Hyper Beam, Double Team, Take Down, Hypnosis, Confusion, Blizzard, Haze, Psybeam, Psychic</t>
+  </si>
+  <si>
+    <t>Lovely Kiss, Ice Beam, Lick, Sing, Hyper Beam, Ice Punch, Pound, Double Team, Confusion, Blizzard, Flash, Psychic</t>
+  </si>
+  <si>
+    <t>Lick, Hyper Beam, Stomp, Body Slam, Double Team, Rock Slide, Strength, Blizzard, Flamethrower, Slam, Ice Beam, Thunder, Defense Curl, Wrap, Fire Blast, Thunderbolt, Supersonic, Amnesia, Surf, Cut, Screech, Earthquake, Swords Dance</t>
+  </si>
+  <si>
+    <t>Sing, Hyper Beam, Body Slam, Rock Slide, Take Down, Double-Edge, Blizzard, Tail Whip, Flamethrower, Ice Beam, Thunder, Pound, Ice Punch, Thunder Punch, Defense Curl, Fire Punch, Fire Blast, Thunder Wave, Thunderbolt, Psychic, Seismic Toss, Soft-Boiled, Earthquake</t>
+  </si>
+  <si>
+    <t>Agility, Recover, Psychic, Ice Beam, Thunder, Tri Attack, Thunder Wave, Hyper Beam, Tackle, Thunderbolt, Take Down, Double-Edge, Blizzard, Psybeam, Thunder Shock</t>
+  </si>
+  <si>
+    <t>Sand Attack, Double Kick, Quick Attack, Tackle, Growl, Body Slam, Bite, Take Down, Double-Edge, Tail Whip</t>
+  </si>
+  <si>
+    <t>Lick, Hyper Beam, Body Slam, Rock Slide, Take Down, Blizzard, Flamethrower, Ice Beam, Thunder, Ice Punch, Bite, Thunder Punch, Defense Curl, Fire Punch, Fire Blast, Thunderbolt, Amnesia, Surf, Screech, Earthquake, Tackle</t>
+  </si>
+  <si>
+    <t>Counter, Hyper Beam, Double Team, Take Down, Strength, Double-Edge, Blizzard, Tail Whip, Ice Beam, Thunder, Bite, Super Fang, Thunder Wave, Thunderbolt, Fury Swipes, Cut, Screech, Quick Attack, Tackle, Swords Dance</t>
+  </si>
+  <si>
+    <t>Horn Attack, Flamethrower, Ice Beam, Fire Blast, Thunder, Earthquake, Hyper Beam, Tackle, Body Slam, Rock Slide, Thunderbolt, Take Down, Double-Edge, Blizzard, Tail Whip, Surf</t>
+  </si>
+  <si>
+    <t>Confuse Ray, Agility, Pay Day, Screech, Thunder, Thunder Wave, Hyper Beam, Slash, Growl, Body Slam, Thunderbolt, Bite, Take Down, Hypnosis, Fury Swipes, Amnesia, Scratch, Tail Whip</t>
+  </si>
+  <si>
+    <t>Counter, Hyper Beam, Stomp, Double Team, Rock Slide, Strength, Double-Edge, Blizzard, Tail Whip, Flamethrower, Ice Beam, Thunder, Pound, Bite, Fire Blast, Thunderbolt, Headbutt, Surf, Cut, Earthquake, Growl</t>
+  </si>
+  <si>
+    <t>Body Slam, Take Down, Hypnosis, Double-Edge, Tail Whip, Confuse Ray, Agility, Thunder, Slash, Bite, Scratch, Thunder Wave, Thunderbolt, Fury Swipes, Amnesia, Pay Day, Screech, Growl, Swords Dance</t>
+  </si>
+  <si>
+    <t>Cut, Super Fang, Ice Beam, Counter, Screech, Thunder, Quick Attack, Blizzard, Thunder Wave, Tackle, Thunderbolt, Double Team, Take Down, Bite, Double-Edge, Fury Swipes, Tail Whip</t>
+  </si>
+  <si>
+    <t>Sing, Hyper Beam, Body Slam, Take Down, Double-Edge, Blizzard, Flamethrower, Ice Beam, Thunder, Pound, Ice Punch, Thunder Punch, Defense Curl, Fire Punch, Fire Blast, Thunder Wave, Thunderbolt, Amnesia, Psychic</t>
+  </si>
+  <si>
+    <t>Fire Punch, Flamethrower, Ice Beam, Fire Blast, Thunder, Sing, Thunder Wave, Pound, Ice Punch, Body Slam, Thunderbolt, Take Down, Thunder Punch, Double-Edge, Blizzard, Amnesia, Psychic, Defense Curl</t>
+  </si>
+  <si>
+    <t>Gust, Agility, Sand Attack, Quick Attack, Tackle, Double Team, Wing Attack</t>
+  </si>
+  <si>
+    <t>Gust, Agility, Sand Attack, Quick Attack, Hyper Beam, Tackle, Double Team, Wing Attack</t>
+  </si>
+  <si>
+    <t>Fury Attack, Agility, Peck, Tri Attack, Quick Attack, Drill Peck, Hyper Beam, Growl, Double Team, Leer, Take Down, Wing Attack</t>
+  </si>
+  <si>
+    <t>Fury Attack, Agility, Peck, Tri Attack, Quick Attack, Drill Peck, Growl, Double Team, Leer, Take Down, Wing Attack</t>
+  </si>
+  <si>
+    <t>Fury Attack, Agility, Peck, Tri Attack, Quick Attack, Drill Peck, Hyper Beam, Body Slam, Growl, Take Down, Double-Edge, Swords Dance</t>
+  </si>
+  <si>
+    <t>Cut, Gust, Agility, Peck, Sand Attack, Quick Attack, Slash, Double Team, Leer, Swords Dance</t>
+  </si>
+  <si>
+    <t>Fury Attack, Agility, Peck, Quick Attack, Drill Peck, Body Slam, Growl, Take Down, Double-Edge, Swords Dance</t>
+  </si>
+  <si>
+    <t>Self-Destruct, Toxic, Flamethrower, Sludge, Explosion, Fire Blast, Thunder, Smog, Smokescreen, Tackle, Body Slam, Thunderbolt, Take Down, Poison Gas, Haze, Psybeam</t>
+  </si>
+  <si>
+    <t>Hyper Beam, Body Slam, Rock Slide, Take Down, Poison Gas, Confuse Ray, Flamethrower, Thunder, Pound, Ice Punch, Bite, Thunder Punch, Haze, Acid Armor, Fire Punch, Harden, Sludge, Fire Blast, Thunderbolt, Toxic, Screech, Minimize</t>
+  </si>
+  <si>
+    <t>Counter, Double Team, Leer, Take Down, Strength, Confusion, Blizzard, Ice Beam, Poison Sting, Thunder, Double Kick, Fury Attack, Peck, Thunderbolt, Supersonic, Amnesia, Toxic, Cut, Horn Attack, Horn Drill</t>
+  </si>
+  <si>
+    <t>Wrap, Glare, Toxic, Poison Sting, Screech, Earthquake, Rock Slide, Leer, Bite, Acid, Take Down, Haze, Leech Life</t>
+  </si>
+  <si>
+    <t>Cut, Strength, Ice Beam, Counter, Poison Sting, Thunder, Double Kick, Blizzard, Thunderbolt, Growl, Double Team, Bite, Supersonic, Take Down, Fury Swipes, Scratch, Toxic, Tail Whip</t>
+  </si>
+  <si>
+    <t>Self-Destruct, Toxic, Flamethrower, Sludge, Explosion, Fire Blast, Thunder, Hyper Beam, Smog, Smokescreen, Tackle, Body Slam, Thunderbolt, Take Down, Poison Gas, Haze, Psybeam</t>
+  </si>
+  <si>
+    <t>Wrap, Glare, Toxic, Poison Sting, Screech, Earthquake, Hyper Beam, Body Slam, Rock Slide, Bite, Leer, Acid, Take Down, Haze, Leech Life</t>
+  </si>
+  <si>
+    <t>Confuse Ray, Gust, Absorb, Quick Attack, Double Team, Bite, Supersonic, Hypnosis, Wing Attack, Haze, Leech Life</t>
+  </si>
+  <si>
+    <t>Confuse Ray, Gust, Screech, Absorb, Quick Attack, Hyper Beam, Double Team, Bite, Supersonic, Hypnosis, Wing Attack, Haze, Leech Life</t>
+  </si>
+  <si>
+    <t>Counter, Hyper Beam, Double Team, Rock Slide, Take Down, Strength, Blizzard, Tail Whip, Flamethrower, Ice Beam, Poison Sting, Thunder, Double Kick, Bite, Scratch, Fire Blast, Thunderbolt, Supersonic, Fury Swipes, Toxic, Surf, Cut, Earthquake, Growl</t>
+  </si>
+  <si>
+    <t>Counter, Hyper Beam, Double Team, Rock Slide, Leer, Take Down, Strength, Confusion, Blizzard, Flamethrower, Ice Beam, Poison Sting, Thunder, Double Kick, Fury Attack, Peck, Fire Blast, Thunderbolt, Supersonic, Amnesia, Toxic, Surf, Cut, Horn Attack, Horn Drill, Earthquake</t>
+  </si>
+  <si>
+    <t>Recover, Hyper Beam, Body Slam, Rock Slide, Take Down, Confusion, Blizzard, Confuse Ray, Agility, Flamethrower, Ice Beam, Thunder, Ice Punch, Thunder Punch, Psybeam, Fire Punch, Fire Blast, Thunder Wave, Thunderbolt, Amnesia, Psychic, Earthquake</t>
+  </si>
+  <si>
+    <t>Hyper Beam, Body Slam, Rock Slide, Waterfall, Take Down, Blizzard, Confuse Ray, Agility, Flamethrower, Ice Beam, Thunder, Pound, Ice Punch, Thunder Punch, Fire Spin, Psybeam, Fire Punch, Fire Blast, Thunder Wave, Thunderbolt, Amnesia, Surf, Leech Life, Psychic, Earthquake, Hydro Pump, Swords Dance</t>
+  </si>
+  <si>
+    <t>Fire Punch, Thunder Wave, Ice Punch, Double Team, Thunder Punch, Confusion, Flash, Psychic</t>
+  </si>
+  <si>
+    <t>Fire Punch, Recover, Kinesis, Hyper Beam, Ice Punch, Thunder Wave, Double Team, Thunder Punch, Confusion, Flash, Psybeam, Psychic</t>
+  </si>
+  <si>
+    <t>Fire Punch, Confuse Ray, Hypnosis, Thunder Wave, Pound, Ice Punch, Body Slam, Hyper Beam, Take Down, Thunder Punch, Poison Gas, Confusion, Headbutt, Psybeam, Psychic</t>
+  </si>
+  <si>
+    <t>Fire Punch, Hypnosis, Thunder Wave, Pound, Ice Punch, Body Slam, Take Down, Thunder Punch, Poison Gas, Confusion, Headbutt, Psybeam, Psychic</t>
+  </si>
+  <si>
+    <t>Fire Punch, Recover, Kinesis, Thunder Wave, Ice Punch, Double Team, Thunder Punch, Confusion, Flash, Psybeam, Psychic</t>
+  </si>
+  <si>
+    <t>Confuse Ray, Thunder, Hyper Beam, Pound, Thunder Wave, Thunderbolt, Double Team, Hypnosis, Confusion, Flash, Psybeam, Psychic</t>
+  </si>
+  <si>
+    <t>Strength, Agility, Flamethrower, Fire Blast, Hyper Beam, Earthquake, Rock Slide, Double Team, Take Down, Bite, Supersonic, Wing Attack</t>
+  </si>
+  <si>
+    <t>Harden, Slam, Explosion, Screech, Earthquake, Tackle, Bind, Rock Slide, Double Team, Strength, Double-Edge, Rock Throw, Defense Curl</t>
+  </si>
+  <si>
+    <t>Self-Destruct, Fire Punch, Flamethrower, Explosion, Fire Blast, Thunder, Earthquake, Thunder Wave, Tackle, Body Slam, Rock Slide, Thunderbolt, Take Down, Thunder Punch, Double-Edge, Rock Throw, Defense Curl</t>
+  </si>
+  <si>
+    <t>Explosion, Counter, Body Slam, Rock Slide, Take Down, Double-Edge, Rock Throw, Flamethrower, Thunder, Thunder Punch, Defense Curl, Fire Punch, Fire Blast, Mega Punch, Thunder Wave, Thunderbolt, Self-Destruct, Screech, Earthquake, Tackle</t>
+  </si>
+  <si>
+    <t>Self-Destruct, Fire Punch, Flamethrower, Explosion, Fire Blast, Thunder, Earthquake, Hyper Beam, Thunder Wave, Tackle, Body Slam, Rock Slide, Thunderbolt, Take Down, Thunder Punch, Double-Edge, Rock Throw, Defense Curl</t>
+  </si>
+  <si>
+    <t>Bubble Beam, Slam, Ice Beam, Water Gun, Sand Attack, Haze, Blizzard, Bind, Double Team, Rock Slide, Leer, Hydro Pump, Bite, Supersonic, Waterfall, Withdraw, Aurora Beam, Surf</t>
+  </si>
+  <si>
+    <t>Water Gun, Hyper Beam, Double Team, Rock Slide, Waterfall, Leer, Blizzard, Aurora Beam, Slam, Ice Beam, Bind, Bite, Bubble Beam, Withdraw, Haze, Sand Attack, Supersonic, Surf, Hydro Pump</t>
+  </si>
+  <si>
+    <t>Hyper Beam, Double Team, Rock Slide, Waterfall, Leer, Take Down, Blizzard, Aurora Beam, Confuse Ray, Ice Beam, Absorb, Slash, Mega Drain, Bubble Beam, Scratch, Harden, Sand Attack, Leech Life, Cut, Surf, Screech, Swords Dance</t>
+  </si>
+  <si>
+    <t>Confuse Ray, Harden, Ice Beam, Sand Attack, Screech, Surf, Absorb, Double Team, Rock Slide, Waterfall, Leer, Mega Drain, Bubble Beam, Take Down, Blizzard, Scratch, Aurora Beam, Leech Life</t>
+  </si>
+  <si>
+    <t>Ice Beam, Haze, Lick, Horn Drill, Body Slam, Growl, Waterfall, Take Down, Hydro Pump, Double-Edge, Blizzard, Headbutt, Aurora Beam, Surf</t>
+  </si>
+  <si>
+    <t>Ice Beam, Water Gun, Ice Punch, Blizzard, Tackle, Body Slam, Bite, Hydro Pump, Take Down, Double-Edge, Withdraw, Haze, Tail Whip, Surf</t>
+  </si>
+  <si>
+    <t>Ice Beam, Water Gun, Surf, Hypnosis, Pound, Body Slam, Waterfall, Take Down, Hydro Pump, Bubble Beam, Double-Edge, Blizzard, Amnesia, Haze, Psychic</t>
+  </si>
+  <si>
+    <t>Water Gun, Body Slam, Waterfall, Take Down, Hypnosis, Confusion, Blizzard, Tail Whip, Confuse Ray, Ice Beam, Ice Punch, Scratch, Psybeam, Fury Swipes, Amnesia, Surf, Psychic, Screech, Hydro Pump</t>
+  </si>
+  <si>
+    <t>Confuse Ray, Harden, Recover, Water Gun, Ice Beam, Surf, Thunder, Thunder Wave, Tackle, Thunderbolt, Double Team, Waterfall, Minimize, Hydro Pump, Blizzard, Flash, Psybeam, Psychic</t>
+  </si>
+  <si>
+    <t>Ice Beam, Water Gun, Surf, Hypnosis, Earthquake, Pound, Ice Punch, Body Slam, Waterfall, Take Down, Hydro Pump, Bubble Beam, Double-Edge, Blizzard, Amnesia, Haze, Psychic</t>
+  </si>
+  <si>
+    <t>Ice Beam, Water Gun, Earthquake, Ice Punch, Blizzard, Tackle, Body Slam, Rock Slide, Hyper Beam, Bite, Hydro Pump, Take Down, Double-Edge, Withdraw, Haze, Tail Whip, Surf</t>
+  </si>
+  <si>
+    <t>Agility, Ice Beam, Water Gun, Hyper Beam, Smokescreen, Waterfall, Leer, Hydro Pump, Bubble Beam, Blizzard, Surf</t>
+  </si>
+  <si>
+    <t>Water Gun, Hyper Beam, Body Slam, Waterfall, Take Down, Double-Edge, Blizzard, Aurora Beam, Tail Whip, Ice Beam, Double Kick, Bite, Haze, Acid Armor, Sand Attack, Surf, Quick Attack, Tackle, Growl, Hydro Pump</t>
+  </si>
+  <si>
+    <t>Water Gun, Hyper Beam, Body Slam, Waterfall, Take Down, Hypnosis, Confusion, Blizzard, Tail Whip, Confuse Ray, Ice Beam, Ice Punch, Scratch, Psybeam, Fury Swipes, Amnesia, Surf, Psychic, Screech, Hydro Pump</t>
+  </si>
+  <si>
+    <t>Water Gun, Stomp, Double Team, Rock Slide, Leer, Strength, Blizzard, Agility, Slam, Ice Beam, Slash, Bubble Beam, Haze, Harden, Amnesia, Surf, Cut, Crabhammer, Guillotine, Swords Dance</t>
+  </si>
+  <si>
+    <t>Agility, Ice Beam, Water Gun, Smokescreen, Waterfall, Leer, Hydro Pump, Bubble Beam, Blizzard, Aurora Beam, Surf</t>
+  </si>
+  <si>
+    <t>Bubble Beam, Ice Beam, Water Gun, Blizzard, Tackle, Waterfall, Leer, Supersonic, Hydro Pump, Take Down, Withdraw, Aurora Beam, Surf</t>
+  </si>
+  <si>
+    <t>Water Gun, Hyper Beam, Stomp, Double Team, Rock Slide, Leer, Strength, Blizzard, Agility, Slam, Ice Beam, Slash, Bubble Beam, Haze, Harden, Amnesia, Surf, Cut, Crabhammer, Guillotine, Swords Dance</t>
+  </si>
+  <si>
+    <t>Horn Attack, Swords Dance, Agility, Ice Beam, Peck, Horn Drill, Body Slam, Double Team, Waterfall, Supersonic, Hydro Pump, Psybeam, Blizzard, Haze, Tail Whip, Surf</t>
+  </si>
+  <si>
+    <t>Horn Attack, Swords Dance, Agility, Ice Beam, Peck, Horn Drill, Hyper Beam, Body Slam, Double Team, Waterfall, Supersonic, Hydro Pump, Psybeam, Blizzard, Haze, Tail Whip, Surf</t>
+  </si>
+  <si>
+    <t>Water Gun, Hyper Beam, Body Slam, Rock Slide, Waterfall, Take Down, Hypnosis, Double-Edge, Blizzard, Ice Beam, Pound, Ice Punch, Bubble Beam, Haze, Amnesia, Surf, Psychic, Earthquake, Hydro Pump</t>
+  </si>
+  <si>
+    <t>Flamethrower, Ice Beam, Fire Blast, Thunder, Hyper Beam, Thunder Wave, Earthquake, Tackle, Body Slam, Waterfall, Thunderbolt, Leer, Hydro Pump, Bite, Take Down, Blizzard, Surf</t>
+  </si>
+  <si>
+    <t>Water Gun, Sing, Hyper Beam, Body Slam, Waterfall, Fissure, Take Down, Double-Edge, Blizzard, Confuse Ray, Ice Beam, Thunder, Haze, Thunderbolt, Surf, Psychic, Horn Drill, Earthquake, Growl, Hydro Pump</t>
+  </si>
+  <si>
+    <t>Bubble Beam, Ice Beam, Water Gun, Hyper Beam, Blizzard, Tackle, Body Slam, Waterfall, Leer, Supersonic, Hydro Pump, Take Down, Withdraw, Aurora Beam, Surf</t>
+  </si>
+  <si>
+    <t>Ice Beam, Haze, Hyper Beam, Body Slam, Growl, Waterfall, Take Down, Hydro Pump, Double-Edge, Blizzard, Headbutt, Aurora Beam, Surf</t>
+  </si>
+  <si>
+    <t>Wrap, Swords Dance, Confuse Ray, Toxic, Ice Beam, Water Gun, Haze, Poison Sting, Screech, Hyper Beam, Supersonic, Acid, Hydro Pump, Blizzard, Bubble Beam, Acid Armor, Surf</t>
+  </si>
+  <si>
+    <t>Wrap, Swords Dance, Confuse Ray, Toxic, Ice Beam, Water Gun, Haze, Poison Sting, Screech, Aurora Beam, Supersonic, Acid, Hydro Pump, Blizzard, Bubble Beam, Acid Armor, Surf</t>
+  </si>
+  <si>
+    <t>Recover, Water Gun, Hyper Beam, Double Team, Waterfall, Blizzard, Confuse Ray, Ice Beam, Thunder, Flash, Psybeam, Harden, Thunder Wave, Thunderbolt, Surf, Psychic, Tackle, Minimize, Hydro Pump</t>
+  </si>
+  <si>
+    <t>Water Gun, Stomp, Body Slam, Waterfall, Take Down, Confusion, Blizzard, Flamethrower, Ice Beam, Psybeam, Fire Blast, Thunder Wave, Headbutt, Amnesia, Psychic, Surf, Earthquake, Tackle, Growl, Hydro Pump, Acid</t>
+  </si>
+  <si>
+    <t>Water Gun, Hyper Beam, Stomp, Body Slam, Waterfall, Take Down, Confusion, Blizzard, Flamethrower, Ice Beam, Ice Punch, Withdraw, Psybeam, Fire Blast, Thunder Wave, Headbutt, Amnesia, Psychic, Surf, Earthquake, Tackle, Growl, Hydro Pump, Acid</t>
   </si>
 </sst>
 </file>
@@ -2133,8 +2106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60253229-7B7D-47FC-B0B0-2854FABC147B}">
   <dimension ref="A1:I151"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E128" sqref="E128"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2181,10 +2154,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2">
         <v>45</v>
@@ -2205,15 +2178,15 @@
         <v>45</v>
       </c>
       <c r="I2" t="s">
-        <v>230</v>
+        <v>397</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3">
         <v>50</v>
@@ -2234,15 +2207,15 @@
         <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>204</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4">
         <v>65</v>
@@ -2263,12 +2236,12 @@
         <v>85</v>
       </c>
       <c r="I4" t="s">
-        <v>232</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -2292,12 +2265,12 @@
         <v>105</v>
       </c>
       <c r="I5" t="s">
-        <v>234</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
@@ -2321,15 +2294,15 @@
         <v>70</v>
       </c>
       <c r="I6" t="s">
-        <v>236</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C7">
         <v>60</v>
@@ -2350,15 +2323,15 @@
         <v>30</v>
       </c>
       <c r="I7" t="s">
-        <v>239</v>
+        <v>401</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B8" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C8">
         <v>35</v>
@@ -2379,12 +2352,12 @@
         <v>25</v>
       </c>
       <c r="I8" t="s">
-        <v>241</v>
+        <v>402</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -2408,12 +2381,12 @@
         <v>35</v>
       </c>
       <c r="I9" t="s">
-        <v>204</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -2437,12 +2410,12 @@
         <v>45</v>
       </c>
       <c r="I10" t="s">
-        <v>244</v>
+        <v>403</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -2466,12 +2439,12 @@
         <v>50</v>
       </c>
       <c r="I11" t="s">
-        <v>246</v>
+        <v>404</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -2495,12 +2468,12 @@
         <v>75</v>
       </c>
       <c r="I12" t="s">
-        <v>248</v>
+        <v>405</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -2524,12 +2497,12 @@
         <v>90</v>
       </c>
       <c r="I13" t="s">
-        <v>250</v>
+        <v>406</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="B14" t="s">
         <v>40</v>
@@ -2553,12 +2526,12 @@
         <v>50</v>
       </c>
       <c r="I14" t="s">
-        <v>252</v>
+        <v>407</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
@@ -2582,12 +2555,12 @@
         <v>70</v>
       </c>
       <c r="I15" t="s">
-        <v>254</v>
+        <v>407</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -2611,12 +2584,12 @@
         <v>80</v>
       </c>
       <c r="I16" t="s">
-        <v>256</v>
+        <v>408</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -2640,12 +2613,12 @@
         <v>90</v>
       </c>
       <c r="I17" t="s">
-        <v>257</v>
+        <v>409</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -2669,7 +2642,7 @@
         <v>130</v>
       </c>
       <c r="I18" t="s">
-        <v>259</v>
+        <v>410</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -2698,12 +2671,12 @@
         <v>110</v>
       </c>
       <c r="I19" t="s">
-        <v>260</v>
+        <v>411</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
@@ -2727,12 +2700,12 @@
         <v>100</v>
       </c>
       <c r="I20" t="s">
-        <v>261</v>
+        <v>412</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="B21" t="s">
         <v>18</v>
@@ -2756,7 +2729,7 @@
         <v>105</v>
       </c>
       <c r="I21" t="s">
-        <v>263</v>
+        <v>413</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -2785,15 +2758,15 @@
         <v>150</v>
       </c>
       <c r="I22" t="s">
-        <v>264</v>
+        <v>414</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="B23" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="C23">
         <v>90</v>
@@ -2814,15 +2787,15 @@
         <v>100</v>
       </c>
       <c r="I23" t="s">
-        <v>267</v>
+        <v>415</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C24">
         <v>50</v>
@@ -2843,15 +2816,15 @@
         <v>70</v>
       </c>
       <c r="I24" t="s">
-        <v>268</v>
+        <v>416</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C25">
         <v>25</v>
@@ -2872,12 +2845,12 @@
         <v>45</v>
       </c>
       <c r="I25" t="s">
-        <v>269</v>
+        <v>417</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="B26" t="s">
         <v>31</v>
@@ -2901,12 +2874,12 @@
         <v>60</v>
       </c>
       <c r="I26" t="s">
-        <v>271</v>
+        <v>418</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="B27" t="s">
         <v>31</v>
@@ -2930,12 +2903,12 @@
         <v>35</v>
       </c>
       <c r="I27" t="s">
-        <v>273</v>
+        <v>419</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="B28" t="s">
         <v>23</v>
@@ -2959,12 +2932,12 @@
         <v>76</v>
       </c>
       <c r="I28" t="s">
-        <v>275</v>
+        <v>420</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B29" t="s">
         <v>23</v>
@@ -2988,12 +2961,12 @@
         <v>45</v>
       </c>
       <c r="I29" t="s">
-        <v>276</v>
+        <v>421</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
       <c r="B30" t="s">
         <v>23</v>
@@ -3017,12 +2990,12 @@
         <v>70</v>
       </c>
       <c r="I30" t="s">
-        <v>278</v>
+        <v>422</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B31" t="s">
         <v>23</v>
@@ -3046,12 +3019,12 @@
         <v>35</v>
       </c>
       <c r="I31" t="s">
-        <v>279</v>
+        <v>421</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="B32" t="s">
         <v>23</v>
@@ -3075,12 +3048,12 @@
         <v>95</v>
       </c>
       <c r="I32" t="s">
-        <v>281</v>
+        <v>423</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B33" t="s">
         <v>23</v>
@@ -3104,12 +3077,12 @@
         <v>55</v>
       </c>
       <c r="I33" t="s">
-        <v>282</v>
+        <v>424</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
       <c r="B34" t="s">
         <v>23</v>
@@ -3133,12 +3106,12 @@
         <v>87</v>
       </c>
       <c r="I34" t="s">
-        <v>284</v>
+        <v>425</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>285</v>
+        <v>252</v>
       </c>
       <c r="B35" t="s">
         <v>16</v>
@@ -3162,12 +3135,12 @@
         <v>90</v>
       </c>
       <c r="I35" t="s">
-        <v>286</v>
+        <v>426</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="B36" t="s">
         <v>16</v>
@@ -3191,12 +3164,12 @@
         <v>65</v>
       </c>
       <c r="I36" t="s">
-        <v>288</v>
+        <v>427</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B37" t="s">
         <v>16</v>
@@ -3220,12 +3193,12 @@
         <v>100</v>
       </c>
       <c r="I37" t="s">
-        <v>289</v>
+        <v>428</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>290</v>
+        <v>254</v>
       </c>
       <c r="B38" t="s">
         <v>16</v>
@@ -3249,12 +3222,12 @@
         <v>95</v>
       </c>
       <c r="I38" t="s">
-        <v>291</v>
+        <v>429</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>292</v>
+        <v>255</v>
       </c>
       <c r="B39" t="s">
         <v>16</v>
@@ -3278,12 +3251,12 @@
         <v>80</v>
       </c>
       <c r="I39" t="s">
-        <v>293</v>
+        <v>430</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="B40" t="s">
         <v>16</v>
@@ -3307,12 +3280,12 @@
         <v>60</v>
       </c>
       <c r="I40" t="s">
-        <v>295</v>
+        <v>431</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>296</v>
+        <v>257</v>
       </c>
       <c r="B41" t="s">
         <v>16</v>
@@ -3336,12 +3309,12 @@
         <v>93</v>
       </c>
       <c r="I41" t="s">
-        <v>297</v>
+        <v>432</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>298</v>
+        <v>258</v>
       </c>
       <c r="B42" t="s">
         <v>16</v>
@@ -3365,12 +3338,12 @@
         <v>65</v>
       </c>
       <c r="I42" t="s">
-        <v>299</v>
+        <v>433</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>300</v>
+        <v>259</v>
       </c>
       <c r="B43" t="s">
         <v>16</v>
@@ -3394,12 +3367,12 @@
         <v>105</v>
       </c>
       <c r="I43" t="s">
-        <v>301</v>
+        <v>434</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B44" t="s">
         <v>16</v>
@@ -3423,15 +3396,15 @@
         <v>65</v>
       </c>
       <c r="I44" t="s">
-        <v>302</v>
+        <v>435</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>303</v>
+        <v>260</v>
       </c>
       <c r="B45" t="s">
-        <v>304</v>
+        <v>261</v>
       </c>
       <c r="C45">
         <v>78</v>
@@ -3452,15 +3425,15 @@
         <v>100</v>
       </c>
       <c r="I45" t="s">
-        <v>305</v>
+        <v>436</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>306</v>
+        <v>262</v>
       </c>
       <c r="B46" t="s">
-        <v>304</v>
+        <v>261</v>
       </c>
       <c r="C46">
         <v>90</v>
@@ -3481,15 +3454,15 @@
         <v>90</v>
       </c>
       <c r="I46" t="s">
-        <v>307</v>
+        <v>437</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>308</v>
+        <v>263</v>
       </c>
       <c r="B47" t="s">
-        <v>309</v>
+        <v>264</v>
       </c>
       <c r="C47">
         <v>45</v>
@@ -3510,15 +3483,15 @@
         <v>95</v>
       </c>
       <c r="I47" t="s">
-        <v>310</v>
+        <v>438</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>311</v>
+        <v>265</v>
       </c>
       <c r="B48" t="s">
-        <v>309</v>
+        <v>264</v>
       </c>
       <c r="C48">
         <v>60</v>
@@ -3539,15 +3512,15 @@
         <v>110</v>
       </c>
       <c r="I48" t="s">
-        <v>312</v>
+        <v>439</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>313</v>
+        <v>266</v>
       </c>
       <c r="B49" t="s">
-        <v>309</v>
+        <v>264</v>
       </c>
       <c r="C49">
         <v>30</v>
@@ -3568,12 +3541,12 @@
         <v>80</v>
       </c>
       <c r="I49" t="s">
-        <v>314</v>
+        <v>438</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>315</v>
+        <v>267</v>
       </c>
       <c r="B50" t="s">
         <v>11</v>
@@ -3597,12 +3570,12 @@
         <v>60</v>
       </c>
       <c r="I50" t="s">
-        <v>316</v>
+        <v>440</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>317</v>
+        <v>268</v>
       </c>
       <c r="B51" t="s">
         <v>14</v>
@@ -3626,12 +3599,12 @@
         <v>80</v>
       </c>
       <c r="I51" t="s">
-        <v>318</v>
+        <v>441</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>319</v>
+        <v>269</v>
       </c>
       <c r="B52" t="s">
         <v>14</v>
@@ -3655,12 +3628,12 @@
         <v>55</v>
       </c>
       <c r="I52" t="s">
-        <v>320</v>
+        <v>442</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B53" t="s">
         <v>14</v>
@@ -3684,12 +3657,12 @@
         <v>40</v>
       </c>
       <c r="I53" t="s">
-        <v>321</v>
+        <v>443</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>322</v>
+        <v>270</v>
       </c>
       <c r="B54" t="s">
         <v>14</v>
@@ -3713,12 +3686,12 @@
         <v>60</v>
       </c>
       <c r="I54" t="s">
-        <v>323</v>
+        <v>444</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
         <v>14</v>
@@ -3742,12 +3715,12 @@
         <v>50</v>
       </c>
       <c r="I55" t="s">
-        <v>324</v>
+        <v>445</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>325</v>
+        <v>271</v>
       </c>
       <c r="B56" t="s">
         <v>14</v>
@@ -3771,12 +3744,12 @@
         <v>40</v>
       </c>
       <c r="I56" t="s">
-        <v>326</v>
+        <v>446</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>327</v>
+        <v>272</v>
       </c>
       <c r="B57" t="s">
         <v>14</v>
@@ -3800,12 +3773,12 @@
         <v>70</v>
       </c>
       <c r="I57" t="s">
-        <v>328</v>
+        <v>447</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>329</v>
+        <v>273</v>
       </c>
       <c r="B58" t="s">
         <v>14</v>
@@ -3829,12 +3802,12 @@
         <v>45</v>
       </c>
       <c r="I58" t="s">
-        <v>330</v>
+        <v>448</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B59" t="s">
         <v>14</v>
@@ -3858,15 +3831,15 @@
         <v>30</v>
       </c>
       <c r="I59" t="s">
-        <v>331</v>
+        <v>449</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>332</v>
+        <v>274</v>
       </c>
       <c r="B60" t="s">
-        <v>333</v>
+        <v>275</v>
       </c>
       <c r="C60">
         <v>60</v>
@@ -3887,15 +3860,15 @@
         <v>40</v>
       </c>
       <c r="I60" t="s">
-        <v>334</v>
+        <v>450</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>335</v>
+        <v>276</v>
       </c>
       <c r="B61" t="s">
-        <v>333</v>
+        <v>275</v>
       </c>
       <c r="C61">
         <v>95</v>
@@ -3916,12 +3889,12 @@
         <v>55</v>
       </c>
       <c r="I61" t="s">
-        <v>336</v>
+        <v>451</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>337</v>
+        <v>277</v>
       </c>
       <c r="B62" t="s">
         <v>21</v>
@@ -3945,12 +3918,12 @@
         <v>120</v>
       </c>
       <c r="I62" t="s">
-        <v>338</v>
+        <v>452</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>339</v>
+        <v>278</v>
       </c>
       <c r="B63" t="s">
         <v>21</v>
@@ -3974,12 +3947,12 @@
         <v>35</v>
       </c>
       <c r="I63" t="s">
-        <v>340</v>
+        <v>453</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>341</v>
+        <v>279</v>
       </c>
       <c r="B64" t="s">
         <v>21</v>
@@ -4003,12 +3976,12 @@
         <v>95</v>
       </c>
       <c r="I64" t="s">
-        <v>342</v>
+        <v>454</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B65" t="s">
         <v>21</v>
@@ -4032,12 +4005,12 @@
         <v>40</v>
       </c>
       <c r="I65" t="s">
-        <v>343</v>
+        <v>455</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B66" t="s">
         <v>21</v>
@@ -4061,12 +4034,12 @@
         <v>65</v>
       </c>
       <c r="I66" t="s">
-        <v>344</v>
+        <v>456</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>345</v>
+        <v>280</v>
       </c>
       <c r="B67" t="s">
         <v>21</v>
@@ -4090,12 +4063,12 @@
         <v>45</v>
       </c>
       <c r="I67" t="s">
-        <v>346</v>
+        <v>457</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B68" t="s">
         <v>46</v>
@@ -4119,7 +4092,7 @@
         <v>40</v>
       </c>
       <c r="I68" t="s">
-        <v>347</v>
+        <v>458</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -4148,15 +4121,15 @@
         <v>25</v>
       </c>
       <c r="I69" t="s">
-        <v>348</v>
+        <v>459</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>349</v>
+        <v>281</v>
       </c>
       <c r="B70" t="s">
-        <v>350</v>
+        <v>282</v>
       </c>
       <c r="C70">
         <v>90</v>
@@ -4177,15 +4150,15 @@
         <v>85</v>
       </c>
       <c r="I70" t="s">
-        <v>351</v>
+        <v>460</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>352</v>
+        <v>283</v>
       </c>
       <c r="B71" t="s">
-        <v>353</v>
+        <v>284</v>
       </c>
       <c r="C71">
         <v>65</v>
@@ -4206,12 +4179,12 @@
         <v>95</v>
       </c>
       <c r="I71" t="s">
-        <v>354</v>
+        <v>461</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>355</v>
+        <v>285</v>
       </c>
       <c r="B72" t="s">
         <v>9</v>
@@ -4235,12 +4208,12 @@
         <v>30</v>
       </c>
       <c r="I72" t="s">
-        <v>356</v>
+        <v>462</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>357</v>
+        <v>286</v>
       </c>
       <c r="B73" t="s">
         <v>9</v>
@@ -4264,12 +4237,12 @@
         <v>50</v>
       </c>
       <c r="I73" t="s">
-        <v>358</v>
+        <v>463</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>359</v>
+        <v>287</v>
       </c>
       <c r="B74" t="s">
         <v>9</v>
@@ -4293,12 +4266,12 @@
         <v>40</v>
       </c>
       <c r="I74" t="s">
-        <v>360</v>
+        <v>464</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>361</v>
+        <v>288</v>
       </c>
       <c r="B75" t="s">
         <v>9</v>
@@ -4322,12 +4295,12 @@
         <v>55</v>
       </c>
       <c r="I75" t="s">
-        <v>362</v>
+        <v>465</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>363</v>
+        <v>289</v>
       </c>
       <c r="B76" t="s">
         <v>9</v>
@@ -4351,12 +4324,12 @@
         <v>30</v>
       </c>
       <c r="I76" t="s">
-        <v>364</v>
+        <v>466</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>365</v>
+        <v>290</v>
       </c>
       <c r="B77" t="s">
         <v>9</v>
@@ -4380,12 +4353,12 @@
         <v>97</v>
       </c>
       <c r="I77" t="s">
-        <v>366</v>
+        <v>467</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>367</v>
+        <v>291</v>
       </c>
       <c r="B78" t="s">
         <v>9</v>
@@ -4409,12 +4382,12 @@
         <v>110</v>
       </c>
       <c r="I78" t="s">
-        <v>368</v>
+        <v>468</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>369</v>
+        <v>292</v>
       </c>
       <c r="B79" t="s">
         <v>9</v>
@@ -4438,12 +4411,12 @@
         <v>115</v>
       </c>
       <c r="I79" t="s">
-        <v>370</v>
+        <v>469</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>371</v>
+        <v>293</v>
       </c>
       <c r="B80" t="s">
         <v>9</v>
@@ -4467,12 +4440,12 @@
         <v>90</v>
       </c>
       <c r="I80" t="s">
-        <v>372</v>
+        <v>470</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>373</v>
+        <v>294</v>
       </c>
       <c r="B81" t="s">
         <v>9</v>
@@ -4496,12 +4469,12 @@
         <v>90</v>
       </c>
       <c r="I81" t="s">
-        <v>374</v>
+        <v>471</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>375</v>
+        <v>295</v>
       </c>
       <c r="B82" t="s">
         <v>9</v>
@@ -4525,7 +4498,7 @@
         <v>72</v>
       </c>
       <c r="I82" t="s">
-        <v>376</v>
+        <v>472</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -4554,12 +4527,12 @@
         <v>45</v>
       </c>
       <c r="I83" t="s">
-        <v>377</v>
+        <v>473</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B84" t="s">
         <v>38</v>
@@ -4583,12 +4556,12 @@
         <v>20</v>
       </c>
       <c r="I84" t="s">
-        <v>378</v>
+        <v>474</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>379</v>
+        <v>296</v>
       </c>
       <c r="B85" t="s">
         <v>28</v>
@@ -4612,12 +4585,12 @@
         <v>71</v>
       </c>
       <c r="I85" t="s">
-        <v>380</v>
+        <v>475</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>381</v>
+        <v>297</v>
       </c>
       <c r="B86" t="s">
         <v>28</v>
@@ -4641,12 +4614,12 @@
         <v>101</v>
       </c>
       <c r="I86" t="s">
-        <v>382</v>
+        <v>476</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>383</v>
+        <v>298</v>
       </c>
       <c r="B87" t="s">
         <v>28</v>
@@ -4670,12 +4643,12 @@
         <v>100</v>
       </c>
       <c r="I87" t="s">
-        <v>384</v>
+        <v>477</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>385</v>
+        <v>299</v>
       </c>
       <c r="B88" t="s">
         <v>28</v>
@@ -4699,12 +4672,12 @@
         <v>70</v>
       </c>
       <c r="I88" t="s">
-        <v>386</v>
+        <v>478</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>387</v>
+        <v>300</v>
       </c>
       <c r="B89" t="s">
         <v>28</v>
@@ -4728,12 +4701,12 @@
         <v>56</v>
       </c>
       <c r="I89" t="s">
-        <v>388</v>
+        <v>475</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B90" t="s">
         <v>28</v>
@@ -4757,12 +4730,12 @@
         <v>110</v>
       </c>
       <c r="I90" t="s">
-        <v>389</v>
+        <v>479</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>390</v>
+        <v>301</v>
       </c>
       <c r="B91" t="s">
         <v>28</v>
@@ -4786,12 +4759,12 @@
         <v>60</v>
       </c>
       <c r="I91" t="s">
-        <v>391</v>
+        <v>480</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B92" t="s">
         <v>28</v>
@@ -4815,12 +4788,12 @@
         <v>75</v>
       </c>
       <c r="I92" t="s">
-        <v>392</v>
+        <v>481</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B93" t="s">
         <v>25</v>
@@ -4844,12 +4817,12 @@
         <v>35</v>
       </c>
       <c r="I93" t="s">
-        <v>393</v>
+        <v>482</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B94" t="s">
         <v>25</v>
@@ -4873,12 +4846,12 @@
         <v>25</v>
       </c>
       <c r="I94" t="s">
-        <v>394</v>
+        <v>483</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>395</v>
+        <v>302</v>
       </c>
       <c r="B95" t="s">
         <v>25</v>
@@ -4902,12 +4875,12 @@
         <v>65</v>
       </c>
       <c r="I95" t="s">
-        <v>396</v>
+        <v>484</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>397</v>
+        <v>303</v>
       </c>
       <c r="B96" t="s">
         <v>25</v>
@@ -4931,12 +4904,12 @@
         <v>55</v>
       </c>
       <c r="I96" t="s">
-        <v>398</v>
+        <v>485</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>399</v>
+        <v>304</v>
       </c>
       <c r="B97" t="s">
         <v>25</v>
@@ -4960,12 +4933,12 @@
         <v>56</v>
       </c>
       <c r="I97" t="s">
-        <v>400</v>
+        <v>486</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B98" t="s">
         <v>25</v>
@@ -4989,12 +4962,12 @@
         <v>60</v>
       </c>
       <c r="I98" t="s">
-        <v>401</v>
+        <v>487</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B99" t="s">
         <v>25</v>
@@ -5018,12 +4991,12 @@
         <v>50</v>
       </c>
       <c r="I99" t="s">
-        <v>402</v>
+        <v>483</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>403</v>
+        <v>305</v>
       </c>
       <c r="B100" t="s">
         <v>25</v>
@@ -5047,12 +5020,12 @@
         <v>50</v>
       </c>
       <c r="I100" t="s">
-        <v>404</v>
+        <v>484</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>405</v>
+        <v>306</v>
       </c>
       <c r="B101" t="s">
         <v>25</v>
@@ -5076,12 +5049,12 @@
         <v>41</v>
       </c>
       <c r="I101" t="s">
-        <v>400</v>
+        <v>486</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>406</v>
+        <v>307</v>
       </c>
       <c r="B102" t="s">
         <v>25</v>
@@ -5105,7 +5078,7 @@
         <v>80</v>
       </c>
       <c r="I102" t="s">
-        <v>407</v>
+        <v>488</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -5134,12 +5107,12 @@
         <v>55</v>
       </c>
       <c r="I103" t="s">
-        <v>408</v>
+        <v>489</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B104" t="s">
         <v>43</v>
@@ -5163,15 +5136,15 @@
         <v>90</v>
       </c>
       <c r="I104" t="s">
-        <v>409</v>
+        <v>490</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>410</v>
+        <v>308</v>
       </c>
       <c r="B105" t="s">
-        <v>411</v>
+        <v>309</v>
       </c>
       <c r="C105">
         <v>90</v>
@@ -5192,15 +5165,15 @@
         <v>76</v>
       </c>
       <c r="I105" t="s">
-        <v>412</v>
+        <v>491</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>413</v>
+        <v>310</v>
       </c>
       <c r="B106" t="s">
-        <v>411</v>
+        <v>309</v>
       </c>
       <c r="C106">
         <v>81</v>
@@ -5221,12 +5194,12 @@
         <v>85</v>
       </c>
       <c r="I106" t="s">
-        <v>414</v>
+        <v>492</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>415</v>
+        <v>311</v>
       </c>
       <c r="B107" t="s">
         <v>12</v>
@@ -5250,12 +5223,12 @@
         <v>130</v>
       </c>
       <c r="I107" t="s">
-        <v>416</v>
+        <v>493</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>417</v>
+        <v>312</v>
       </c>
       <c r="B108" t="s">
         <v>12</v>
@@ -5279,7 +5252,7 @@
         <v>100</v>
       </c>
       <c r="I108" t="s">
-        <v>418</v>
+        <v>494</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -5308,12 +5281,12 @@
         <v>90</v>
       </c>
       <c r="I109" t="s">
-        <v>419</v>
+        <v>495</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B110" t="s">
         <v>12</v>
@@ -5337,12 +5310,12 @@
         <v>120</v>
       </c>
       <c r="I110" t="s">
-        <v>420</v>
+        <v>496</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>421</v>
+        <v>313</v>
       </c>
       <c r="B111" t="s">
         <v>12</v>
@@ -5366,12 +5339,12 @@
         <v>67</v>
       </c>
       <c r="I111" t="s">
-        <v>422</v>
+        <v>497</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>423</v>
+        <v>314</v>
       </c>
       <c r="B112" t="s">
         <v>12</v>
@@ -5395,12 +5368,12 @@
         <v>42</v>
       </c>
       <c r="I112" t="s">
-        <v>424</v>
+        <v>498</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B113" t="s">
         <v>12</v>
@@ -5424,12 +5397,12 @@
         <v>105</v>
       </c>
       <c r="I113" t="s">
-        <v>425</v>
+        <v>499</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>426</v>
+        <v>315</v>
       </c>
       <c r="B114" t="s">
         <v>10</v>
@@ -5453,15 +5426,15 @@
         <v>90</v>
       </c>
       <c r="I114" t="s">
-        <v>427</v>
+        <v>500</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>428</v>
+        <v>316</v>
       </c>
       <c r="B115" t="s">
-        <v>429</v>
+        <v>317</v>
       </c>
       <c r="C115">
         <v>80</v>
@@ -5482,12 +5455,12 @@
         <v>130</v>
       </c>
       <c r="I115" t="s">
-        <v>430</v>
+        <v>501</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>431</v>
+        <v>318</v>
       </c>
       <c r="B116" t="s">
         <v>33</v>
@@ -5511,12 +5484,12 @@
         <v>70</v>
       </c>
       <c r="I116" t="s">
-        <v>432</v>
+        <v>502</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B117" t="s">
         <v>33</v>
@@ -5540,12 +5513,12 @@
         <v>35</v>
       </c>
       <c r="I117" t="s">
-        <v>433</v>
+        <v>503</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B118" t="s">
         <v>33</v>
@@ -5569,7 +5542,7 @@
         <v>20</v>
       </c>
       <c r="I118" t="s">
-        <v>434</v>
+        <v>504</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -5598,15 +5571,15 @@
         <v>45</v>
       </c>
       <c r="I119" t="s">
-        <v>435</v>
+        <v>505</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>436</v>
+        <v>319</v>
       </c>
       <c r="B120" t="s">
-        <v>437</v>
+        <v>320</v>
       </c>
       <c r="C120">
         <v>35</v>
@@ -5627,15 +5600,15 @@
         <v>35</v>
       </c>
       <c r="I120" t="s">
-        <v>438</v>
+        <v>506</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>439</v>
+        <v>321</v>
       </c>
       <c r="B121" t="s">
-        <v>437</v>
+        <v>320</v>
       </c>
       <c r="C121">
         <v>70</v>
@@ -5656,15 +5629,15 @@
         <v>55</v>
       </c>
       <c r="I121" t="s">
-        <v>440</v>
+        <v>507</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>441</v>
+        <v>322</v>
       </c>
       <c r="B122" t="s">
-        <v>437</v>
+        <v>320</v>
       </c>
       <c r="C122">
         <v>60</v>
@@ -5685,15 +5658,15 @@
         <v>80</v>
       </c>
       <c r="I122" t="s">
-        <v>442</v>
+        <v>508</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>443</v>
+        <v>323</v>
       </c>
       <c r="B123" t="s">
-        <v>437</v>
+        <v>320</v>
       </c>
       <c r="C123">
         <v>30</v>
@@ -5714,12 +5687,12 @@
         <v>55</v>
       </c>
       <c r="I123" t="s">
-        <v>444</v>
+        <v>509</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>445</v>
+        <v>324</v>
       </c>
       <c r="B124" t="s">
         <v>22</v>
@@ -5743,12 +5716,12 @@
         <v>45</v>
       </c>
       <c r="I124" t="s">
-        <v>446</v>
+        <v>510</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>447</v>
+        <v>325</v>
       </c>
       <c r="B125" t="s">
         <v>22</v>
@@ -5772,12 +5745,12 @@
         <v>43</v>
       </c>
       <c r="I125" t="s">
-        <v>448</v>
+        <v>511</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>449</v>
+        <v>326</v>
       </c>
       <c r="B126" t="s">
         <v>22</v>
@@ -5801,12 +5774,12 @@
         <v>90</v>
       </c>
       <c r="I126" t="s">
-        <v>450</v>
+        <v>512</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B127" t="s">
         <v>22</v>
@@ -5830,12 +5803,12 @@
         <v>55</v>
       </c>
       <c r="I127" t="s">
-        <v>451</v>
+        <v>513</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B128" t="s">
         <v>22</v>
@@ -5859,12 +5832,12 @@
         <v>85</v>
       </c>
       <c r="I128" t="s">
-        <v>452</v>
+        <v>514</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>453</v>
+        <v>327</v>
       </c>
       <c r="B129" t="s">
         <v>22</v>
@@ -5888,12 +5861,12 @@
         <v>90</v>
       </c>
       <c r="I129" t="s">
-        <v>454</v>
+        <v>515</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>455</v>
+        <v>328</v>
       </c>
       <c r="B130" t="s">
         <v>22</v>
@@ -5917,12 +5890,12 @@
         <v>78</v>
       </c>
       <c r="I130" t="s">
-        <v>456</v>
+        <v>516</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B131" t="s">
         <v>22</v>
@@ -5946,12 +5919,12 @@
         <v>85</v>
       </c>
       <c r="I131" t="s">
-        <v>457</v>
+        <v>517</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>458</v>
+        <v>329</v>
       </c>
       <c r="B132" t="s">
         <v>22</v>
@@ -5975,12 +5948,12 @@
         <v>65</v>
       </c>
       <c r="I132" t="s">
-        <v>459</v>
+        <v>518</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>460</v>
+        <v>330</v>
       </c>
       <c r="B133" t="s">
         <v>22</v>
@@ -6004,12 +5977,12 @@
         <v>58</v>
       </c>
       <c r="I133" t="s">
-        <v>461</v>
+        <v>511</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B134" t="s">
         <v>22</v>
@@ -6033,12 +6006,12 @@
         <v>85</v>
       </c>
       <c r="I134" t="s">
-        <v>462</v>
+        <v>519</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>463</v>
+        <v>331</v>
       </c>
       <c r="B135" t="s">
         <v>22</v>
@@ -6062,7 +6035,7 @@
         <v>50</v>
       </c>
       <c r="I135" t="s">
-        <v>464</v>
+        <v>520</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
@@ -6091,12 +6064,12 @@
         <v>60</v>
       </c>
       <c r="I136" t="s">
-        <v>465</v>
+        <v>521</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>466</v>
+        <v>332</v>
       </c>
       <c r="B137" t="s">
         <v>22</v>
@@ -6120,12 +6093,12 @@
         <v>40</v>
       </c>
       <c r="I137" t="s">
-        <v>467</v>
+        <v>522</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>468</v>
+        <v>333</v>
       </c>
       <c r="B138" t="s">
         <v>22</v>
@@ -6149,12 +6122,12 @@
         <v>75</v>
       </c>
       <c r="I138" t="s">
-        <v>469</v>
+        <v>523</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B139" t="s">
         <v>22</v>
@@ -6178,7 +6151,7 @@
         <v>63</v>
       </c>
       <c r="I139" t="s">
-        <v>470</v>
+        <v>524</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
@@ -6207,12 +6180,12 @@
         <v>80</v>
       </c>
       <c r="I140" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B141" t="s">
         <v>22</v>
@@ -6236,15 +6209,15 @@
         <v>68</v>
       </c>
       <c r="I141" t="s">
-        <v>471</v>
+        <v>525</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>472</v>
+        <v>334</v>
       </c>
       <c r="B142" t="s">
-        <v>473</v>
+        <v>335</v>
       </c>
       <c r="C142">
         <v>90</v>
@@ -6265,12 +6238,12 @@
         <v>70</v>
       </c>
       <c r="I142" t="s">
-        <v>474</v>
+        <v>526</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B143" t="s">
         <v>27</v>
@@ -6294,15 +6267,15 @@
         <v>81</v>
       </c>
       <c r="I143" t="s">
-        <v>475</v>
+        <v>527</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>476</v>
+        <v>336</v>
       </c>
       <c r="B144" t="s">
-        <v>477</v>
+        <v>337</v>
       </c>
       <c r="C144">
         <v>130</v>
@@ -6323,15 +6296,15 @@
         <v>60</v>
       </c>
       <c r="I144" t="s">
-        <v>478</v>
+        <v>528</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>479</v>
+        <v>338</v>
       </c>
       <c r="B145" t="s">
-        <v>477</v>
+        <v>337</v>
       </c>
       <c r="C145">
         <v>50</v>
@@ -6352,15 +6325,15 @@
         <v>70</v>
       </c>
       <c r="I145" t="s">
-        <v>480</v>
+        <v>529</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>481</v>
+        <v>339</v>
       </c>
       <c r="B146" t="s">
-        <v>477</v>
+        <v>337</v>
       </c>
       <c r="C146">
         <v>90</v>
@@ -6381,12 +6354,12 @@
         <v>70</v>
       </c>
       <c r="I146" t="s">
-        <v>482</v>
+        <v>530</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B147" t="s">
         <v>35</v>
@@ -6410,7 +6383,7 @@
         <v>100</v>
       </c>
       <c r="I147" t="s">
-        <v>483</v>
+        <v>531</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
@@ -6439,7 +6412,7 @@
         <v>70</v>
       </c>
       <c r="I148" t="s">
-        <v>484</v>
+        <v>532</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
@@ -6468,12 +6441,12 @@
         <v>115</v>
       </c>
       <c r="I149" t="s">
-        <v>485</v>
+        <v>533</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>486</v>
+        <v>340</v>
       </c>
       <c r="B150" t="s">
         <v>24</v>
@@ -6497,12 +6470,12 @@
         <v>15</v>
       </c>
       <c r="I150" t="s">
-        <v>487</v>
+        <v>534</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>488</v>
+        <v>341</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>24</v>
@@ -6525,8 +6498,8 @@
       <c r="H151" s="2">
         <v>30</v>
       </c>
-      <c r="I151" s="2" t="s">
-        <v>489</v>
+      <c r="I151" t="s">
+        <v>535</v>
       </c>
     </row>
   </sheetData>
@@ -6541,8 +6514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3705994-9F9B-47BD-BD67-357EF6698301}">
   <dimension ref="A1:G133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E133"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6564,30 +6537,30 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D2">
         <v>20</v>
@@ -6599,18 +6572,18 @@
         <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>490</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D3">
         <v>40</v>
@@ -6622,87 +6595,87 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>491</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F4">
         <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>492</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F5">
         <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>493</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F6">
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>494</v>
+        <v>346</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B7" t="s">
         <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D7">
         <v>65</v>
@@ -6714,18 +6687,18 @@
         <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>495</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D8">
         <v>15</v>
@@ -6737,41 +6710,41 @@
         <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>496</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F9">
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>492</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D10">
         <v>15</v>
@@ -6783,18 +6756,18 @@
         <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>497</v>
+        <v>349</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D11">
         <v>60</v>
@@ -6806,18 +6779,18 @@
         <v>25</v>
       </c>
       <c r="G11" t="s">
-        <v>498</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B12" t="s">
         <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D12">
         <v>110</v>
@@ -6829,18 +6802,18 @@
         <v>5</v>
       </c>
       <c r="G12" t="s">
-        <v>499</v>
+        <v>351</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D13">
         <v>85</v>
@@ -6852,18 +6825,18 @@
         <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>500</v>
+        <v>352</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B14" t="s">
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D14">
         <v>65</v>
@@ -6875,18 +6848,18 @@
         <v>20</v>
       </c>
       <c r="G14" t="s">
-        <v>501</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B15" t="s">
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D15">
         <v>50</v>
@@ -6898,18 +6871,18 @@
         <v>10</v>
       </c>
       <c r="G15" t="s">
-        <v>502</v>
+        <v>354</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D16">
         <v>40</v>
@@ -6921,18 +6894,18 @@
         <v>30</v>
       </c>
       <c r="G16" t="s">
-        <v>503</v>
+        <v>355</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D17">
         <v>65</v>
@@ -6944,18 +6917,18 @@
         <v>20</v>
       </c>
       <c r="G17" t="s">
-        <v>503</v>
+        <v>355</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D18">
         <v>35</v>
@@ -6967,18 +6940,18 @@
         <v>15</v>
       </c>
       <c r="G18" t="s">
-        <v>497</v>
+        <v>349</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D19">
         <v>18</v>
@@ -6990,21 +6963,21 @@
         <v>15</v>
       </c>
       <c r="G19" t="s">
-        <v>496</v>
+        <v>348</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E20">
         <v>100</v>
@@ -7013,18 +6986,18 @@
         <v>10</v>
       </c>
       <c r="G20" t="s">
-        <v>535</v>
+        <v>386</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B21" t="s">
         <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D21">
         <v>50</v>
@@ -7036,18 +7009,18 @@
         <v>25</v>
       </c>
       <c r="G21" t="s">
-        <v>504</v>
+        <v>356</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D22">
         <v>10</v>
@@ -7059,21 +7032,21 @@
         <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>503</v>
+        <v>355</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E23">
         <v>100</v>
@@ -7082,18 +7055,18 @@
         <v>20</v>
       </c>
       <c r="G23" t="s">
-        <v>542</v>
+        <v>393</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D24">
         <v>100</v>
@@ -7105,18 +7078,18 @@
         <v>10</v>
       </c>
       <c r="G24" t="s">
-        <v>505</v>
+        <v>357</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B25" t="s">
         <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D25">
         <v>50</v>
@@ -7128,41 +7101,41 @@
         <v>30</v>
       </c>
       <c r="G25" t="s">
-        <v>506</v>
+        <v>358</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B26" t="s">
         <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F26">
         <v>40</v>
       </c>
       <c r="G26" t="s">
-        <v>507</v>
+        <v>359</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B27" t="s">
         <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D27">
         <v>70</v>
@@ -7174,18 +7147,18 @@
         <v>10</v>
       </c>
       <c r="G27" t="s">
-        <v>508</v>
+        <v>360</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B28" t="s">
         <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D28">
         <v>30</v>
@@ -7197,18 +7170,18 @@
         <v>30</v>
       </c>
       <c r="G28" t="s">
-        <v>502</v>
+        <v>354</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B29" t="s">
         <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D29">
         <v>15</v>
@@ -7220,41 +7193,41 @@
         <v>10</v>
       </c>
       <c r="G29" t="s">
-        <v>496</v>
+        <v>348</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B30" t="s">
         <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F30">
         <v>15</v>
       </c>
       <c r="G30" t="s">
-        <v>509</v>
+        <v>361</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B31" t="s">
         <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31">
         <v>120</v>
@@ -7266,18 +7239,18 @@
         <v>15</v>
       </c>
       <c r="G31" t="s">
-        <v>510</v>
+        <v>362</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32">
         <v>80</v>
@@ -7289,18 +7262,18 @@
         <v>20</v>
       </c>
       <c r="G32" t="s">
-        <v>506</v>
+        <v>358</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B33" t="s">
         <v>21</v>
       </c>
       <c r="C33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D33">
         <v>100</v>
@@ -7312,18 +7285,18 @@
         <v>10</v>
       </c>
       <c r="G33" t="s">
-        <v>506</v>
+        <v>358</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B34" t="s">
         <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D34">
         <v>100</v>
@@ -7335,18 +7308,18 @@
         <v>10</v>
       </c>
       <c r="G34" t="s">
-        <v>506</v>
+        <v>358</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B35" t="s">
         <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D35">
         <v>40</v>
@@ -7358,18 +7331,18 @@
         <v>25</v>
       </c>
       <c r="G35" t="s">
-        <v>511</v>
+        <v>363</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B36" t="s">
         <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D36">
         <v>250</v>
@@ -7381,18 +7354,18 @@
         <v>5</v>
       </c>
       <c r="G36" t="s">
-        <v>512</v>
+        <v>364</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B37" t="s">
         <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D37">
         <v>110</v>
@@ -7404,18 +7377,18 @@
         <v>5</v>
       </c>
       <c r="G37" t="s">
-        <v>511</v>
+        <v>363</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B38" t="s">
         <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D38">
         <v>75</v>
@@ -7427,18 +7400,18 @@
         <v>15</v>
       </c>
       <c r="G38" t="s">
-        <v>511</v>
+        <v>363</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B39" t="s">
         <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D39">
         <v>35</v>
@@ -7450,21 +7423,21 @@
         <v>15</v>
       </c>
       <c r="G39" t="s">
-        <v>497</v>
+        <v>349</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B40" t="s">
         <v>21</v>
       </c>
       <c r="C40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E40">
         <v>30</v>
@@ -7473,18 +7446,18 @@
         <v>5</v>
       </c>
       <c r="G40" t="s">
-        <v>513</v>
+        <v>365</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B41" t="s">
         <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D41">
         <v>90</v>
@@ -7496,21 +7469,21 @@
         <v>15</v>
       </c>
       <c r="G41" t="s">
-        <v>511</v>
+        <v>363</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B42" t="s">
         <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E42">
         <v>100</v>
@@ -7519,18 +7492,18 @@
         <v>20</v>
       </c>
       <c r="G42" t="s">
-        <v>514</v>
+        <v>366</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B43" t="s">
         <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D43">
         <v>15</v>
@@ -7542,18 +7515,18 @@
         <v>20</v>
       </c>
       <c r="G43" t="s">
-        <v>496</v>
+        <v>348</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B44" t="s">
         <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D44">
         <v>18</v>
@@ -7565,21 +7538,21 @@
         <v>15</v>
       </c>
       <c r="G44" t="s">
-        <v>496</v>
+        <v>348</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B45" t="s">
         <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E45">
         <v>100</v>
@@ -7588,21 +7561,21 @@
         <v>30</v>
       </c>
       <c r="G45" t="s">
-        <v>515</v>
+        <v>367</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B46" t="s">
         <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E46">
         <v>100</v>
@@ -7611,44 +7584,44 @@
         <v>40</v>
       </c>
       <c r="G46" t="s">
-        <v>516</v>
+        <v>368</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B47" t="s">
         <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D47" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E47" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F47">
         <v>20</v>
       </c>
       <c r="G47" t="s">
-        <v>517</v>
+        <v>369</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B48" t="s">
         <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E48">
         <v>30</v>
@@ -7657,18 +7630,18 @@
         <v>5</v>
       </c>
       <c r="G48" t="s">
-        <v>513</v>
+        <v>365</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D49">
         <v>40</v>
@@ -7680,64 +7653,64 @@
         <v>35</v>
       </c>
       <c r="G49" t="s">
-        <v>506</v>
+        <v>358</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50" t="s">
         <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D50" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E50" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F50">
         <v>30</v>
       </c>
       <c r="G50" t="s">
-        <v>507</v>
+        <v>359</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B51" t="s">
         <v>39</v>
       </c>
       <c r="C51" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D51" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E51" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F51">
         <v>30</v>
       </c>
       <c r="G51" t="s">
-        <v>518</v>
+        <v>370</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B52" t="s">
         <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D52">
         <v>70</v>
@@ -7749,18 +7722,18 @@
         <v>15</v>
       </c>
       <c r="G52" t="s">
-        <v>498</v>
+        <v>350</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B53" t="s">
         <v>23</v>
       </c>
       <c r="C53" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D53">
         <v>130</v>
@@ -7772,18 +7745,18 @@
         <v>10</v>
       </c>
       <c r="G53" t="s">
-        <v>519</v>
+        <v>371</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B54" t="s">
         <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D54">
         <v>65</v>
@@ -7795,21 +7768,21 @@
         <v>25</v>
       </c>
       <c r="G54" t="s">
-        <v>506</v>
+        <v>358</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B55" t="s">
         <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D55" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E55">
         <v>30</v>
@@ -7818,18 +7791,18 @@
         <v>5</v>
       </c>
       <c r="G55" t="s">
-        <v>513</v>
+        <v>365</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B56" t="s">
         <v>22</v>
       </c>
       <c r="C56" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D56">
         <v>110</v>
@@ -7841,18 +7814,18 @@
         <v>5</v>
       </c>
       <c r="G56" t="s">
-        <v>506</v>
+        <v>358</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B57" t="s">
         <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D57">
         <v>150</v>
@@ -7864,18 +7837,18 @@
         <v>5</v>
       </c>
       <c r="G57" t="s">
-        <v>520</v>
+        <v>372</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B58" t="s">
         <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D58">
         <v>80</v>
@@ -7887,21 +7860,21 @@
         <v>15</v>
       </c>
       <c r="G58" t="s">
-        <v>501</v>
+        <v>353</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B59" t="s">
         <v>12</v>
       </c>
       <c r="C59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D59" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E59">
         <v>60</v>
@@ -7910,18 +7883,18 @@
         <v>20</v>
       </c>
       <c r="G59" t="s">
-        <v>521</v>
+        <v>396</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B60" t="s">
         <v>39</v>
       </c>
       <c r="C60" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D60">
         <v>90</v>
@@ -7933,18 +7906,18 @@
         <v>10</v>
       </c>
       <c r="G60" t="s">
-        <v>499</v>
+        <v>351</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B61" t="s">
         <v>39</v>
       </c>
       <c r="C61" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D61">
         <v>75</v>
@@ -7956,18 +7929,18 @@
         <v>15</v>
       </c>
       <c r="G61" t="s">
-        <v>499</v>
+        <v>351</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B62" t="s">
         <v>23</v>
       </c>
       <c r="C62" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D62">
         <v>100</v>
@@ -7979,18 +7952,18 @@
         <v>10</v>
       </c>
       <c r="G62" t="s">
-        <v>519</v>
+        <v>371</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B63" t="s">
         <v>23</v>
       </c>
       <c r="C63" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D63">
         <v>50</v>
@@ -8002,21 +7975,21 @@
         <v>25</v>
       </c>
       <c r="G63" t="s">
-        <v>505</v>
+        <v>357</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B64" t="s">
         <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D64" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E64">
         <v>80</v>
@@ -8025,18 +7998,18 @@
         <v>15</v>
       </c>
       <c r="G64" t="s">
-        <v>514</v>
+        <v>366</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B65" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C65" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D65">
         <v>80</v>
@@ -8048,21 +8021,21 @@
         <v>10</v>
       </c>
       <c r="G65" t="s">
-        <v>490</v>
+        <v>342</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B66" t="s">
         <v>11</v>
       </c>
       <c r="C66" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D66" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E66">
         <v>90</v>
@@ -8071,21 +8044,21 @@
         <v>10</v>
       </c>
       <c r="G66" t="s">
-        <v>522</v>
+        <v>373</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B67" t="s">
         <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D67" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E67">
         <v>100</v>
@@ -8094,18 +8067,18 @@
         <v>30</v>
       </c>
       <c r="G67" t="s">
-        <v>523</v>
+        <v>374</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B68" t="s">
         <v>19</v>
       </c>
       <c r="C68" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D68">
         <v>30</v>
@@ -8117,21 +8090,21 @@
         <v>30</v>
       </c>
       <c r="G68" t="s">
-        <v>500</v>
+        <v>352</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B69" t="s">
         <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D69" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E69">
         <v>75</v>
@@ -8140,41 +8113,41 @@
         <v>10</v>
       </c>
       <c r="G69" t="s">
-        <v>521</v>
+        <v>396</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B70" t="s">
         <v>12</v>
       </c>
       <c r="C70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D70" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E70" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F70">
         <v>40</v>
       </c>
       <c r="G70" t="s">
-        <v>524</v>
+        <v>375</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B71" t="s">
         <v>11</v>
       </c>
       <c r="C71" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D71">
         <v>40</v>
@@ -8186,18 +8159,18 @@
         <v>15</v>
       </c>
       <c r="G71" t="s">
-        <v>490</v>
+        <v>342</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B72" t="s">
         <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D72">
         <v>120</v>
@@ -8209,18 +8182,18 @@
         <v>5</v>
       </c>
       <c r="G72" t="s">
-        <v>506</v>
+        <v>358</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B73" t="s">
         <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D73">
         <v>80</v>
@@ -8232,41 +8205,41 @@
         <v>20</v>
       </c>
       <c r="G73" t="s">
-        <v>506</v>
+        <v>358</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B74" t="s">
         <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D74" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E74" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F74">
         <v>10</v>
       </c>
       <c r="G74" t="s">
-        <v>525</v>
+        <v>376</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B75" t="s">
         <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D75">
         <v>40</v>
@@ -8278,18 +8251,18 @@
         <v>20</v>
       </c>
       <c r="G75" t="s">
-        <v>506</v>
+        <v>358</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B76" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C76" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D76">
         <v>35</v>
@@ -8301,18 +8274,18 @@
         <v>35</v>
       </c>
       <c r="G76" t="s">
-        <v>506</v>
+        <v>358</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B77" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C77" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D77">
         <v>25</v>
@@ -8324,21 +8297,21 @@
         <v>20</v>
       </c>
       <c r="G77" t="s">
-        <v>496</v>
+        <v>348</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B78" t="s">
         <v>25</v>
       </c>
       <c r="C78" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D78" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E78">
         <v>90</v>
@@ -8347,21 +8320,21 @@
         <v>40</v>
       </c>
       <c r="G78" t="s">
-        <v>526</v>
+        <v>377</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B79" t="s">
         <v>25</v>
       </c>
       <c r="C79" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D79" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E79">
         <v>75</v>
@@ -8370,18 +8343,18 @@
         <v>35</v>
       </c>
       <c r="G79" t="s">
-        <v>526</v>
+        <v>377</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B80" t="s">
         <v>25</v>
       </c>
       <c r="C80" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D80">
         <v>15</v>
@@ -8393,18 +8366,18 @@
         <v>35</v>
       </c>
       <c r="G80" t="s">
-        <v>527</v>
+        <v>378</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B81" t="s">
         <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D81">
         <v>40</v>
@@ -8416,18 +8389,18 @@
         <v>35</v>
       </c>
       <c r="G81" t="s">
-        <v>506</v>
+        <v>358</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B82" t="s">
         <v>12</v>
       </c>
       <c r="C82" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D82">
         <v>65</v>
@@ -8439,7 +8412,7 @@
         <v>20</v>
       </c>
       <c r="G82" t="s">
-        <v>504</v>
+        <v>356</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -8450,7 +8423,7 @@
         <v>12</v>
       </c>
       <c r="C83" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D83">
         <v>90</v>
@@ -8462,21 +8435,21 @@
         <v>10</v>
       </c>
       <c r="G83" t="s">
-        <v>528</v>
+        <v>379</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B84" t="s">
         <v>12</v>
       </c>
       <c r="C84" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D84" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E84">
         <v>100</v>
@@ -8485,18 +8458,18 @@
         <v>15</v>
       </c>
       <c r="G84" t="s">
-        <v>544</v>
+        <v>395</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B85" t="s">
         <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D85">
         <v>40</v>
@@ -8508,18 +8481,18 @@
         <v>30</v>
       </c>
       <c r="G85" t="s">
-        <v>529</v>
+        <v>380</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B86" t="s">
         <v>11</v>
       </c>
       <c r="C86" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D86">
         <v>55</v>
@@ -8531,41 +8504,41 @@
         <v>25</v>
       </c>
       <c r="G86" t="s">
-        <v>505</v>
+        <v>357</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B87" t="s">
         <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D87" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E87" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F87">
         <v>5</v>
       </c>
       <c r="G87" t="s">
-        <v>530</v>
+        <v>381</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B88" t="s">
         <v>17</v>
       </c>
       <c r="C88" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D88">
         <v>75</v>
@@ -8577,18 +8550,18 @@
         <v>10</v>
       </c>
       <c r="G88" t="s">
-        <v>498</v>
+        <v>350</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B89" t="s">
         <v>17</v>
       </c>
       <c r="C89" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D89">
         <v>50</v>
@@ -8600,18 +8573,18 @@
         <v>15</v>
       </c>
       <c r="G89" t="s">
-        <v>506</v>
+        <v>358</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B90" t="s">
         <v>23</v>
       </c>
       <c r="C90" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D90">
         <v>60</v>
@@ -8623,21 +8596,21 @@
         <v>15</v>
       </c>
       <c r="G90" t="s">
-        <v>498</v>
+        <v>350</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B91" t="s">
         <v>21</v>
       </c>
       <c r="C91" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D91" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E91">
         <v>100</v>
@@ -8646,18 +8619,18 @@
         <v>15</v>
       </c>
       <c r="G91" t="s">
-        <v>514</v>
+        <v>366</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B92" t="s">
         <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D92">
         <v>40</v>
@@ -8669,21 +8642,21 @@
         <v>35</v>
       </c>
       <c r="G92" t="s">
-        <v>506</v>
+        <v>358</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B93" t="s">
         <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D93" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E93">
         <v>85</v>
@@ -8692,21 +8665,21 @@
         <v>40</v>
       </c>
       <c r="G93" t="s">
-        <v>523</v>
+        <v>374</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B94" t="s">
         <v>23</v>
       </c>
       <c r="C94" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D94" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E94">
         <v>100</v>
@@ -8715,18 +8688,18 @@
         <v>20</v>
       </c>
       <c r="G94" t="s">
-        <v>543</v>
+        <v>394</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B95" t="s">
         <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D95">
         <v>200</v>
@@ -8738,44 +8711,44 @@
         <v>5</v>
       </c>
       <c r="G95" t="s">
-        <v>512</v>
+        <v>364</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B96" t="s">
         <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D96" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F96">
         <v>30</v>
       </c>
       <c r="G96" t="s">
-        <v>524</v>
+        <v>375</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B97" t="s">
         <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D97" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E97">
         <v>55</v>
@@ -8784,18 +8757,18 @@
         <v>15</v>
       </c>
       <c r="G97" t="s">
-        <v>521</v>
+        <v>396</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B98" t="s">
         <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D98">
         <v>80</v>
@@ -8807,18 +8780,18 @@
         <v>20</v>
       </c>
       <c r="G98" t="s">
-        <v>506</v>
+        <v>358</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B99" t="s">
         <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D99">
         <v>70</v>
@@ -8830,21 +8803,21 @@
         <v>20</v>
       </c>
       <c r="G99" t="s">
-        <v>505</v>
+        <v>357</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B100" t="s">
         <v>11</v>
       </c>
       <c r="C100" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D100" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E100">
         <v>75</v>
@@ -8853,18 +8826,18 @@
         <v>15</v>
       </c>
       <c r="G100" t="s">
-        <v>521</v>
+        <v>396</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B101" t="s">
         <v>25</v>
       </c>
       <c r="C101" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D101">
         <v>65</v>
@@ -8876,18 +8849,18 @@
         <v>20</v>
       </c>
       <c r="G101" t="s">
-        <v>527</v>
+        <v>378</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B102" t="s">
         <v>25</v>
       </c>
       <c r="C102" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D102">
         <v>30</v>
@@ -8899,21 +8872,21 @@
         <v>20</v>
       </c>
       <c r="G102" t="s">
-        <v>531</v>
+        <v>382</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B103" t="s">
         <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D103" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E103">
         <v>100</v>
@@ -8922,41 +8895,41 @@
         <v>20</v>
       </c>
       <c r="G103" t="s">
-        <v>514</v>
+        <v>366</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B104" t="s">
         <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D104" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E104" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F104">
         <v>5</v>
       </c>
       <c r="G104" t="s">
-        <v>530</v>
+        <v>381</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B105" t="s">
         <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D105">
         <v>20</v>
@@ -8968,21 +8941,21 @@
         <v>15</v>
       </c>
       <c r="G105" t="s">
-        <v>496</v>
+        <v>348</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B106" t="s">
         <v>11</v>
       </c>
       <c r="C106" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D106" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E106">
         <v>100</v>
@@ -8991,18 +8964,18 @@
         <v>15</v>
       </c>
       <c r="G106" t="s">
-        <v>521</v>
+        <v>396</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B107" t="s">
         <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D107">
         <v>65</v>
@@ -9014,18 +8987,18 @@
         <v>20</v>
       </c>
       <c r="G107" t="s">
-        <v>498</v>
+        <v>350</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B108" t="s">
         <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D108">
         <v>80</v>
@@ -9037,21 +9010,21 @@
         <v>15</v>
       </c>
       <c r="G108" t="s">
-        <v>506</v>
+        <v>358</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B109" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C109" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D109" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E109">
         <v>95</v>
@@ -9060,21 +9033,21 @@
         <v>40</v>
       </c>
       <c r="G109" t="s">
-        <v>532</v>
+        <v>383</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B110" t="s">
         <v>11</v>
       </c>
       <c r="C110" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D110" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E110">
         <v>75</v>
@@ -9083,18 +9056,18 @@
         <v>30</v>
       </c>
       <c r="G110" t="s">
-        <v>515</v>
+        <v>367</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B111" t="s">
         <v>23</v>
       </c>
       <c r="C111" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D111">
         <v>80</v>
@@ -9106,21 +9079,21 @@
         <v>20</v>
       </c>
       <c r="G111" t="s">
-        <v>533</v>
+        <v>384</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B112" t="s">
         <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D112" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E112">
         <v>90</v>
@@ -9129,21 +9102,21 @@
         <v>10</v>
       </c>
       <c r="G112" t="s">
-        <v>534</v>
+        <v>385</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B113" t="s">
         <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D113" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E113">
         <v>55</v>
@@ -9152,18 +9125,18 @@
         <v>20</v>
       </c>
       <c r="G113" t="s">
-        <v>535</v>
+        <v>386</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B114" t="s">
         <v>22</v>
       </c>
       <c r="C114" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D114">
         <v>90</v>
@@ -9175,41 +9148,41 @@
         <v>15</v>
       </c>
       <c r="G114" t="s">
-        <v>506</v>
+        <v>358</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B115" t="s">
         <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D115" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E115" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F115">
         <v>20</v>
       </c>
       <c r="G115" t="s">
-        <v>536</v>
+        <v>387</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B116" t="s">
         <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D116">
         <v>40</v>
@@ -9221,21 +9194,21 @@
         <v>35</v>
       </c>
       <c r="G116" t="s">
-        <v>506</v>
+        <v>358</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B117" t="s">
         <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D117" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E117">
         <v>100</v>
@@ -9244,18 +9217,18 @@
         <v>30</v>
       </c>
       <c r="G117" t="s">
-        <v>523</v>
+        <v>374</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B118" t="s">
         <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D118">
         <v>90</v>
@@ -9267,18 +9240,18 @@
         <v>20</v>
       </c>
       <c r="G118" t="s">
-        <v>533</v>
+        <v>384</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B119" t="s">
         <v>18</v>
       </c>
       <c r="C119" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D119">
         <v>110</v>
@@ -9290,18 +9263,18 @@
         <v>10</v>
       </c>
       <c r="G119" t="s">
-        <v>500</v>
+        <v>352</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B120" t="s">
         <v>18</v>
       </c>
       <c r="C120" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D120">
         <v>75</v>
@@ -9313,18 +9286,18 @@
         <v>15</v>
       </c>
       <c r="G120" t="s">
-        <v>537</v>
+        <v>388</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B121" t="s">
         <v>18</v>
       </c>
       <c r="C121" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D121">
         <v>40</v>
@@ -9336,21 +9309,21 @@
         <v>30</v>
       </c>
       <c r="G121" t="s">
-        <v>537</v>
+        <v>388</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B122" t="s">
         <v>18</v>
       </c>
       <c r="C122" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D122" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E122">
         <v>90</v>
@@ -9359,18 +9332,18 @@
         <v>20</v>
       </c>
       <c r="G122" t="s">
-        <v>515</v>
+        <v>367</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B123" t="s">
         <v>18</v>
       </c>
       <c r="C123" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D123">
         <v>90</v>
@@ -9382,21 +9355,21 @@
         <v>15</v>
       </c>
       <c r="G123" t="s">
-        <v>537</v>
+        <v>388</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B124" t="s">
         <v>25</v>
       </c>
       <c r="C124" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D124" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E124">
         <v>90</v>
@@ -9405,18 +9378,18 @@
         <v>10</v>
       </c>
       <c r="G124" t="s">
-        <v>538</v>
+        <v>389</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B125" t="s">
         <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D125">
         <v>80</v>
@@ -9428,18 +9401,18 @@
         <v>10</v>
       </c>
       <c r="G125" t="s">
-        <v>539</v>
+        <v>390</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B126" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C126" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D126">
         <v>25</v>
@@ -9451,18 +9424,18 @@
         <v>20</v>
       </c>
       <c r="G126" t="s">
-        <v>540</v>
+        <v>391</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B127" t="s">
         <v>11</v>
       </c>
       <c r="C127" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D127">
         <v>45</v>
@@ -9474,18 +9447,18 @@
         <v>25</v>
       </c>
       <c r="G127" t="s">
-        <v>506</v>
+        <v>358</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B128" t="s">
         <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D128">
         <v>55</v>
@@ -9497,18 +9470,18 @@
         <v>30</v>
       </c>
       <c r="G128" t="s">
-        <v>506</v>
+        <v>358</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B129" t="s">
         <v>22</v>
       </c>
       <c r="C129" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D129">
         <v>40</v>
@@ -9520,18 +9493,18 @@
         <v>25</v>
       </c>
       <c r="G129" t="s">
-        <v>506</v>
+        <v>358</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B130" t="s">
         <v>22</v>
       </c>
       <c r="C130" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D130">
         <v>80</v>
@@ -9543,18 +9516,18 @@
         <v>15</v>
       </c>
       <c r="G130" t="s">
-        <v>541</v>
+        <v>392</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B131" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C131" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D131">
         <v>60</v>
@@ -9566,41 +9539,41 @@
         <v>35</v>
       </c>
       <c r="G131" t="s">
-        <v>506</v>
+        <v>358</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B132" t="s">
         <v>22</v>
       </c>
       <c r="C132" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D132" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E132" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F132">
         <v>40</v>
       </c>
       <c r="G132" t="s">
-        <v>507</v>
+        <v>359</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B133" t="s">
         <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D133">
         <v>15</v>
@@ -9612,7 +9585,7 @@
         <v>20</v>
       </c>
       <c r="G133" t="s">
-        <v>497</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
